--- a/bluerov2_description/specs/T200-Public-Performance-Data-10-20V-September-2019.xlsx
+++ b/bluerov2_description/specs/T200-Public-Performance-Data-10-20V-September-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME FIRST" sheetId="1" state="visible" r:id="rId2"/>
@@ -95,6 +95,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,6 +141,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,7 +296,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1619,6 +1621,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2366,7 +2369,7 @@
                   <c:v>-20.5549968142274</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-19.8652729258977</c:v>
+                  <c:v>-19.8652729258976</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-19.517077523852</c:v>
@@ -2453,10 +2456,10 @@
                   <c:v>-7.6931967863256</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-7.32523946480273</c:v>
+                  <c:v>-7.32523946480272</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-6.99940922115079</c:v>
+                  <c:v>-6.99940922115078</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-6.62944177247546</c:v>
@@ -2795,7 +2798,7 @@
                   <c:v>32.2186537621705</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32.5700336346258</c:v>
+                  <c:v>32.5700336346259</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>33.1746986678587</c:v>
@@ -4128,11 +4131,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49051182"/>
-        <c:axId val="82770222"/>
+        <c:axId val="91921898"/>
+        <c:axId val="31238134"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49051182"/>
+        <c:axId val="91921898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,12 +4163,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82770222"/>
+        <c:crossAx val="31238134"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82770222"/>
+        <c:axId val="31238134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4202,7 +4205,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49051182"/>
+        <c:crossAx val="91921898"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4261,9 +4264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4273,7 +4276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="399960" y="104760"/>
-          <a:ext cx="6680880" cy="5561280"/>
+          <a:ext cx="6687360" cy="5560920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4810,9 +4813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>408600</xdr:colOff>
+      <xdr:colOff>408240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4821,8 +4824,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7263720" y="95400"/>
-          <a:ext cx="6681600" cy="5561280"/>
+          <a:off x="7270560" y="95400"/>
+          <a:ext cx="6688440" cy="5560920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5145,9 +5148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5156,8 +5159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5275440" y="5819760"/>
-          <a:ext cx="3871080" cy="474840"/>
+          <a:off x="5280480" y="5819760"/>
+          <a:ext cx="3874680" cy="474480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5245,9 +5248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5256,7 +5259,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10305720" y="3080880"/>
-        <a:ext cx="10018440" cy="5605560"/>
+        <a:ext cx="10025640" cy="5605200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5276,11 +5279,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X22" activeCellId="0" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5300,11 +5303,11 @@
   </sheetPr>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
@@ -10177,11 +10180,11 @@
   </sheetPr>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -15056,11 +15059,11 @@
   </sheetPr>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E202" activeCellId="0" sqref="E202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.14"/>
@@ -19932,11 +19935,11 @@
   </sheetPr>
   <dimension ref="A3:W204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -19945,7 +19948,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.76"/>
@@ -22143,7 +22146,7 @@
       </c>
       <c r="N44" s="0" t="n">
         <f aca="false">K44*Q$4</f>
-        <v>-19.8652729258977</v>
+        <v>-19.8652729258976</v>
       </c>
       <c r="O44" s="0" t="n">
         <f aca="false">IF(K44=0,0,L44/K44)</f>
@@ -23651,7 +23654,7 @@
       </c>
       <c r="N73" s="0" t="n">
         <f aca="false">K73*Q$4</f>
-        <v>-7.32523946480273</v>
+        <v>-7.32523946480272</v>
       </c>
       <c r="O73" s="0" t="n">
         <f aca="false">IF(K73=0,0,L73/K73)</f>
@@ -23703,7 +23706,7 @@
       </c>
       <c r="N74" s="0" t="n">
         <f aca="false">K74*Q$4</f>
-        <v>-6.99940922115079</v>
+        <v>-6.99940922115078</v>
       </c>
       <c r="O74" s="0" t="n">
         <f aca="false">IF(K74=0,0,L74/K74)</f>
@@ -29579,7 +29582,7 @@
       </c>
       <c r="N187" s="0" t="n">
         <f aca="false">K187*Q$4</f>
-        <v>32.5700336346258</v>
+        <v>32.5700336346259</v>
       </c>
       <c r="O187" s="0" t="n">
         <f aca="false">IF(K187=0,0,L187/K187)</f>
@@ -30488,11 +30491,11 @@
   </sheetPr>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -35366,11 +35369,11 @@
   </sheetPr>
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>

--- a/bluerov2_description/specs/T200-Public-Performance-Data-10-20V-September-2019.xlsx
+++ b/bluerov2_description/specs/T200-Public-Performance-Data-10-20V-September-2019.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Signed RPM</t>
   </si>
   <si>
-    <t xml:space="preserve">Rho.D**4.Rpm**2</t>
+    <t xml:space="preserve">Rho.D**4.w**2</t>
   </si>
   <si>
     <t xml:space="preserve">Thrust [N]</t>
@@ -296,7 +296,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -336,7 +336,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -354,6 +354,11 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1611,7 +1616,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1629,6 +1634,11 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2249,283 +2259,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>-40.0487516988387</c:v>
+                  <c:v>-48.3073581956246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-40.1250005448088</c:v>
+                  <c:v>-48.3993306081976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-39.6879243611554</c:v>
+                  <c:v>-47.8721232704684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-39.0472978173814</c:v>
+                  <c:v>-47.0993906731473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-38.7927342326989</c:v>
+                  <c:v>-46.7923325565474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38.4483439826621</c:v>
+                  <c:v>-46.3769242738445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-37.9775115880195</c:v>
+                  <c:v>-45.8089997275531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-37.5812082828218</c:v>
+                  <c:v>-45.3309731997287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-36.8431600405447</c:v>
+                  <c:v>-44.4407292022768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-36.4762187390703</c:v>
+                  <c:v>-43.9981195294363</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-35.9416228892176</c:v>
+                  <c:v>-43.3532826215865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-35.187206011399</c:v>
+                  <c:v>-42.443294549557</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-34.6608857680724</c:v>
+                  <c:v>-41.8084397927553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-34.3144201391375</c:v>
+                  <c:v>-41.3905281593218</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-33.6726939246631</c:v>
+                  <c:v>-40.6164691239926</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-33.1658621524089</c:v>
+                  <c:v>-40.0051216305346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-32.2983266098919</c:v>
+                  <c:v>-38.9586882606521</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-31.7782989877373</c:v>
+                  <c:v>-38.3314237505383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-31.2675983707433</c:v>
+                  <c:v>-37.7154096030468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-31.0306871814537</c:v>
+                  <c:v>-37.4296440499126</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-30.0924526277169</c:v>
+                  <c:v>-36.2979325548899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-29.7808483375227</c:v>
+                  <c:v>-35.9220711503973</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-29.0793147593389</c:v>
+                  <c:v>-35.0758716457929</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-28.4108662345738</c:v>
+                  <c:v>-34.2695797902069</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-27.977537940424</c:v>
+                  <c:v>-33.7468932086321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-27.379072343802</c:v>
+                  <c:v>-33.025015728875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-27.0057066772588</c:v>
+                  <c:v>-32.5746568980362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-26.5540858983383</c:v>
+                  <c:v>-32.0299056683359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-26.0139629421257</c:v>
+                  <c:v>-31.3784018883516</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-25.3867229341061</c:v>
+                  <c:v>-30.6218163156006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-24.9806658397794</c:v>
+                  <c:v>-30.1320246324288</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-24.5391412927072</c:v>
+                  <c:v>-29.5994516172203</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-23.9845860660024</c:v>
+                  <c:v>-28.9305394329622</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-23.6171017707592</c:v>
+                  <c:v>-28.4872747935279</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-23.0587383490816</c:v>
+                  <c:v>-27.8137691118241</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-22.5292434158009</c:v>
+                  <c:v>-27.1750850000918</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-22.1371895236898</c:v>
+                  <c:v>-26.7021841731042</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-21.6575287482968</c:v>
+                  <c:v>-26.1236107118502</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-21.1412772507226</c:v>
+                  <c:v>-25.500901015431</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-20.5549968142274</c:v>
+                  <c:v>-24.7937214443464</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-19.8652729258976</c:v>
+                  <c:v>-23.9617669509786</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-19.517077523852</c:v>
+                  <c:v>-23.5417688412952</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-18.7309784304128</c:v>
+                  <c:v>-22.5935652426016</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-18.3529857506689</c:v>
+                  <c:v>-22.1376252444458</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-17.7466382168605</c:v>
+                  <c:v>-21.406240463043</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-17.3103007161555</c:v>
+                  <c:v>-20.8799241349025</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-16.8618390066847</c:v>
+                  <c:v>-20.3389834184643</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-16.4771916237374</c:v>
+                  <c:v>-19.8750164252661</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-16.1285090725357</c:v>
+                  <c:v>-19.4544307095333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-15.5216737880513</c:v>
+                  <c:v>-18.722457596519</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-15.2806840477241</c:v>
+                  <c:v>-18.4317724387145</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-14.7936805856773</c:v>
+                  <c:v>-17.8443421272653</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-14.4528318577327</c:v>
+                  <c:v>-17.4332056774912</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-13.8816892600493</c:v>
+                  <c:v>-16.7442855769461</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-13.3618237663934</c:v>
+                  <c:v>-16.1172166284696</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-12.9238772379658</c:v>
+                  <c:v>-15.5889594688365</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-12.4980057584704</c:v>
+                  <c:v>-15.0752674002299</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-12.07876120016</c:v>
+                  <c:v>-14.5695688156109</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-11.6609298916492</c:v>
+                  <c:v>-14.0655749124459</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-11.2948527622791</c:v>
+                  <c:v>-13.6240076159497</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-10.8982839548796</c:v>
+                  <c:v>-13.1456608356975</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-10.488443215471</c:v>
+                  <c:v>-12.6513052674976</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-10.0728875329782</c:v>
+                  <c:v>-12.1500562559089</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-9.69801291389731</c:v>
+                  <c:v>-11.6978773056493</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-9.27164577922549</c:v>
+                  <c:v>-11.1835873709138</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-8.86780357440825</c:v>
+                  <c:v>-10.6964673181012</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.42548840014686</c:v>
+                  <c:v>-10.1629406374426</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-8.05544103404704</c:v>
+                  <c:v>-9.71658438649228</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-7.6931967863256</c:v>
+                  <c:v>-9.27964036485149</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-7.32523946480272</c:v>
+                  <c:v>-8.83580515457638</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-6.99940922115078</c:v>
+                  <c:v>-8.44278420827013</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-6.62944177247546</c:v>
+                  <c:v>-7.99652435482267</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-6.18955749146558</c:v>
+                  <c:v>-7.4659298512245</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-5.8542298650229</c:v>
+                  <c:v>-7.06145303044197</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-5.50747413929005</c:v>
+                  <c:v>-6.64319147823871</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-5.18069520846775</c:v>
+                  <c:v>-6.2490262123467</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-4.79919033465325</c:v>
+                  <c:v>-5.78884975712732</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-4.43473611634165</c:v>
+                  <c:v>-5.34924003839555</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-4.1306495588008</c:v>
+                  <c:v>-4.98244662700375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.77769958227364</c:v>
+                  <c:v>-4.55671348382244</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-3.44708541676847</c:v>
+                  <c:v>-4.15792210481246</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-3.1369763575826</c:v>
+                  <c:v>-3.7838642686419</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.79945675610749</c:v>
+                  <c:v>-3.37674345725905</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.5170626143529</c:v>
+                  <c:v>-3.03611573780679</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.18856809901966</c:v>
+                  <c:v>-2.6398811101502</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.91762926007354</c:v>
+                  <c:v>-2.31307093537872</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.62206699005149</c:v>
+                  <c:v>-1.95655963748773</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.37190067728434</c:v>
+                  <c:v>-1.65480557108891</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.11384427428219</c:v>
+                  <c:v>-1.3435343687243</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.8788449979024</c:v>
+                  <c:v>-1.06007499138444</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.6740836001344</c:v>
+                  <c:v>-0.813088961432795</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.503490985370583</c:v>
+                  <c:v>-0.607317790114043</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.335612844356017</c:v>
+                  <c:v>-0.404820854574317</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
@@ -2573,283 +2583,283 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.3170009324304</c:v>
+                  <c:v>0.382370908996555</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.468655300808704</c:v>
+                  <c:v>0.565298505598634</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.648242559729664</c:v>
+                  <c:v>0.781919141100658</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.860991555030838</c:v>
+                  <c:v>1.03853992166973</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.09484179102852</c:v>
+                  <c:v>1.32061331060882</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.32595294500231</c:v>
+                  <c:v>1.59938278092766</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.5803264510224</c:v>
+                  <c:v>1.90621162201599</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.87322100071502</c:v>
+                  <c:v>2.25950507874957</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.15449273477898</c:v>
+                  <c:v>2.59877893452187</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.46402476143514</c:v>
+                  <c:v>2.97214074607441</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.73927344571353</c:v>
+                  <c:v>3.30414951589324</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.08446642273354</c:v>
+                  <c:v>3.72052605898541</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.38564187686585</c:v>
+                  <c:v>4.08380805718369</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.72498822328698</c:v>
+                  <c:v>4.49313231358532</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.06859296989774</c:v>
+                  <c:v>4.90759311119173</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.39298537616</c:v>
+                  <c:v>5.29887971815249</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.76109295725374</c:v>
+                  <c:v>5.74289617360014</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.10555453128583</c:v>
+                  <c:v>6.15839048829253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5.45658283046155</c:v>
+                  <c:v>6.58180567767466</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.8049253647077</c:v>
+                  <c:v>7.00198126025321</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6.16350129071452</c:v>
+                  <c:v>7.43450050150688</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>6.62003931041338</c:v>
+                  <c:v>7.98518297504208</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6.9516507574336</c:v>
+                  <c:v>8.38517728880837</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7.30399766225267</c:v>
+                  <c:v>8.81018299855462</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7.66778558186109</c:v>
+                  <c:v>9.24898901857536</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.00120346126647</c:v>
+                  <c:v>9.65116227606864</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8.36040223607932</c:v>
+                  <c:v>10.0844328061665</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.85160215809975</c:v>
+                  <c:v>10.6769249456754</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>9.2867797056549</c:v>
+                  <c:v>11.2018421222836</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>9.63134936946739</c:v>
+                  <c:v>11.6174668163641</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>10.1001519122381</c:v>
+                  <c:v>12.1829429272538</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10.4069697991004</c:v>
+                  <c:v>12.5530309058489</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.8372270702528</c:v>
+                  <c:v>13.07201317701</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>11.2350197333814</c:v>
+                  <c:v>13.5518361889692</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>11.609964921805</c:v>
+                  <c:v>14.0041002609461</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>12.0545239292652</c:v>
+                  <c:v>14.5403334842426</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>12.424243983727</c:v>
+                  <c:v>14.9862949273682</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>12.8271397132862</c:v>
+                  <c:v>15.4722733286341</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>13.2659856896485</c:v>
+                  <c:v>16.0016154148061</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>13.7616319706883</c:v>
+                  <c:v>16.5994708140597</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>14.3142874149705</c:v>
+                  <c:v>17.2660914544847</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>14.8008472665018</c:v>
+                  <c:v>17.8529866767949</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>15.1176152945789</c:v>
+                  <c:v>18.2350766533393</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>15.5710782014112</c:v>
+                  <c:v>18.7820498832043</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>15.9949887119196</c:v>
+                  <c:v>19.2933766038974</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>16.4300705620746</c:v>
+                  <c:v>19.8181783489781</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>16.7960505140984</c:v>
+                  <c:v>20.2596284288153</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>17.1359556559494</c:v>
+                  <c:v>20.6696267119928</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>17.7307909100243</c:v>
+                  <c:v>21.38712522236</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>18.2926269872568</c:v>
+                  <c:v>22.064819669223</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>19.0855241785354</c:v>
+                  <c:v>23.0212232275518</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>19.4706261651689</c:v>
+                  <c:v>23.4857385700035</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>19.9599832443261</c:v>
+                  <c:v>24.0760078469632</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>20.4385648484077</c:v>
+                  <c:v>24.653279596856</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>20.8165110990121</c:v>
+                  <c:v>25.1091635915416</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>21.4880267333914</c:v>
+                  <c:v>25.9191550371642</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>22.2676641738586</c:v>
+                  <c:v>26.8595645006747</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>22.7033177286038</c:v>
+                  <c:v>27.3850558437392</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>23.239068742466</c:v>
+                  <c:v>28.0312861263939</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>23.6634596916624</c:v>
+                  <c:v>28.5431923588771</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>24.107472127594</c:v>
+                  <c:v>29.0787663000365</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>24.5159836508529</c:v>
+                  <c:v>29.5715185493326</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>24.9644186385551</c:v>
+                  <c:v>30.112427033604</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>25.5227412582915</c:v>
+                  <c:v>30.785883499442</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26.3318592666511</c:v>
+                  <c:v>31.761852831677</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>26.5772450491639</c:v>
+                  <c:v>32.0578405563656</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>27.1669298785321</c:v>
+                  <c:v>32.7691265532184</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>27.8258696863744</c:v>
+                  <c:v>33.5639488629413</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>28.1189632381106</c:v>
+                  <c:v>33.9174823586924</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>28.7121057887894</c:v>
+                  <c:v>34.6329391068119</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>29.4912956633215</c:v>
+                  <c:v>35.5728087101014</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>30.0603980354981</c:v>
+                  <c:v>36.259267862423</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>30.8697287317333</c:v>
+                  <c:v>37.235493741715</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>31.3430194016333</c:v>
+                  <c:v>37.8063834936211</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>32.2186537621705</c:v>
+                  <c:v>38.8625857698108</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32.5700336346259</c:v>
+                  <c:v>39.2864250317454</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>33.1746986678587</c:v>
+                  <c:v>40.0157803576841</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>33.744169275053</c:v>
+                  <c:v>40.7026836801767</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>34.2555978437178</c:v>
+                  <c:v>41.3195758930416</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>35.072451195529</c:v>
+                  <c:v>42.3048757035319</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>35.4581614129974</c:v>
+                  <c:v>42.7701247024288</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>36.3166584074009</c:v>
+                  <c:v>43.8056556505686</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>36.5042439701109</c:v>
+                  <c:v>44.0319239507221</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>37.4659647794659</c:v>
+                  <c:v>45.1919648920991</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>38.0863239687979</c:v>
+                  <c:v>45.9402507261837</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>38.6938232459919</c:v>
+                  <c:v>46.6730247563875</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>39.2013047119271</c:v>
+                  <c:v>47.2851559193491</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>39.4315070241782</c:v>
+                  <c:v>47.5628291322123</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>39.8242823643375</c:v>
+                  <c:v>48.0366001798136</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>40.7249344918666</c:v>
+                  <c:v>49.1229792325585</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>41.242003037138</c:v>
+                  <c:v>49.7466744632101</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>41.5070557516749</c:v>
+                  <c:v>50.0663847133109</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>41.6534559697558</c:v>
+                  <c:v>50.2429746811563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,7 +2896,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2904,6 +2914,11 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3533,13 +3548,13 @@
                   <c:v>-39.2308715268087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-38.5976225464196</c:v>
+                  <c:v>-38.5976225464197</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-38.3459905589364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38.0055663651353</c:v>
+                  <c:v>-38.0055663651354</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-37.5401561558033</c:v>
@@ -3560,16 +3575,16 @@
                   <c:v>-34.7819842090718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-34.2617251584848</c:v>
+                  <c:v>-34.2617251584849</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-33.9192494861994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-33.2849134991033</c:v>
+                  <c:v>-33.2849134991032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-32.7839184870671</c:v>
+                  <c:v>-32.783918487067</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-31.9263736302557</c:v>
@@ -3578,13 +3593,13 @@
                   <c:v>-31.4123347339534</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-30.9075154314463</c:v>
+                  <c:v>-30.9075154314462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-30.6733325513917</c:v>
+                  <c:v>-30.6733325513918</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-29.7459028651044</c:v>
+                  <c:v>-29.7459028651043</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-29.4378870624998</c:v>
@@ -3602,13 +3617,13 @@
                   <c:v>-27.0637703264265</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-26.6947044019053</c:v>
+                  <c:v>-26.6947044019054</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-26.2482845640866</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-25.7143817549844</c:v>
+                  <c:v>-25.7143817549843</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-25.0943651487449</c:v>
@@ -3620,19 +3635,19 @@
                   <c:v>-24.2565444005592</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-23.7083755254273</c:v>
+                  <c:v>-23.7083755254274</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-23.3451232413417</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-22.7931900270529</c:v>
+                  <c:v>-22.793190027053</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-22.269792846777</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-21.8822539134472</c:v>
+                  <c:v>-21.8822539134473</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-21.4081169924872</c:v>
@@ -3650,40 +3665,40 @@
                   <c:v>-19.2923155655478</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-18.5152693219242</c:v>
+                  <c:v>-18.5152693219241</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-18.1416296696671</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-17.5422649363802</c:v>
+                  <c:v>-17.5422649363803</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-17.110952371966</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-16.6676552232202</c:v>
+                  <c:v>-16.6676552232203</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-16.2874375044448</c:v>
+                  <c:v>-16.2874375044447</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-15.9427704403435</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-15.3429235733997</c:v>
+                  <c:v>-15.3429235733996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-15.1047091115895</c:v>
+                  <c:v>-15.1047091115896</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-14.6233140635943</c:v>
+                  <c:v>-14.6233140635944</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-14.2863906071195</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-13.7218253839723</c:v>
+                  <c:v>-13.7218253839724</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-13.2079467490695</c:v>
@@ -3692,7 +3707,7 @@
                   <c:v>-12.7750436867675</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-12.3540766150965</c:v>
+                  <c:v>-12.3540766150964</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-11.9396601478678</c:v>
@@ -3707,22 +3722,22 @@
                   <c:v>-10.7727774777516</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-10.3676565334593</c:v>
+                  <c:v>-10.3676565334592</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-9.95688646033178</c:v>
+                  <c:v>-9.95688646033177</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>-9.58632896062496</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-9.16487194182619</c:v>
+                  <c:v>-9.16487194182615</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-8.76568045198868</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.32845905391551</c:v>
+                  <c:v>-8.32845905391554</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-7.9626732157298</c:v>
@@ -3731,43 +3746,43 @@
                   <c:v>-7.60460063389444</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-7.24088077097964</c:v>
+                  <c:v>-7.24088077097961</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-6.918802843398</c:v>
+                  <c:v>-6.91880284339796</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-6.55309600229424</c:v>
+                  <c:v>-6.55309600229427</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-6.11827750289568</c:v>
+                  <c:v>-6.11827750289565</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-5.78681156598621</c:v>
+                  <c:v>-5.78681156598618</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>-5.44404913770651</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-5.12103344819606</c:v>
+                  <c:v>-5.12103344819605</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-4.74392204888798</c:v>
+                  <c:v>-4.74392204888801</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-4.38366494685672</c:v>
+                  <c:v>-4.38366494685674</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-4.08308030142762</c:v>
+                  <c:v>-4.08308030142764</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.73419495639105</c:v>
+                  <c:v>-3.73419495639107</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-3.40738819940753</c:v>
+                  <c:v>-3.40738819940751</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-3.10085040847867</c:v>
+                  <c:v>-3.10085040847865</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-2.76721773969115</c:v>
@@ -3779,7 +3794,7 @@
                   <c:v>-2.16336417946682</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.89554551791138</c:v>
+                  <c:v>-1.89554551791139</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-1.60338699286754</c:v>
@@ -3791,13 +3806,13 @@
                   <c:v>-1.10101705565647</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.868724070599992</c:v>
+                  <c:v>-0.868724070599993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.666320739642517</c:v>
+                  <c:v>-0.666320739642518</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.497692698218109</c:v>
+                  <c:v>-0.49769269821811</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>-0.331747870205184</c:v>
@@ -3851,13 +3866,13 @@
                   <c:v>0.313350296198094</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.463258187278225</c:v>
+                  <c:v>0.463258187278226</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.640777289019801</c:v>
+                  <c:v>0.640777289019802</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.851076230989337</c:v>
+                  <c:v>0.851076230989336</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>1.08223340820665</c:v>
@@ -3884,61 +3899,61 @@
                   <c:v>3.04894518690047</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.34665225367913</c:v>
+                  <c:v>3.34665225367916</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>3.68209063030961</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.02173836667452</c:v>
+                  <c:v>4.0217383666745</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>4.34239501524451</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.7062634073156</c:v>
+                  <c:v>4.70626340731562</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.04675810373268</c:v>
+                  <c:v>5.04675810373265</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5.39374390177847</c:v>
+                  <c:v>5.39374390177844</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.73807486461686</c:v>
+                  <c:v>5.73807486461688</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>6.0925213697495</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>6.54380182057195</c:v>
+                  <c:v>6.54380182057194</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6.8715943742083</c:v>
+                  <c:v>6.87159437420827</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>7.21988359261234</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7.57948206914873</c:v>
+                  <c:v>7.57948206914876</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>7.90906025199006</c:v>
+                  <c:v>7.90906025199009</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8.26412243309676</c:v>
+                  <c:v>8.2641224330968</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.7496656139244</c:v>
+                  <c:v>8.74966561392443</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>9.17983158340496</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>9.52043312482228</c:v>
+                  <c:v>9.52043312482232</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>9.98383685839928</c:v>
+                  <c:v>9.98383685839931</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>10.2871213787004</c:v>
@@ -3950,7 +3965,7 @@
                   <c:v>11.1056353502034</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>11.4762626065645</c:v>
+                  <c:v>11.4762626065646</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>11.9157019974747</c:v>
@@ -3959,10 +3974,10 @@
                   <c:v>12.2811642933985</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>12.6794202077467</c:v>
+                  <c:v>12.6794202077466</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>13.1132123597892</c:v>
+                  <c:v>13.1132123597893</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>13.6031506946154</c:v>
@@ -3971,10 +3986,10 @@
                   <c:v>14.1494416655397</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>14.630398211713</c:v>
+                  <c:v>14.6303982117131</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>14.9435182857237</c:v>
+                  <c:v>14.9435182857236</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>15.3917590371982</c:v>
@@ -3983,7 +3998,7 @@
                   <c:v>15.810787722732</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>16.2408590968799</c:v>
+                  <c:v>16.2408590968798</c:v>
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>16.6026243620164</c:v>
@@ -3998,19 +4013,19 @@
                   <c:v>18.0819660079602</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>18.8657320613813</c:v>
+                  <c:v>18.8657320613812</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>19.24639914855</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>19.7301207090039</c:v>
+                  <c:v>19.7301207090038</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>20.2031908865714</c:v>
+                  <c:v>20.2031908865715</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>20.5767846443748</c:v>
+                  <c:v>20.5767846443747</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>21.2405669913892</c:v>
@@ -4034,13 +4049,13 @@
                   <c:v>24.2336534460164</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>24.6769241807261</c:v>
+                  <c:v>24.676924180726</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>25.2288170629557</c:v>
+                  <c:v>25.2288170629556</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>26.0286171317911</c:v>
+                  <c:v>26.028617131791</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>26.2711770102231</c:v>
@@ -4055,7 +4070,7 @@
                   <c:v>27.7951405123385</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>28.3814523333098</c:v>
+                  <c:v>28.3814523333097</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>29.1516689257572</c:v>
@@ -4067,31 +4082,31 @@
                   <c:v>30.5142277263403</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>30.9820679010171</c:v>
+                  <c:v>30.982067901017</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>31.8476183084936</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32.1949516310418</c:v>
+                  <c:v>32.1949516310419</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>32.7926532397138</c:v>
+                  <c:v>32.7926532397137</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>33.3555657272964</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>33.8611045982601</c:v>
+                  <c:v>33.8611045982602</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>34.6685509290264</c:v>
+                  <c:v>34.6685509290265</c:v>
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>35.0498192425412</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>35.8984296406844</c:v>
+                  <c:v>35.8984296406843</c:v>
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>36.0838549363989</c:v>
@@ -4115,13 +4130,13 @@
                   <c:v>39.3656592082155</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>40.2559392738574</c:v>
+                  <c:v>40.2559392738575</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>40.7670531705053</c:v>
+                  <c:v>40.7670531705054</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>41.0290534932535</c:v>
+                  <c:v>41.0290534932536</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>41.1737677417177</c:v>
@@ -4131,11 +4146,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91921898"/>
-        <c:axId val="31238134"/>
+        <c:axId val="20722011"/>
+        <c:axId val="53257581"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91921898"/>
+        <c:axId val="20722011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,7 +4161,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -4163,12 +4178,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31238134"/>
+        <c:crossAx val="53257581"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31238134"/>
+        <c:axId val="53257581"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +4191,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
@@ -4188,7 +4203,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -4205,13 +4220,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91921898"/>
+        <c:crossAx val="20722011"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -4223,7 +4238,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -4264,9 +4279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4276,7 +4291,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="399960" y="104760"/>
-          <a:ext cx="6687360" cy="5560920"/>
+          <a:ext cx="6694200" cy="5560920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4298,7 +4313,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4813,9 +4828,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>408240</xdr:colOff>
+      <xdr:colOff>407880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4824,8 +4839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7270560" y="95400"/>
-          <a:ext cx="6688440" cy="5560920"/>
+          <a:off x="7277760" y="95400"/>
+          <a:ext cx="6694920" cy="5560920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4847,7 +4862,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5148,9 +5163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5159,8 +5174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5280480" y="5819760"/>
-          <a:ext cx="3874680" cy="474480"/>
+          <a:off x="5285880" y="5820120"/>
+          <a:ext cx="3877920" cy="473760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5182,7 +5197,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5248,9 +5263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
+      <xdr:colOff>150840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5258,8 +5273,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10305720" y="3080880"/>
-        <a:ext cx="10025640" cy="5605200"/>
+        <a:off x="10305360" y="3080880"/>
+        <a:ext cx="10032120" cy="5605200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5279,15 +5294,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X22" activeCellId="0" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5303,11 +5318,11 @@
   </sheetPr>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
@@ -10164,8 +10179,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10180,11 +10195,11 @@
   </sheetPr>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -15043,8 +15058,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15059,11 +15074,11 @@
   </sheetPr>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E202" activeCellId="0" sqref="E202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.14"/>
@@ -19919,8 +19934,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19935,11 +19950,11 @@
   </sheetPr>
   <dimension ref="A3:W204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -20046,8 +20061,8 @@
         <v>-3464.71333333333</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">B4*B4*SIGN(F4)*T$3*POWER(W$3,4)</f>
-        <v>-400487.516988387</v>
+        <f aca="false">H4*H4*SIGN(F4)*T$3*POWER(W$3,4)</f>
+        <v>-4391.57801778405</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">F4*9.81</f>
@@ -20059,18 +20074,18 @@
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">K4*Q$4</f>
-        <v>-40.0487516988387</v>
+        <v>-48.3073581956246</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">IF(K4=0,0,L4/K4)</f>
-        <v>9.96824122854186E-005</v>
+        <v>0.00909048219613414</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">AVERAGE(O4:O204)</f>
-        <v>9.88483831248327E-005</v>
+        <v>0.00901442337029379</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20105,8 +20120,8 @@
         <v>-3468.01</v>
       </c>
       <c r="K5" s="0" t="n">
-        <f aca="false">B5*B5*SIGN(F5)*T$3*POWER(W$3,4)</f>
-        <v>-401250.005448088</v>
+        <f aca="false">H5*H5*SIGN(F5)*T$3*POWER(W$3,4)</f>
+        <v>-4399.93914619978</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">F5*9.81</f>
@@ -20118,11 +20133,11 @@
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">K5*Q$4</f>
-        <v>-40.1250005448088</v>
+        <v>-48.3993306081976</v>
       </c>
       <c r="O5" s="0" t="n">
         <f aca="false">IF(K5=0,0,L5/K5)</f>
-        <v>9.9030917169024E-005</v>
+        <v>0.00903106946102198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20157,8 +20172,8 @@
         <v>-3449.07</v>
       </c>
       <c r="K6" s="0" t="n">
-        <f aca="false">B6*B6*SIGN(F6)*T$3*POWER(W$3,4)</f>
-        <v>-396879.243611554</v>
+        <f aca="false">H6*H6*SIGN(F6)*T$3*POWER(W$3,4)</f>
+        <v>-4352.01120640622</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">F6*9.81</f>
@@ -20170,11 +20185,11 @@
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">K6*Q$4</f>
-        <v>-39.6879243611554</v>
+        <v>-47.8721232704684</v>
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">IF(K6=0,0,L6/K6)</f>
-        <v>9.94488183439255E-005</v>
+        <v>0.00906917972644483</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20209,8 +20224,8 @@
         <v>-3421.12</v>
       </c>
       <c r="K7" s="0" t="n">
-        <f aca="false">B7*B7*SIGN(F7)*T$3*POWER(W$3,4)</f>
-        <v>-390472.978173814</v>
+        <f aca="false">H7*H7*SIGN(F7)*T$3*POWER(W$3,4)</f>
+        <v>-4281.76278846794</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">F7*9.81</f>
@@ -20218,15 +20233,15 @@
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">K7*P$4</f>
-        <v>-38.5976225464196</v>
+        <v>-38.5976225464197</v>
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">K7*Q$4</f>
-        <v>-39.0472978173814</v>
+        <v>-47.0993906731473</v>
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">IF(K7=0,0,L7/K7)</f>
-        <v>9.95989686832779E-005</v>
+        <v>0.00908287260320545</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20261,8 +20276,8 @@
         <v>-3409.95</v>
       </c>
       <c r="K8" s="0" t="n">
-        <f aca="false">B8*B8*SIGN(F8)*T$3*POWER(W$3,4)</f>
-        <v>-387927.342326989</v>
+        <f aca="false">H8*H8*SIGN(F8)*T$3*POWER(W$3,4)</f>
+        <v>-4253.84841423158</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">F8*9.81</f>
@@ -20274,11 +20289,11 @@
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">K8*Q$4</f>
-        <v>-38.7927342326989</v>
+        <v>-46.7923325565474</v>
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">IF(K8=0,0,L8/K8)</f>
-        <v>9.86466755409666E-005</v>
+        <v>0.00899602875926943</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20313,8 +20328,8 @@
         <v>-3394.78</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">B9*B9*SIGN(F9)*T$3*POWER(W$3,4)</f>
-        <v>-384483.439826621</v>
+        <f aca="false">H9*H9*SIGN(F9)*T$3*POWER(W$3,4)</f>
+        <v>-4216.08402489496</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">F9*9.81</f>
@@ -20322,15 +20337,15 @@
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">K9*P$4</f>
-        <v>-38.0055663651353</v>
+        <v>-38.0055663651354</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">K9*Q$4</f>
-        <v>-38.4483439826621</v>
+        <v>-46.3769242738445</v>
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">IF(K9=0,0,L9/K9)</f>
-        <v>9.87201453012282E-005</v>
+        <v>0.00900272879323027</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20365,8 +20380,8 @@
         <v>-3373.93</v>
       </c>
       <c r="K10" s="0" t="n">
-        <f aca="false">B10*B10*SIGN(F10)*T$3*POWER(W$3,4)</f>
-        <v>-379775.115880195</v>
+        <f aca="false">H10*H10*SIGN(F10)*T$3*POWER(W$3,4)</f>
+        <v>-4164.45452068665</v>
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">F10*9.81</f>
@@ -20378,11 +20393,11 @@
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">K10*Q$4</f>
-        <v>-37.9775115880195</v>
+        <v>-45.8089997275531</v>
       </c>
       <c r="O10" s="0" t="n">
         <f aca="false">IF(K10=0,0,L10/K10)</f>
-        <v>9.8772367448723E-005</v>
+        <v>0.00900749116295188</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20417,8 +20432,8 @@
         <v>-3356.28</v>
       </c>
       <c r="K11" s="0" t="n">
-        <f aca="false">B11*B11*SIGN(F11)*T$3*POWER(W$3,4)</f>
-        <v>-375812.082828218</v>
+        <f aca="false">H11*H11*SIGN(F11)*T$3*POWER(W$3,4)</f>
+        <v>-4120.9975636117</v>
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">F11*9.81</f>
@@ -20430,11 +20445,11 @@
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">K11*Q$4</f>
-        <v>-37.5812082828218</v>
+        <v>-45.3309731997287</v>
       </c>
       <c r="O11" s="0" t="n">
         <f aca="false">IF(K11=0,0,L11/K11)</f>
-        <v>9.92219306441101E-005</v>
+        <v>0.00904848882873874</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20469,8 +20484,8 @@
         <v>-3323.16</v>
       </c>
       <c r="K12" s="0" t="n">
-        <f aca="false">B12*B12*SIGN(F12)*T$3*POWER(W$3,4)</f>
-        <v>-368431.600405447</v>
+        <f aca="false">H12*H12*SIGN(F12)*T$3*POWER(W$3,4)</f>
+        <v>-4040.06629111607</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">F12*9.81</f>
@@ -20482,11 +20497,11 @@
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">K12*Q$4</f>
-        <v>-36.8431600405447</v>
+        <v>-44.4407292022768</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">IF(K12=0,0,L12/K12)</f>
-        <v>9.98810342269869E-005</v>
+        <v>0.00910859541372381</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20521,8 +20536,8 @@
         <v>-3306.57</v>
       </c>
       <c r="K13" s="0" t="n">
-        <f aca="false">B13*B13*SIGN(F13)*T$3*POWER(W$3,4)</f>
-        <v>-364762.187390703</v>
+        <f aca="false">H13*H13*SIGN(F13)*T$3*POWER(W$3,4)</f>
+        <v>-3999.82904813057</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">F13*9.81</f>
@@ -20534,11 +20549,11 @@
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">K13*Q$4</f>
-        <v>-36.4762187390703</v>
+        <v>-43.9981195294363</v>
       </c>
       <c r="O13" s="0" t="n">
         <f aca="false">IF(K13=0,0,L13/K13)</f>
-        <v>9.99098907414022E-005</v>
+        <v>0.00911122696752072</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20573,8 +20588,8 @@
         <v>-3282.25</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">B14*B14*SIGN(F14)*T$3*POWER(W$3,4)</f>
-        <v>-359416.228892176</v>
+        <f aca="false">H14*H14*SIGN(F14)*T$3*POWER(W$3,4)</f>
+        <v>-3941.20751105332</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">F14*9.81</f>
@@ -20586,11 +20601,11 @@
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">K14*Q$4</f>
-        <v>-35.9416228892176</v>
+        <v>-43.3532826215865</v>
       </c>
       <c r="O14" s="0" t="n">
         <f aca="false">IF(K14=0,0,L14/K14)</f>
-        <v>9.97864913383179E-005</v>
+        <v>0.00909997362752789</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20625,8 +20640,8 @@
         <v>-3247.62</v>
       </c>
       <c r="K15" s="0" t="n">
-        <f aca="false">B15*B15*SIGN(F15)*T$3*POWER(W$3,4)</f>
-        <v>-351872.06011399</v>
+        <f aca="false">H15*H15*SIGN(F15)*T$3*POWER(W$3,4)</f>
+        <v>-3858.481322687</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">F15*9.81</f>
@@ -20638,11 +20653,11 @@
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">K15*Q$4</f>
-        <v>-35.187206011399</v>
+        <v>-42.443294549557</v>
       </c>
       <c r="O15" s="0" t="n">
         <f aca="false">IF(K15=0,0,L15/K15)</f>
-        <v>0.000100029038315227</v>
+        <v>0.00912209256430686</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20677,8 +20692,8 @@
         <v>-3223.24</v>
       </c>
       <c r="K16" s="0" t="n">
-        <f aca="false">B16*B16*SIGN(F16)*T$3*POWER(W$3,4)</f>
-        <v>-346608.857680724</v>
+        <f aca="false">H16*H16*SIGN(F16)*T$3*POWER(W$3,4)</f>
+        <v>-3800.76725388684</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">F16*9.81</f>
@@ -20686,15 +20701,15 @@
       </c>
       <c r="M16" s="0" t="n">
         <f aca="false">K16*P$4</f>
-        <v>-34.2617251584848</v>
+        <v>-34.2617251584849</v>
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">K16*Q$4</f>
-        <v>-34.6608857680724</v>
+        <v>-41.8084397927553</v>
       </c>
       <c r="O16" s="0" t="n">
         <f aca="false">IF(K16=0,0,L16/K16)</f>
-        <v>9.96222756286482E-005</v>
+        <v>0.00908499806713711</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20729,8 +20744,8 @@
         <v>-3207.09</v>
       </c>
       <c r="K17" s="0" t="n">
-        <f aca="false">B17*B17*SIGN(F17)*T$3*POWER(W$3,4)</f>
-        <v>-343144.201391375</v>
+        <f aca="false">H17*H17*SIGN(F17)*T$3*POWER(W$3,4)</f>
+        <v>-3762.77528721107</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">F17*9.81</f>
@@ -20742,11 +20757,11 @@
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">K17*Q$4</f>
-        <v>-34.3144201391375</v>
+        <v>-41.3905281593218</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">IF(K17=0,0,L17/K17)</f>
-        <v>9.86830096207218E-005</v>
+        <v>0.00899934222548233</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20781,8 +20796,8 @@
         <v>-3176.96</v>
       </c>
       <c r="K18" s="0" t="n">
-        <f aca="false">B18*B18*SIGN(F18)*T$3*POWER(W$3,4)</f>
-        <v>-336726.939246631</v>
+        <f aca="false">H18*H18*SIGN(F18)*T$3*POWER(W$3,4)</f>
+        <v>-3692.40628399933</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">F18*9.81</f>
@@ -20790,15 +20805,15 @@
       </c>
       <c r="M18" s="0" t="n">
         <f aca="false">K18*P$4</f>
-        <v>-33.2849134991033</v>
+        <v>-33.2849134991032</v>
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">K18*Q$4</f>
-        <v>-33.6726939246631</v>
+        <v>-40.6164691239926</v>
       </c>
       <c r="O18" s="0" t="n">
         <f aca="false">IF(K18=0,0,L18/K18)</f>
-        <v>9.89779258510378E-005</v>
+        <v>0.00902623694722487</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20833,8 +20848,8 @@
         <v>-3152.96</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">B19*B19*SIGN(F19)*T$3*POWER(W$3,4)</f>
-        <v>-331658.621524089</v>
+        <f aca="false">H19*H19*SIGN(F19)*T$3*POWER(W$3,4)</f>
+        <v>-3636.82923913951</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">F19*9.81</f>
@@ -20842,15 +20857,15 @@
       </c>
       <c r="M19" s="0" t="n">
         <f aca="false">K19*P$4</f>
-        <v>-32.7839184870671</v>
+        <v>-32.783918487067</v>
       </c>
       <c r="N19" s="0" t="n">
         <f aca="false">K19*Q$4</f>
-        <v>-33.1658621524089</v>
+        <v>-40.0051216305346</v>
       </c>
       <c r="O19" s="0" t="n">
         <f aca="false">IF(K19=0,0,L19/K19)</f>
-        <v>9.79413221544752E-005</v>
+        <v>0.00893170444914418</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20885,8 +20900,8 @@
         <v>-3111.45</v>
       </c>
       <c r="K20" s="0" t="n">
-        <f aca="false">B20*B20*SIGN(F20)*T$3*POWER(W$3,4)</f>
-        <v>-322983.266098919</v>
+        <f aca="false">H20*H20*SIGN(F20)*T$3*POWER(W$3,4)</f>
+        <v>-3541.69893278656</v>
       </c>
       <c r="L20" s="0" t="n">
         <f aca="false">F20*9.81</f>
@@ -20898,11 +20913,11 @@
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">K20*Q$4</f>
-        <v>-32.2983266098919</v>
+        <v>-38.9586882606521</v>
       </c>
       <c r="O20" s="0" t="n">
         <f aca="false">IF(K20=0,0,L20/K20)</f>
-        <v>9.87810247996832E-005</v>
+        <v>0.00900828066526194</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20937,8 +20952,8 @@
         <v>-3086.3</v>
       </c>
       <c r="K21" s="0" t="n">
-        <f aca="false">B21*B21*SIGN(F21)*T$3*POWER(W$3,4)</f>
-        <v>-317782.989877373</v>
+        <f aca="false">H21*H21*SIGN(F21)*T$3*POWER(W$3,4)</f>
+        <v>-3484.67488641257</v>
       </c>
       <c r="L21" s="0" t="n">
         <f aca="false">F21*9.81</f>
@@ -20950,11 +20965,11 @@
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">K21*Q$4</f>
-        <v>-31.7782989877373</v>
+        <v>-38.3314237505383</v>
       </c>
       <c r="O21" s="0" t="n">
         <f aca="false">IF(K21=0,0,L21/K21)</f>
-        <v>9.88572324255698E-005</v>
+        <v>0.00901523037735709</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20989,8 +21004,8 @@
         <v>-3061.4</v>
       </c>
       <c r="K22" s="0" t="n">
-        <f aca="false">B22*B22*SIGN(F22)*T$3*POWER(W$3,4)</f>
-        <v>-312675.983707433</v>
+        <f aca="false">H22*H22*SIGN(F22)*T$3*POWER(W$3,4)</f>
+        <v>-3428.67360027699</v>
       </c>
       <c r="L22" s="0" t="n">
         <f aca="false">F22*9.81</f>
@@ -20998,15 +21013,15 @@
       </c>
       <c r="M22" s="0" t="n">
         <f aca="false">K22*P$4</f>
-        <v>-30.9075154314463</v>
+        <v>-30.9075154314462</v>
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">K22*Q$4</f>
-        <v>-31.2675983707433</v>
+        <v>-37.7154096030468</v>
       </c>
       <c r="O22" s="0" t="n">
         <f aca="false">IF(K22=0,0,L22/K22)</f>
-        <v>9.7483348898713E-005</v>
+        <v>0.00888993983257479</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21041,8 +21056,8 @@
         <v>-3049.78</v>
       </c>
       <c r="K23" s="0" t="n">
-        <f aca="false">B23*B23*SIGN(F23)*T$3*POWER(W$3,4)</f>
-        <v>-310306.871814537</v>
+        <f aca="false">H23*H23*SIGN(F23)*T$3*POWER(W$3,4)</f>
+        <v>-3402.69491362841</v>
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">F23*9.81</f>
@@ -21050,15 +21065,15 @@
       </c>
       <c r="M23" s="0" t="n">
         <f aca="false">K23*P$4</f>
-        <v>-30.6733325513917</v>
+        <v>-30.6733325513918</v>
       </c>
       <c r="N23" s="0" t="n">
         <f aca="false">K23*Q$4</f>
-        <v>-31.0306871814537</v>
+        <v>-37.4296440499126</v>
       </c>
       <c r="O23" s="0" t="n">
         <f aca="false">IF(K23=0,0,L23/K23)</f>
-        <v>9.60766392624996E-005</v>
+        <v>0.00876165572899073</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21093,8 +21108,8 @@
         <v>-3003.32</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">B24*B24*SIGN(F24)*T$3*POWER(W$3,4)</f>
-        <v>-300924.526277169</v>
+        <f aca="false">H24*H24*SIGN(F24)*T$3*POWER(W$3,4)</f>
+        <v>-3299.81205044453</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">F24*9.81</f>
@@ -21102,15 +21117,15 @@
       </c>
       <c r="M24" s="0" t="n">
         <f aca="false">K24*P$4</f>
-        <v>-29.7459028651044</v>
+        <v>-29.7459028651043</v>
       </c>
       <c r="N24" s="0" t="n">
         <f aca="false">K24*Q$4</f>
-        <v>-30.0924526277169</v>
+        <v>-36.2979325548899</v>
       </c>
       <c r="O24" s="0" t="n">
         <f aca="false">IF(K24=0,0,L24/K24)</f>
-        <v>9.75934663595686E-005</v>
+        <v>0.00889998193322667</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21145,8 +21160,8 @@
         <v>-2987.73</v>
       </c>
       <c r="K25" s="0" t="n">
-        <f aca="false">B25*B25*SIGN(F25)*T$3*POWER(W$3,4)</f>
-        <v>-297808.483375227</v>
+        <f aca="false">H25*H25*SIGN(F25)*T$3*POWER(W$3,4)</f>
+        <v>-3265.6428318543</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">F25*9.81</f>
@@ -21158,11 +21173,11 @@
       </c>
       <c r="N25" s="0" t="n">
         <f aca="false">K25*Q$4</f>
-        <v>-29.7808483375227</v>
+        <v>-35.9220711503973</v>
       </c>
       <c r="O25" s="0" t="n">
         <f aca="false">IF(K25=0,0,L25/K25)</f>
-        <v>9.68216177148651E-005</v>
+        <v>0.00882959362497927</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21197,8 +21212,8 @@
         <v>-2952.33</v>
       </c>
       <c r="K26" s="0" t="n">
-        <f aca="false">B26*B26*SIGN(F26)*T$3*POWER(W$3,4)</f>
-        <v>-290793.147593389</v>
+        <f aca="false">H26*H26*SIGN(F26)*T$3*POWER(W$3,4)</f>
+        <v>-3188.71560416299</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">F26*9.81</f>
@@ -21210,11 +21225,11 @@
       </c>
       <c r="N26" s="0" t="n">
         <f aca="false">K26*Q$4</f>
-        <v>-29.0793147593389</v>
+        <v>-35.0758716457929</v>
       </c>
       <c r="O26" s="0" t="n">
         <f aca="false">IF(K26=0,0,L26/K26)</f>
-        <v>9.65560708138169E-005</v>
+        <v>0.00880537722289918</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21249,8 +21264,8 @@
         <v>-2918.2</v>
       </c>
       <c r="K27" s="0" t="n">
-        <f aca="false">B27*B27*SIGN(F27)*T$3*POWER(W$3,4)</f>
-        <v>-284108.662345738</v>
+        <f aca="false">H27*H27*SIGN(F27)*T$3*POWER(W$3,4)</f>
+        <v>-3115.41634456426</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">F27*9.81</f>
@@ -21262,11 +21277,11 @@
       </c>
       <c r="N27" s="0" t="n">
         <f aca="false">K27*Q$4</f>
-        <v>-28.4108662345738</v>
+        <v>-34.2695797902069</v>
       </c>
       <c r="O27" s="0" t="n">
         <f aca="false">IF(K27=0,0,L27/K27)</f>
-        <v>9.74182453497979E-005</v>
+        <v>0.00888400275060864</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21301,8 +21316,8 @@
         <v>-2895.86</v>
       </c>
       <c r="K28" s="0" t="n">
-        <f aca="false">B28*B28*SIGN(F28)*T$3*POWER(W$3,4)</f>
-        <v>-279775.37940424</v>
+        <f aca="false">H28*H28*SIGN(F28)*T$3*POWER(W$3,4)</f>
+        <v>-3067.89938260292</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">F28*9.81</f>
@@ -21314,11 +21329,11 @@
       </c>
       <c r="N28" s="0" t="n">
         <f aca="false">K28*Q$4</f>
-        <v>-27.977537940424</v>
+        <v>-33.7468932086321</v>
       </c>
       <c r="O28" s="0" t="n">
         <f aca="false">IF(K28=0,0,L28/K28)</f>
-        <v>9.7177586909522E-005</v>
+        <v>0.00886205603787852</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21353,8 +21368,8 @@
         <v>-2864.72</v>
       </c>
       <c r="K29" s="0" t="n">
-        <f aca="false">B29*B29*SIGN(F29)*T$3*POWER(W$3,4)</f>
-        <v>-273790.72343802</v>
+        <f aca="false">H29*H29*SIGN(F29)*T$3*POWER(W$3,4)</f>
+        <v>-3002.27415717046</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">F29*9.81</f>
@@ -21366,11 +21381,11 @@
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">K29*Q$4</f>
-        <v>-27.379072343802</v>
+        <v>-33.025015728875</v>
       </c>
       <c r="O29" s="0" t="n">
         <f aca="false">IF(K29=0,0,L29/K29)</f>
-        <v>9.70264173337256E-005</v>
+        <v>0.00884827021241676</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21405,8 +21420,8 @@
         <v>-2845.12</v>
       </c>
       <c r="K30" s="0" t="n">
-        <f aca="false">B30*B30*SIGN(F30)*T$3*POWER(W$3,4)</f>
-        <v>-270057.066772588</v>
+        <f aca="false">H30*H30*SIGN(F30)*T$3*POWER(W$3,4)</f>
+        <v>-2961.33244527602</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">F30*9.81</f>
@@ -21414,15 +21429,15 @@
       </c>
       <c r="M30" s="0" t="n">
         <f aca="false">K30*P$4</f>
-        <v>-26.6947044019053</v>
+        <v>-26.6947044019054</v>
       </c>
       <c r="N30" s="0" t="n">
         <f aca="false">K30*Q$4</f>
-        <v>-27.0057066772588</v>
+        <v>-32.5746568980362</v>
       </c>
       <c r="O30" s="0" t="n">
         <f aca="false">IF(K30=0,0,L30/K30)</f>
-        <v>9.65553769017192E-005</v>
+        <v>0.00880531394197101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21457,8 +21472,8 @@
         <v>-2821.23</v>
       </c>
       <c r="K31" s="0" t="n">
-        <f aca="false">B31*B31*SIGN(F31)*T$3*POWER(W$3,4)</f>
-        <v>-265540.858983383</v>
+        <f aca="false">H31*H31*SIGN(F31)*T$3*POWER(W$3,4)</f>
+        <v>-2911.80960621236</v>
       </c>
       <c r="L31" s="0" t="n">
         <f aca="false">F31*9.81</f>
@@ -21470,11 +21485,11 @@
       </c>
       <c r="N31" s="0" t="n">
         <f aca="false">K31*Q$4</f>
-        <v>-26.5540858983383</v>
+        <v>-32.0299056683359</v>
       </c>
       <c r="O31" s="0" t="n">
         <f aca="false">IF(K31=0,0,L31/K31)</f>
-        <v>9.53488159439312E-005</v>
+        <v>0.00869528228589596</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21509,8 +21524,8 @@
         <v>-2792.39</v>
       </c>
       <c r="K32" s="0" t="n">
-        <f aca="false">B32*B32*SIGN(F32)*T$3*POWER(W$3,4)</f>
-        <v>-260139.629421257</v>
+        <f aca="false">H32*H32*SIGN(F32)*T$3*POWER(W$3,4)</f>
+        <v>-2852.58198985015</v>
       </c>
       <c r="L32" s="0" t="n">
         <f aca="false">F32*9.81</f>
@@ -21518,15 +21533,15 @@
       </c>
       <c r="M32" s="0" t="n">
         <f aca="false">K32*P$4</f>
-        <v>-25.7143817549844</v>
+        <v>-25.7143817549843</v>
       </c>
       <c r="N32" s="0" t="n">
         <f aca="false">K32*Q$4</f>
-        <v>-26.0139629421257</v>
+        <v>-31.3784018883516</v>
       </c>
       <c r="O32" s="0" t="n">
         <f aca="false">IF(K32=0,0,L32/K32)</f>
-        <v>9.61311620149351E-005</v>
+        <v>0.00876662790110153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21561,8 +21576,8 @@
         <v>-2758.52</v>
       </c>
       <c r="K33" s="0" t="n">
-        <f aca="false">B33*B33*SIGN(F33)*T$3*POWER(W$3,4)</f>
-        <v>-253867.229341061</v>
+        <f aca="false">H33*H33*SIGN(F33)*T$3*POWER(W$3,4)</f>
+        <v>-2783.80148323642</v>
       </c>
       <c r="L33" s="0" t="n">
         <f aca="false">F33*9.81</f>
@@ -21574,11 +21589,11 @@
       </c>
       <c r="N33" s="0" t="n">
         <f aca="false">K33*Q$4</f>
-        <v>-25.3867229341061</v>
+        <v>-30.6218163156006</v>
       </c>
       <c r="O33" s="0" t="n">
         <f aca="false">IF(K33=0,0,L33/K33)</f>
-        <v>9.69288101873968E-005</v>
+        <v>0.00883936898294634</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21613,8 +21628,8 @@
         <v>-2736.37</v>
       </c>
       <c r="K34" s="0" t="n">
-        <f aca="false">B34*B34*SIGN(F34)*T$3*POWER(W$3,4)</f>
-        <v>-249806.658397794</v>
+        <f aca="false">H34*H34*SIGN(F34)*T$3*POWER(W$3,4)</f>
+        <v>-2739.27496658443</v>
       </c>
       <c r="L34" s="0" t="n">
         <f aca="false">F34*9.81</f>
@@ -21626,11 +21641,11 @@
       </c>
       <c r="N34" s="0" t="n">
         <f aca="false">K34*Q$4</f>
-        <v>-24.9806658397794</v>
+        <v>-30.1320246324288</v>
       </c>
       <c r="O34" s="0" t="n">
         <f aca="false">IF(K34=0,0,L34/K34)</f>
-        <v>9.63668468150509E-005</v>
+        <v>0.00878812104548103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21665,8 +21680,8 @@
         <v>-2712.08</v>
       </c>
       <c r="K35" s="0" t="n">
-        <f aca="false">B35*B35*SIGN(F35)*T$3*POWER(W$3,4)</f>
-        <v>-245391.412927072</v>
+        <f aca="false">H35*H35*SIGN(F35)*T$3*POWER(W$3,4)</f>
+        <v>-2690.85923792912</v>
       </c>
       <c r="L35" s="0" t="n">
         <f aca="false">F35*9.81</f>
@@ -21678,11 +21693,11 @@
       </c>
       <c r="N35" s="0" t="n">
         <f aca="false">K35*Q$4</f>
-        <v>-24.5391412927072</v>
+        <v>-29.5994516172203</v>
       </c>
       <c r="O35" s="0" t="n">
         <f aca="false">IF(K35=0,0,L35/K35)</f>
-        <v>9.51994273203958E-005</v>
+        <v>0.008681658873386</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21717,8 +21732,8 @@
         <v>-2681.26</v>
       </c>
       <c r="K36" s="0" t="n">
-        <f aca="false">B36*B36*SIGN(F36)*T$3*POWER(W$3,4)</f>
-        <v>-239845.860660024</v>
+        <f aca="false">H36*H36*SIGN(F36)*T$3*POWER(W$3,4)</f>
+        <v>-2630.0490393602</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">F36*9.81</f>
@@ -21726,15 +21741,15 @@
       </c>
       <c r="M36" s="0" t="n">
         <f aca="false">K36*P$4</f>
-        <v>-23.7083755254273</v>
+        <v>-23.7083755254274</v>
       </c>
       <c r="N36" s="0" t="n">
         <f aca="false">K36*Q$4</f>
-        <v>-23.9845860660024</v>
+        <v>-28.9305394329622</v>
       </c>
       <c r="O36" s="0" t="n">
         <f aca="false">IF(K36=0,0,L36/K36)</f>
-        <v>9.62874141969679E-005</v>
+        <v>0.00878087723201464</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21769,8 +21784,8 @@
         <v>-2660.64</v>
       </c>
       <c r="K37" s="0" t="n">
-        <f aca="false">B37*B37*SIGN(F37)*T$3*POWER(W$3,4)</f>
-        <v>-236171.017707592</v>
+        <f aca="false">H37*H37*SIGN(F37)*T$3*POWER(W$3,4)</f>
+        <v>-2589.75225395708</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">F37*9.81</f>
@@ -21782,11 +21797,11 @@
       </c>
       <c r="N37" s="0" t="n">
         <f aca="false">K37*Q$4</f>
-        <v>-23.6171017707592</v>
+        <v>-28.4872747935279</v>
       </c>
       <c r="O37" s="0" t="n">
         <f aca="false">IF(K37=0,0,L37/K37)</f>
-        <v>9.45826569543631E-005</v>
+        <v>0.008625412842587</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21821,8 +21836,8 @@
         <v>-2629</v>
       </c>
       <c r="K38" s="0" t="n">
-        <f aca="false">B38*B38*SIGN(F38)*T$3*POWER(W$3,4)</f>
-        <v>-230587.383490816</v>
+        <f aca="false">H38*H38*SIGN(F38)*T$3*POWER(W$3,4)</f>
+        <v>-2528.52446471128</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">F38*9.81</f>
@@ -21830,15 +21845,15 @@
       </c>
       <c r="M38" s="0" t="n">
         <f aca="false">K38*P$4</f>
-        <v>-22.7931900270529</v>
+        <v>-22.793190027053</v>
       </c>
       <c r="N38" s="0" t="n">
         <f aca="false">K38*Q$4</f>
-        <v>-23.0587383490816</v>
+        <v>-27.8137691118241</v>
       </c>
       <c r="O38" s="0" t="n">
         <f aca="false">IF(K38=0,0,L38/K38)</f>
-        <v>9.51361936698229E-005</v>
+        <v>0.0086758923157601</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21873,8 +21888,8 @@
         <v>-2598.64</v>
       </c>
       <c r="K39" s="0" t="n">
-        <f aca="false">B39*B39*SIGN(F39)*T$3*POWER(W$3,4)</f>
-        <v>-225292.434158009</v>
+        <f aca="false">H39*H39*SIGN(F39)*T$3*POWER(W$3,4)</f>
+        <v>-2470.46227273562</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">F39*9.81</f>
@@ -21886,11 +21901,11 @@
       </c>
       <c r="N39" s="0" t="n">
         <f aca="false">K39*Q$4</f>
-        <v>-22.5292434158009</v>
+        <v>-27.1750850000918</v>
       </c>
       <c r="O39" s="0" t="n">
         <f aca="false">IF(K39=0,0,L39/K39)</f>
-        <v>9.55945532626951E-005</v>
+        <v>0.00871769216412755</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21925,8 +21940,8 @@
         <v>-2575.93</v>
       </c>
       <c r="K40" s="0" t="n">
-        <f aca="false">B40*B40*SIGN(F40)*T$3*POWER(W$3,4)</f>
-        <v>-221371.895236898</v>
+        <f aca="false">H40*H40*SIGN(F40)*T$3*POWER(W$3,4)</f>
+        <v>-2427.47128846402</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">F40*9.81</f>
@@ -21934,15 +21949,15 @@
       </c>
       <c r="M40" s="0" t="n">
         <f aca="false">K40*P$4</f>
-        <v>-21.8822539134472</v>
+        <v>-21.8822539134473</v>
       </c>
       <c r="N40" s="0" t="n">
         <f aca="false">K40*Q$4</f>
-        <v>-22.1371895236898</v>
+        <v>-26.7021841731042</v>
       </c>
       <c r="O40" s="0" t="n">
         <f aca="false">IF(K40=0,0,L40/K40)</f>
-        <v>9.38704264882508E-005</v>
+        <v>0.00856046138100718</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21977,8 +21992,8 @@
         <v>-2547.87</v>
       </c>
       <c r="K41" s="0" t="n">
-        <f aca="false">B41*B41*SIGN(F41)*T$3*POWER(W$3,4)</f>
-        <v>-216575.287482968</v>
+        <f aca="false">H41*H41*SIGN(F41)*T$3*POWER(W$3,4)</f>
+        <v>-2374.87370107729</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">F41*9.81</f>
@@ -21990,11 +22005,11 @@
       </c>
       <c r="N41" s="0" t="n">
         <f aca="false">K41*Q$4</f>
-        <v>-21.6575287482968</v>
+        <v>-26.1236107118502</v>
       </c>
       <c r="O41" s="0" t="n">
         <f aca="false">IF(K41=0,0,L41/K41)</f>
-        <v>9.43057513817507E-005</v>
+        <v>0.00860016059276548</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22029,8 +22044,8 @@
         <v>-2517.32</v>
       </c>
       <c r="K42" s="0" t="n">
-        <f aca="false">B42*B42*SIGN(F42)*T$3*POWER(W$3,4)</f>
-        <v>-211412.772507226</v>
+        <f aca="false">H42*H42*SIGN(F42)*T$3*POWER(W$3,4)</f>
+        <v>-2318.26372867555</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">F42*9.81</f>
@@ -22042,11 +22057,11 @@
       </c>
       <c r="N42" s="0" t="n">
         <f aca="false">K42*Q$4</f>
-        <v>-21.1412772507226</v>
+        <v>-25.500901015431</v>
       </c>
       <c r="O42" s="0" t="n">
         <f aca="false">IF(K42=0,0,L42/K42)</f>
-        <v>9.38724236186899E-005</v>
+        <v>0.00856064350820783</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22081,8 +22096,8 @@
         <v>-2482.17</v>
       </c>
       <c r="K43" s="0" t="n">
-        <f aca="false">B43*B43*SIGN(F43)*T$3*POWER(W$3,4)</f>
-        <v>-205549.968142274</v>
+        <f aca="false">H43*H43*SIGN(F43)*T$3*POWER(W$3,4)</f>
+        <v>-2253.97467675877</v>
       </c>
       <c r="L43" s="0" t="n">
         <f aca="false">F43*9.81</f>
@@ -22094,11 +22109,11 @@
       </c>
       <c r="N43" s="0" t="n">
         <f aca="false">K43*Q$4</f>
-        <v>-20.5549968142274</v>
+        <v>-24.7937214443464</v>
       </c>
       <c r="O43" s="0" t="n">
         <f aca="false">IF(K43=0,0,L43/K43)</f>
-        <v>9.43851062714418E-005</v>
+        <v>0.00860739731783436</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22133,8 +22148,8 @@
         <v>-2440.17</v>
       </c>
       <c r="K44" s="0" t="n">
-        <f aca="false">B44*B44*SIGN(F44)*T$3*POWER(W$3,4)</f>
-        <v>-198652.729258976</v>
+        <f aca="false">H44*H44*SIGN(F44)*T$3*POWER(W$3,4)</f>
+        <v>-2178.34245008896</v>
       </c>
       <c r="L44" s="0" t="n">
         <f aca="false">F44*9.81</f>
@@ -22146,11 +22161,11 @@
       </c>
       <c r="N44" s="0" t="n">
         <f aca="false">K44*Q$4</f>
-        <v>-19.8652729258976</v>
+        <v>-23.9617669509786</v>
       </c>
       <c r="O44" s="0" t="n">
         <f aca="false">IF(K44=0,0,L44/K44)</f>
-        <v>9.58701984948411E-005</v>
+        <v>0.00874282947790061</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22185,8 +22200,8 @@
         <v>-2418.69</v>
       </c>
       <c r="K45" s="0" t="n">
-        <f aca="false">B45*B45*SIGN(F45)*T$3*POWER(W$3,4)</f>
-        <v>-195170.77523852</v>
+        <f aca="false">H45*H45*SIGN(F45)*T$3*POWER(W$3,4)</f>
+        <v>-2140.16080375411</v>
       </c>
       <c r="L45" s="0" t="n">
         <f aca="false">F45*9.81</f>
@@ -22198,11 +22213,11 @@
       </c>
       <c r="N45" s="0" t="n">
         <f aca="false">K45*Q$4</f>
-        <v>-19.517077523852</v>
+        <v>-23.5417688412952</v>
       </c>
       <c r="O45" s="0" t="n">
         <f aca="false">IF(K45=0,0,L45/K45)</f>
-        <v>9.34767196046844E-005</v>
+        <v>0.00852455750053821</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22237,8 +22252,8 @@
         <v>-2369.48</v>
       </c>
       <c r="K46" s="0" t="n">
-        <f aca="false">B46*B46*SIGN(F46)*T$3*POWER(W$3,4)</f>
-        <v>-187309.784304128</v>
+        <f aca="false">H46*H46*SIGN(F46)*T$3*POWER(W$3,4)</f>
+        <v>-2053.96047660015</v>
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">F46*9.81</f>
@@ -22246,15 +22261,15 @@
       </c>
       <c r="M46" s="0" t="n">
         <f aca="false">K46*P$4</f>
-        <v>-18.5152693219242</v>
+        <v>-18.5152693219241</v>
       </c>
       <c r="N46" s="0" t="n">
         <f aca="false">K46*Q$4</f>
-        <v>-18.7309784304128</v>
+        <v>-22.5935652426016</v>
       </c>
       <c r="O46" s="0" t="n">
         <f aca="false">IF(K46=0,0,L46/K46)</f>
-        <v>9.50241341963244E-005</v>
+        <v>0.00866567311434445</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22289,8 +22304,8 @@
         <v>-2345.45</v>
       </c>
       <c r="K47" s="0" t="n">
-        <f aca="false">B47*B47*SIGN(F47)*T$3*POWER(W$3,4)</f>
-        <v>-183529.857506689</v>
+        <f aca="false">H47*H47*SIGN(F47)*T$3*POWER(W$3,4)</f>
+        <v>-2012.51138585871</v>
       </c>
       <c r="L47" s="0" t="n">
         <f aca="false">F47*9.81</f>
@@ -22302,11 +22317,11 @@
       </c>
       <c r="N47" s="0" t="n">
         <f aca="false">K47*Q$4</f>
-        <v>-18.3529857506689</v>
+        <v>-22.1376252444458</v>
       </c>
       <c r="O47" s="0" t="n">
         <f aca="false">IF(K47=0,0,L47/K47)</f>
-        <v>9.43142395899761E-005</v>
+        <v>0.00860093467019782</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22341,8 +22356,8 @@
         <v>-2306.38</v>
       </c>
       <c r="K48" s="0" t="n">
-        <f aca="false">B48*B48*SIGN(F48)*T$3*POWER(W$3,4)</f>
-        <v>-177466.382168605</v>
+        <f aca="false">H48*H48*SIGN(F48)*T$3*POWER(W$3,4)</f>
+        <v>-1946.02186027663</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">F48*9.81</f>
@@ -22350,15 +22365,15 @@
       </c>
       <c r="M48" s="0" t="n">
         <f aca="false">K48*P$4</f>
-        <v>-17.5422649363802</v>
+        <v>-17.5422649363803</v>
       </c>
       <c r="N48" s="0" t="n">
         <f aca="false">K48*Q$4</f>
-        <v>-17.7466382168605</v>
+        <v>-21.406240463043</v>
       </c>
       <c r="O48" s="0" t="n">
         <f aca="false">IF(K48=0,0,L48/K48)</f>
-        <v>9.40263473909481E-005</v>
+        <v>0.00857468050108541</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22393,8 +22408,8 @@
         <v>-2277.85</v>
       </c>
       <c r="K49" s="0" t="n">
-        <f aca="false">B49*B49*SIGN(F49)*T$3*POWER(W$3,4)</f>
-        <v>-173103.007161555</v>
+        <f aca="false">H49*H49*SIGN(F49)*T$3*POWER(W$3,4)</f>
+        <v>-1898.17492135477</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">F49*9.81</f>
@@ -22406,11 +22421,11 @@
       </c>
       <c r="N49" s="0" t="n">
         <f aca="false">K49*Q$4</f>
-        <v>-17.3103007161555</v>
+        <v>-20.8799241349025</v>
       </c>
       <c r="O49" s="0" t="n">
         <f aca="false">IF(K49=0,0,L49/K49)</f>
-        <v>9.45970514441578E-005</v>
+        <v>0.00862672554008497</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22445,8 +22460,8 @@
         <v>-2248.15</v>
       </c>
       <c r="K50" s="0" t="n">
-        <f aca="false">B50*B50*SIGN(F50)*T$3*POWER(W$3,4)</f>
-        <v>-168618.390066847</v>
+        <f aca="false">H50*H50*SIGN(F50)*T$3*POWER(W$3,4)</f>
+        <v>-1848.99849258767</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">F50*9.81</f>
@@ -22454,15 +22469,15 @@
       </c>
       <c r="M50" s="0" t="n">
         <f aca="false">K50*P$4</f>
-        <v>-16.6676552232202</v>
+        <v>-16.6676552232203</v>
       </c>
       <c r="N50" s="0" t="n">
         <f aca="false">K50*Q$4</f>
-        <v>-16.8618390066847</v>
+        <v>-20.3389834184643</v>
       </c>
       <c r="O50" s="0" t="n">
         <f aca="false">IF(K50=0,0,L50/K50)</f>
-        <v>9.36823568872742E-005</v>
+        <v>0.00854331047825397</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22497,8 +22512,8 @@
         <v>-2222.36</v>
       </c>
       <c r="K51" s="0" t="n">
-        <f aca="false">B51*B51*SIGN(F51)*T$3*POWER(W$3,4)</f>
-        <v>-164771.916237374</v>
+        <f aca="false">H51*H51*SIGN(F51)*T$3*POWER(W$3,4)</f>
+        <v>-1806.81967502419</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">F51*9.81</f>
@@ -22506,15 +22521,15 @@
       </c>
       <c r="M51" s="0" t="n">
         <f aca="false">K51*P$4</f>
-        <v>-16.2874375044448</v>
+        <v>-16.2874375044447</v>
       </c>
       <c r="N51" s="0" t="n">
         <f aca="false">K51*Q$4</f>
-        <v>-16.4771916237374</v>
+        <v>-19.8750164252661</v>
       </c>
       <c r="O51" s="0" t="n">
         <f aca="false">IF(K51=0,0,L51/K51)</f>
-        <v>9.26286471756047E-005</v>
+        <v>0.00844721800663126</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22549,8 +22564,8 @@
         <v>-2198.72</v>
       </c>
       <c r="K52" s="0" t="n">
-        <f aca="false">B52*B52*SIGN(F52)*T$3*POWER(W$3,4)</f>
-        <v>-161285.090725357</v>
+        <f aca="false">H52*H52*SIGN(F52)*T$3*POWER(W$3,4)</f>
+        <v>-1768.58460995757</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">F52*9.81</f>
@@ -22562,11 +22577,11 @@
       </c>
       <c r="N52" s="0" t="n">
         <f aca="false">K52*Q$4</f>
-        <v>-16.1285090725357</v>
+        <v>-19.4544307095333</v>
       </c>
       <c r="O52" s="0" t="n">
         <f aca="false">IF(K52=0,0,L52/K52)</f>
-        <v>9.21481536201498E-005</v>
+        <v>0.00840339966384563</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22601,8 +22616,8 @@
         <v>-2156.96</v>
       </c>
       <c r="K53" s="0" t="n">
-        <f aca="false">B53*B53*SIGN(F53)*T$3*POWER(W$3,4)</f>
-        <v>-155216.737880513</v>
+        <f aca="false">H53*H53*SIGN(F53)*T$3*POWER(W$3,4)</f>
+        <v>-1702.04159968355</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">F53*9.81</f>
@@ -22610,15 +22625,15 @@
       </c>
       <c r="M53" s="0" t="n">
         <f aca="false">K53*P$4</f>
-        <v>-15.3429235733997</v>
+        <v>-15.3429235733996</v>
       </c>
       <c r="N53" s="0" t="n">
         <f aca="false">K53*Q$4</f>
-        <v>-15.5216737880513</v>
+        <v>-18.722457596519</v>
       </c>
       <c r="O53" s="0" t="n">
         <f aca="false">IF(K53=0,0,L53/K53)</f>
-        <v>9.40307035497386E-005</v>
+        <v>0.0085750777585657</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22653,8 +22668,8 @@
         <v>-2140.15</v>
       </c>
       <c r="K54" s="0" t="n">
-        <f aca="false">B54*B54*SIGN(F54)*T$3*POWER(W$3,4)</f>
-        <v>-152806.840477241</v>
+        <f aca="false">H54*H54*SIGN(F54)*T$3*POWER(W$3,4)</f>
+        <v>-1675.61567624677</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">F54*9.81</f>
@@ -22662,15 +22677,15 @@
       </c>
       <c r="M54" s="0" t="n">
         <f aca="false">K54*P$4</f>
-        <v>-15.1047091115895</v>
+        <v>-15.1047091115896</v>
       </c>
       <c r="N54" s="0" t="n">
         <f aca="false">K54*Q$4</f>
-        <v>-15.2806840477241</v>
+        <v>-18.4317724387145</v>
       </c>
       <c r="O54" s="0" t="n">
         <f aca="false">IF(K54=0,0,L54/K54)</f>
-        <v>9.23104482387416E-005</v>
+        <v>0.00841820003140303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22705,8 +22720,8 @@
         <v>-2105.77</v>
       </c>
       <c r="K55" s="0" t="n">
-        <f aca="false">B55*B55*SIGN(F55)*T$3*POWER(W$3,4)</f>
-        <v>-147936.805856773</v>
+        <f aca="false">H55*H55*SIGN(F55)*T$3*POWER(W$3,4)</f>
+        <v>-1622.21292066048</v>
       </c>
       <c r="L55" s="0" t="n">
         <f aca="false">F55*9.81</f>
@@ -22714,15 +22729,15 @@
       </c>
       <c r="M55" s="0" t="n">
         <f aca="false">K55*P$4</f>
-        <v>-14.6233140635943</v>
+        <v>-14.6233140635944</v>
       </c>
       <c r="N55" s="0" t="n">
         <f aca="false">K55*Q$4</f>
-        <v>-14.7936805856773</v>
+        <v>-17.8443421272653</v>
       </c>
       <c r="O55" s="0" t="n">
         <f aca="false">IF(K55=0,0,L55/K55)</f>
-        <v>9.26422027447911E-005</v>
+        <v>0.0084484541992305</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22757,8 +22772,8 @@
         <v>-2081.37</v>
       </c>
       <c r="K56" s="0" t="n">
-        <f aca="false">B56*B56*SIGN(F56)*T$3*POWER(W$3,4)</f>
-        <v>-144528.318577327</v>
+        <f aca="false">H56*H56*SIGN(F56)*T$3*POWER(W$3,4)</f>
+        <v>-1584.83687977192</v>
       </c>
       <c r="L56" s="0" t="n">
         <f aca="false">F56*9.81</f>
@@ -22770,11 +22785,11 @@
       </c>
       <c r="N56" s="0" t="n">
         <f aca="false">K56*Q$4</f>
-        <v>-14.4528318577327</v>
+        <v>-17.4332056774912</v>
       </c>
       <c r="O56" s="0" t="n">
         <f aca="false">IF(K56=0,0,L56/K56)</f>
-        <v>9.14403527591665E-005</v>
+        <v>0.00833885215764407</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22809,8 +22824,8 @@
         <v>-2039.83</v>
       </c>
       <c r="K57" s="0" t="n">
-        <f aca="false">B57*B57*SIGN(F57)*T$3*POWER(W$3,4)</f>
-        <v>-138816.892600493</v>
+        <f aca="false">H57*H57*SIGN(F57)*T$3*POWER(W$3,4)</f>
+        <v>-1522.20777972237</v>
       </c>
       <c r="L57" s="0" t="n">
         <f aca="false">F57*9.81</f>
@@ -22818,15 +22833,15 @@
       </c>
       <c r="M57" s="0" t="n">
         <f aca="false">K57*P$4</f>
-        <v>-13.7218253839723</v>
+        <v>-13.7218253839724</v>
       </c>
       <c r="N57" s="0" t="n">
         <f aca="false">K57*Q$4</f>
-        <v>-13.8816892600493</v>
+        <v>-16.7442855769461</v>
       </c>
       <c r="O57" s="0" t="n">
         <f aca="false">IF(K57=0,0,L57/K57)</f>
-        <v>9.19970649332531E-005</v>
+        <v>0.00838962121500208</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22861,8 +22876,8 @@
         <v>-2001.27</v>
       </c>
       <c r="K58" s="0" t="n">
-        <f aca="false">B58*B58*SIGN(F58)*T$3*POWER(W$3,4)</f>
-        <v>-133618.237663934</v>
+        <f aca="false">H58*H58*SIGN(F58)*T$3*POWER(W$3,4)</f>
+        <v>-1465.20151167906</v>
       </c>
       <c r="L58" s="0" t="n">
         <f aca="false">F58*9.81</f>
@@ -22874,11 +22889,11 @@
       </c>
       <c r="N58" s="0" t="n">
         <f aca="false">K58*Q$4</f>
-        <v>-13.3618237663934</v>
+        <v>-16.1172166284696</v>
       </c>
       <c r="O58" s="0" t="n">
         <f aca="false">IF(K58=0,0,L58/K58)</f>
-        <v>9.22461869419415E-005</v>
+        <v>0.00841233975815055</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22913,8 +22928,8 @@
         <v>-1968.2</v>
       </c>
       <c r="K59" s="0" t="n">
-        <f aca="false">B59*B59*SIGN(F59)*T$3*POWER(W$3,4)</f>
-        <v>-129238.772379658</v>
+        <f aca="false">H59*H59*SIGN(F59)*T$3*POWER(W$3,4)</f>
+        <v>-1417.17813353059</v>
       </c>
       <c r="L59" s="0" t="n">
         <f aca="false">F59*9.81</f>
@@ -22926,11 +22941,11 @@
       </c>
       <c r="N59" s="0" t="n">
         <f aca="false">K59*Q$4</f>
-        <v>-12.9238772379658</v>
+        <v>-15.5889594688365</v>
       </c>
       <c r="O59" s="0" t="n">
         <f aca="false">IF(K59=0,0,L59/K59)</f>
-        <v>9.12404552509971E-005</v>
+        <v>0.00832062261546706</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22965,8 +22980,8 @@
         <v>-1935.5</v>
       </c>
       <c r="K60" s="0" t="n">
-        <f aca="false">B60*B60*SIGN(F60)*T$3*POWER(W$3,4)</f>
-        <v>-124980.057584704</v>
+        <f aca="false">H60*H60*SIGN(F60)*T$3*POWER(W$3,4)</f>
+        <v>-1370.47885456636</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">F60*9.81</f>
@@ -22974,15 +22989,15 @@
       </c>
       <c r="M60" s="0" t="n">
         <f aca="false">K60*P$4</f>
-        <v>-12.3540766150965</v>
+        <v>-12.3540766150964</v>
       </c>
       <c r="N60" s="0" t="n">
         <f aca="false">K60*Q$4</f>
-        <v>-12.4980057584704</v>
+        <v>-15.0752674002299</v>
       </c>
       <c r="O60" s="0" t="n">
         <f aca="false">IF(K60=0,0,L60/K60)</f>
-        <v>9.11451656475646E-005</v>
+        <v>0.00831193273303324</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23017,8 +23032,8 @@
         <v>-1902.76</v>
       </c>
       <c r="K61" s="0" t="n">
-        <f aca="false">B61*B61*SIGN(F61)*T$3*POWER(W$3,4)</f>
-        <v>-120787.6120016</v>
+        <f aca="false">H61*H61*SIGN(F61)*T$3*POWER(W$3,4)</f>
+        <v>-1324.50625596462</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">F61*9.81</f>
@@ -23030,11 +23045,11 @@
       </c>
       <c r="N61" s="0" t="n">
         <f aca="false">K61*Q$4</f>
-        <v>-12.07876120016</v>
+        <v>-14.5695688156109</v>
       </c>
       <c r="O61" s="0" t="n">
         <f aca="false">IF(K61=0,0,L61/K61)</f>
-        <v>9.09932027984328E-005</v>
+        <v>0.00829807456545042</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23069,8 +23084,8 @@
         <v>-1869.56</v>
       </c>
       <c r="K62" s="0" t="n">
-        <f aca="false">B62*B62*SIGN(F62)*T$3*POWER(W$3,4)</f>
-        <v>-116609.298916492</v>
+        <f aca="false">H62*H62*SIGN(F62)*T$3*POWER(W$3,4)</f>
+        <v>-1278.68862840417</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">F62*9.81</f>
@@ -23082,11 +23097,11 @@
       </c>
       <c r="N62" s="0" t="n">
         <f aca="false">K62*Q$4</f>
-        <v>-11.6609298916492</v>
+        <v>-14.0655749124459</v>
       </c>
       <c r="O62" s="0" t="n">
         <f aca="false">IF(K62=0,0,L62/K62)</f>
-        <v>9.272727195919E-005</v>
+        <v>0.00845621203896579</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23121,8 +23136,8 @@
         <v>-1839.98</v>
       </c>
       <c r="K63" s="0" t="n">
-        <f aca="false">B63*B63*SIGN(F63)*T$3*POWER(W$3,4)</f>
-        <v>-112948.527622791</v>
+        <f aca="false">H63*H63*SIGN(F63)*T$3*POWER(W$3,4)</f>
+        <v>-1238.54614690451</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">F63*9.81</f>
@@ -23134,11 +23149,11 @@
       </c>
       <c r="N63" s="0" t="n">
         <f aca="false">K63*Q$4</f>
-        <v>-11.2948527622791</v>
+        <v>-13.6240076159497</v>
       </c>
       <c r="O63" s="0" t="n">
         <f aca="false">IF(K63=0,0,L63/K63)</f>
-        <v>9.13990758770803E-005</v>
+        <v>0.00833508793531928</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23173,8 +23188,8 @@
         <v>-1807.39</v>
       </c>
       <c r="K64" s="0" t="n">
-        <f aca="false">B64*B64*SIGN(F64)*T$3*POWER(W$3,4)</f>
-        <v>-108982.839548796</v>
+        <f aca="false">H64*H64*SIGN(F64)*T$3*POWER(W$3,4)</f>
+        <v>-1195.0600759725</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">F64*9.81</f>
@@ -23186,11 +23201,11 @@
       </c>
       <c r="N64" s="0" t="n">
         <f aca="false">K64*Q$4</f>
-        <v>-10.8982839548796</v>
+        <v>-13.1456608356975</v>
       </c>
       <c r="O64" s="0" t="n">
         <f aca="false">IF(K64=0,0,L64/K64)</f>
-        <v>9.18668430869547E-005</v>
+        <v>0.0083777457060915</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23225,8 +23240,8 @@
         <v>-1773.08</v>
       </c>
       <c r="K65" s="0" t="n">
-        <f aca="false">B65*B65*SIGN(F65)*T$3*POWER(W$3,4)</f>
-        <v>-104884.43215471</v>
+        <f aca="false">H65*H65*SIGN(F65)*T$3*POWER(W$3,4)</f>
+        <v>-1150.1186606816</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">F65*9.81</f>
@@ -23234,15 +23249,15 @@
       </c>
       <c r="M65" s="0" t="n">
         <f aca="false">K65*P$4</f>
-        <v>-10.3676565334593</v>
+        <v>-10.3676565334592</v>
       </c>
       <c r="N65" s="0" t="n">
         <f aca="false">K65*Q$4</f>
-        <v>-10.488443215471</v>
+        <v>-12.6513052674976</v>
       </c>
       <c r="O65" s="0" t="n">
         <f aca="false">IF(K65=0,0,L65/K65)</f>
-        <v>9.16383189167929E-005</v>
+        <v>0.00835690557138159</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23277,8 +23292,8 @@
         <v>-1737.6</v>
       </c>
       <c r="K66" s="0" t="n">
-        <f aca="false">B66*B66*SIGN(F66)*T$3*POWER(W$3,4)</f>
-        <v>-100728.875329782</v>
+        <f aca="false">H66*H66*SIGN(F66)*T$3*POWER(W$3,4)</f>
+        <v>-1104.55056871899</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">F66*9.81</f>
@@ -23286,15 +23301,15 @@
       </c>
       <c r="M66" s="0" t="n">
         <f aca="false">K66*P$4</f>
-        <v>-9.95688646033178</v>
+        <v>-9.95688646033177</v>
       </c>
       <c r="N66" s="0" t="n">
         <f aca="false">K66*Q$4</f>
-        <v>-10.0728875329782</v>
+        <v>-12.1500562559089</v>
       </c>
       <c r="O66" s="0" t="n">
         <f aca="false">IF(K66=0,0,L66/K66)</f>
-        <v>9.18848146700543E-005</v>
+        <v>0.00837938461462572</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23329,8 +23344,8 @@
         <v>-1704.96</v>
       </c>
       <c r="K67" s="0" t="n">
-        <f aca="false">B67*B67*SIGN(F67)*T$3*POWER(W$3,4)</f>
-        <v>-96980.1291389731</v>
+        <f aca="false">H67*H67*SIGN(F67)*T$3*POWER(W$3,4)</f>
+        <v>-1063.44339142266</v>
       </c>
       <c r="L67" s="0" t="n">
         <f aca="false">F67*9.81</f>
@@ -23342,11 +23357,11 @@
       </c>
       <c r="N67" s="0" t="n">
         <f aca="false">K67*Q$4</f>
-        <v>-9.69801291389731</v>
+        <v>-11.6978773056493</v>
       </c>
       <c r="O67" s="0" t="n">
         <f aca="false">IF(K67=0,0,L67/K67)</f>
-        <v>9.13071341873629E-005</v>
+        <v>0.00832670336401629</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23381,8 +23396,8 @@
         <v>-1667.06</v>
       </c>
       <c r="K68" s="0" t="n">
-        <f aca="false">B68*B68*SIGN(F68)*T$3*POWER(W$3,4)</f>
-        <v>-92716.4577922549</v>
+        <f aca="false">H68*H68*SIGN(F68)*T$3*POWER(W$3,4)</f>
+        <v>-1016.68976099216</v>
       </c>
       <c r="L68" s="0" t="n">
         <f aca="false">F68*9.81</f>
@@ -23390,15 +23405,15 @@
       </c>
       <c r="M68" s="0" t="n">
         <f aca="false">K68*P$4</f>
-        <v>-9.16487194182619</v>
+        <v>-9.16487194182615</v>
       </c>
       <c r="N68" s="0" t="n">
         <f aca="false">K68*Q$4</f>
-        <v>-9.27164577922549</v>
+        <v>-11.1835873709138</v>
       </c>
       <c r="O68" s="0" t="n">
         <f aca="false">IF(K68=0,0,L68/K68)</f>
-        <v>9.21464887878157E-005</v>
+        <v>0.00840324784038606</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23433,8 +23448,8 @@
         <v>-1630.35</v>
       </c>
       <c r="K69" s="0" t="n">
-        <f aca="false">B69*B69*SIGN(F69)*T$3*POWER(W$3,4)</f>
-        <v>-88678.0357440825</v>
+        <f aca="false">H69*H69*SIGN(F69)*T$3*POWER(W$3,4)</f>
+        <v>-972.406119827385</v>
       </c>
       <c r="L69" s="0" t="n">
         <f aca="false">F69*9.81</f>
@@ -23446,11 +23461,11 @@
       </c>
       <c r="N69" s="0" t="n">
         <f aca="false">K69*Q$4</f>
-        <v>-8.86780357440825</v>
+        <v>-10.6964673181012</v>
       </c>
       <c r="O69" s="0" t="n">
         <f aca="false">IF(K69=0,0,L69/K69)</f>
-        <v>9.08232218228564E-005</v>
+        <v>0.008282573244839</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23485,8 +23500,8 @@
         <v>-1589.17</v>
       </c>
       <c r="K70" s="0" t="n">
-        <f aca="false">B70*B70*SIGN(F70)*T$3*POWER(W$3,4)</f>
-        <v>-84254.8840014686</v>
+        <f aca="false">H70*H70*SIGN(F70)*T$3*POWER(W$3,4)</f>
+        <v>-923.903694312963</v>
       </c>
       <c r="L70" s="0" t="n">
         <f aca="false">F70*9.81</f>
@@ -23494,15 +23509,15 @@
       </c>
       <c r="M70" s="0" t="n">
         <f aca="false">K70*P$4</f>
-        <v>-8.32845905391551</v>
+        <v>-8.32845905391554</v>
       </c>
       <c r="N70" s="0" t="n">
         <f aca="false">K70*Q$4</f>
-        <v>-8.42548840014686</v>
+        <v>-10.1629406374426</v>
       </c>
       <c r="O70" s="0" t="n">
         <f aca="false">IF(K70=0,0,L70/K70)</f>
-        <v>9.13661682741836E-005</v>
+        <v>0.00833208694475938</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23537,8 +23552,8 @@
         <v>-1553.88</v>
       </c>
       <c r="K71" s="0" t="n">
-        <f aca="false">B71*B71*SIGN(F71)*T$3*POWER(W$3,4)</f>
-        <v>-80554.4103404704</v>
+        <f aca="false">H71*H71*SIGN(F71)*T$3*POWER(W$3,4)</f>
+        <v>-883.32585331748</v>
       </c>
       <c r="L71" s="0" t="n">
         <f aca="false">F71*9.81</f>
@@ -23550,11 +23565,11 @@
       </c>
       <c r="N71" s="0" t="n">
         <f aca="false">K71*Q$4</f>
-        <v>-8.05544103404704</v>
+        <v>-9.71658438649228</v>
       </c>
       <c r="O71" s="0" t="n">
         <f aca="false">IF(K71=0,0,L71/K71)</f>
-        <v>9.05918062332798E-005</v>
+        <v>0.00826146942874222</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23589,8 +23604,8 @@
         <v>-1518.54</v>
       </c>
       <c r="K72" s="0" t="n">
-        <f aca="false">B72*B72*SIGN(F72)*T$3*POWER(W$3,4)</f>
-        <v>-76931.967863256</v>
+        <f aca="false">H72*H72*SIGN(F72)*T$3*POWER(W$3,4)</f>
+        <v>-843.603669531953</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">F72*9.81</f>
@@ -23602,11 +23617,11 @@
       </c>
       <c r="N72" s="0" t="n">
         <f aca="false">K72*Q$4</f>
-        <v>-7.6931967863256</v>
+        <v>-9.27964036485149</v>
       </c>
       <c r="O72" s="0" t="n">
         <f aca="false">IF(K72=0,0,L72/K72)</f>
-        <v>9.1387045942938E-005</v>
+        <v>0.00833399087216002</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23641,8 +23656,8 @@
         <v>-1481.78</v>
       </c>
       <c r="K73" s="0" t="n">
-        <f aca="false">B73*B73*SIGN(F73)*T$3*POWER(W$3,4)</f>
-        <v>-73252.3946480272</v>
+        <f aca="false">H73*H73*SIGN(F73)*T$3*POWER(W$3,4)</f>
+        <v>-803.255014052398</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">F73*9.81</f>
@@ -23650,15 +23665,15 @@
       </c>
       <c r="M73" s="0" t="n">
         <f aca="false">K73*P$4</f>
-        <v>-7.24088077097964</v>
+        <v>-7.24088077097961</v>
       </c>
       <c r="N73" s="0" t="n">
         <f aca="false">K73*Q$4</f>
-        <v>-7.32523946480272</v>
+        <v>-8.83580515457638</v>
       </c>
       <c r="O73" s="0" t="n">
         <f aca="false">IF(K73=0,0,L73/K73)</f>
-        <v>9.11179260701446E-005</v>
+        <v>0.00830944863490712</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23693,8 +23708,8 @@
         <v>-1448.45</v>
       </c>
       <c r="K74" s="0" t="n">
-        <f aca="false">B74*B74*SIGN(F74)*T$3*POWER(W$3,4)</f>
-        <v>-69994.0922115078</v>
+        <f aca="false">H74*H74*SIGN(F74)*T$3*POWER(W$3,4)</f>
+        <v>-767.525837115466</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">F74*9.81</f>
@@ -23702,15 +23717,15 @@
       </c>
       <c r="M74" s="0" t="n">
         <f aca="false">K74*P$4</f>
-        <v>-6.918802843398</v>
+        <v>-6.91880284339796</v>
       </c>
       <c r="N74" s="0" t="n">
         <f aca="false">K74*Q$4</f>
-        <v>-6.99940922115078</v>
+        <v>-8.44278420827013</v>
       </c>
       <c r="O74" s="0" t="n">
         <f aca="false">IF(K74=0,0,L74/K74)</f>
-        <v>9.09094532488819E-005</v>
+        <v>0.00829043707181773</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23745,8 +23760,8 @@
         <v>-1409.65</v>
       </c>
       <c r="K75" s="0" t="n">
-        <f aca="false">B75*B75*SIGN(F75)*T$3*POWER(W$3,4)</f>
-        <v>-66294.4177247546</v>
+        <f aca="false">H75*H75*SIGN(F75)*T$3*POWER(W$3,4)</f>
+        <v>-726.956759529333</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">F75*9.81</f>
@@ -23754,15 +23769,15 @@
       </c>
       <c r="M75" s="0" t="n">
         <f aca="false">K75*P$4</f>
-        <v>-6.55309600229424</v>
+        <v>-6.55309600229427</v>
       </c>
       <c r="N75" s="0" t="n">
         <f aca="false">K75*Q$4</f>
-        <v>-6.62944177247546</v>
+        <v>-7.99652435482267</v>
       </c>
       <c r="O75" s="0" t="n">
         <f aca="false">IF(K75=0,0,L75/K75)</f>
-        <v>9.12843529650657E-005</v>
+        <v>0.00832462584310809</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23797,8 +23812,8 @@
         <v>-1362.08</v>
       </c>
       <c r="K76" s="0" t="n">
-        <f aca="false">B76*B76*SIGN(F76)*T$3*POWER(W$3,4)</f>
-        <v>-61895.5749146558</v>
+        <f aca="false">H76*H76*SIGN(F76)*T$3*POWER(W$3,4)</f>
+        <v>-678.720895565864</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">F76*9.81</f>
@@ -23806,15 +23821,15 @@
       </c>
       <c r="M76" s="0" t="n">
         <f aca="false">K76*P$4</f>
-        <v>-6.11827750289568</v>
+        <v>-6.11827750289565</v>
       </c>
       <c r="N76" s="0" t="n">
         <f aca="false">K76*Q$4</f>
-        <v>-6.18955749146558</v>
+        <v>-7.4659298512245</v>
       </c>
       <c r="O76" s="0" t="n">
         <f aca="false">IF(K76=0,0,L76/K76)</f>
-        <v>9.2020536741979E-005</v>
+        <v>0.00839176171355592</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23849,8 +23864,8 @@
         <v>-1324.67</v>
       </c>
       <c r="K77" s="0" t="n">
-        <f aca="false">B77*B77*SIGN(F77)*T$3*POWER(W$3,4)</f>
-        <v>-58542.298650229</v>
+        <f aca="false">H77*H77*SIGN(F77)*T$3*POWER(W$3,4)</f>
+        <v>-641.950275494724</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">F77*9.81</f>
@@ -23858,15 +23873,15 @@
       </c>
       <c r="M77" s="0" t="n">
         <f aca="false">K77*P$4</f>
-        <v>-5.78681156598621</v>
+        <v>-5.78681156598618</v>
       </c>
       <c r="N77" s="0" t="n">
         <f aca="false">K77*Q$4</f>
-        <v>-5.8542298650229</v>
+        <v>-7.06145303044197</v>
       </c>
       <c r="O77" s="0" t="n">
         <f aca="false">IF(K77=0,0,L77/K77)</f>
-        <v>9.04506275101531E-005</v>
+        <v>0.00824859471353793</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23901,8 +23916,8 @@
         <v>-1284.84</v>
       </c>
       <c r="K78" s="0" t="n">
-        <f aca="false">B78*B78*SIGN(F78)*T$3*POWER(W$3,4)</f>
-        <v>-55074.7413929005</v>
+        <f aca="false">H78*H78*SIGN(F78)*T$3*POWER(W$3,4)</f>
+        <v>-603.926498021701</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">F78*9.81</f>
@@ -23914,11 +23929,11 @@
       </c>
       <c r="N78" s="0" t="n">
         <f aca="false">K78*Q$4</f>
-        <v>-5.50747413929005</v>
+        <v>-6.64319147823871</v>
       </c>
       <c r="O78" s="0" t="n">
         <f aca="false">IF(K78=0,0,L78/K78)</f>
-        <v>9.12978122172021E-005</v>
+        <v>0.00832585325212758</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23953,8 +23968,8 @@
         <v>-1246.14</v>
       </c>
       <c r="K79" s="0" t="n">
-        <f aca="false">B79*B79*SIGN(F79)*T$3*POWER(W$3,4)</f>
-        <v>-51806.9520846775</v>
+        <f aca="false">H79*H79*SIGN(F79)*T$3*POWER(W$3,4)</f>
+        <v>-568.093292031518</v>
       </c>
       <c r="L79" s="0" t="n">
         <f aca="false">F79*9.81</f>
@@ -23962,15 +23977,15 @@
       </c>
       <c r="M79" s="0" t="n">
         <f aca="false">K79*P$4</f>
-        <v>-5.12103344819606</v>
+        <v>-5.12103344819605</v>
       </c>
       <c r="N79" s="0" t="n">
         <f aca="false">K79*Q$4</f>
-        <v>-5.18069520846775</v>
+        <v>-6.2490262123467</v>
       </c>
       <c r="O79" s="0" t="n">
         <f aca="false">IF(K79=0,0,L79/K79)</f>
-        <v>9.10441857975084E-005</v>
+        <v>0.00830272393172055</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24005,8 +24020,8 @@
         <v>-1199.38</v>
       </c>
       <c r="K80" s="0" t="n">
-        <f aca="false">B80*B80*SIGN(F80)*T$3*POWER(W$3,4)</f>
-        <v>-47991.9033465325</v>
+        <f aca="false">H80*H80*SIGN(F80)*T$3*POWER(W$3,4)</f>
+        <v>-526.259068829756</v>
       </c>
       <c r="L80" s="0" t="n">
         <f aca="false">F80*9.81</f>
@@ -24014,15 +24029,15 @@
       </c>
       <c r="M80" s="0" t="n">
         <f aca="false">K80*P$4</f>
-        <v>-4.74392204888798</v>
+        <v>-4.74392204888801</v>
       </c>
       <c r="N80" s="0" t="n">
         <f aca="false">K80*Q$4</f>
-        <v>-4.79919033465325</v>
+        <v>-5.78884975712732</v>
       </c>
       <c r="O80" s="0" t="n">
         <f aca="false">IF(K80=0,0,L80/K80)</f>
-        <v>9.08641346877332E-005</v>
+        <v>0.00828630427081664</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24057,8 +24072,8 @@
         <v>-1152.94</v>
       </c>
       <c r="K81" s="0" t="n">
-        <f aca="false">B81*B81*SIGN(F81)*T$3*POWER(W$3,4)</f>
-        <v>-44347.3611634165</v>
+        <f aca="false">H81*H81*SIGN(F81)*T$3*POWER(W$3,4)</f>
+        <v>-486.294548945051</v>
       </c>
       <c r="L81" s="0" t="n">
         <f aca="false">F81*9.81</f>
@@ -24066,15 +24081,15 @@
       </c>
       <c r="M81" s="0" t="n">
         <f aca="false">K81*P$4</f>
-        <v>-4.38366494685672</v>
+        <v>-4.38366494685674</v>
       </c>
       <c r="N81" s="0" t="n">
         <f aca="false">K81*Q$4</f>
-        <v>-4.43473611634165</v>
+        <v>-5.34924003839555</v>
       </c>
       <c r="O81" s="0" t="n">
         <f aca="false">IF(K81=0,0,L81/K81)</f>
-        <v>9.23112088521981E-005</v>
+        <v>0.00841826939512452</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24109,8 +24124,8 @@
         <v>-1112.71</v>
       </c>
       <c r="K82" s="0" t="n">
-        <f aca="false">B82*B82*SIGN(F82)*T$3*POWER(W$3,4)</f>
-        <v>-41306.495588008</v>
+        <f aca="false">H82*H82*SIGN(F82)*T$3*POWER(W$3,4)</f>
+        <v>-452.949693363977</v>
       </c>
       <c r="L82" s="0" t="n">
         <f aca="false">F82*9.81</f>
@@ -24118,15 +24133,15 @@
       </c>
       <c r="M82" s="0" t="n">
         <f aca="false">K82*P$4</f>
-        <v>-4.08308030142762</v>
+        <v>-4.08308030142764</v>
       </c>
       <c r="N82" s="0" t="n">
         <f aca="false">K82*Q$4</f>
-        <v>-4.1306495588008</v>
+        <v>-4.98244662700375</v>
       </c>
       <c r="O82" s="0" t="n">
         <f aca="false">IF(K82=0,0,L82/K82)</f>
-        <v>9.15661529296633E-005</v>
+        <v>0.00835032443428695</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24161,8 +24176,8 @@
         <v>-1064.11</v>
       </c>
       <c r="K83" s="0" t="n">
-        <f aca="false">B83*B83*SIGN(F83)*T$3*POWER(W$3,4)</f>
-        <v>-37776.9958227364</v>
+        <f aca="false">H83*H83*SIGN(F83)*T$3*POWER(W$3,4)</f>
+        <v>-414.246680347494</v>
       </c>
       <c r="L83" s="0" t="n">
         <f aca="false">F83*9.81</f>
@@ -24170,15 +24185,15 @@
       </c>
       <c r="M83" s="0" t="n">
         <f aca="false">K83*P$4</f>
-        <v>-3.73419495639105</v>
+        <v>-3.73419495639107</v>
       </c>
       <c r="N83" s="0" t="n">
         <f aca="false">K83*Q$4</f>
-        <v>-3.77769958227364</v>
+        <v>-4.55671348382244</v>
       </c>
       <c r="O83" s="0" t="n">
         <f aca="false">IF(K83=0,0,L83/K83)</f>
-        <v>9.18758940463729E-005</v>
+        <v>0.00837857110330611</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24213,8 +24228,8 @@
         <v>-1016.48</v>
       </c>
       <c r="K84" s="0" t="n">
-        <f aca="false">B84*B84*SIGN(F84)*T$3*POWER(W$3,4)</f>
-        <v>-34470.8541676847</v>
+        <f aca="false">H84*H84*SIGN(F84)*T$3*POWER(W$3,4)</f>
+        <v>-377.992918619315</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">F84*9.81</f>
@@ -24222,15 +24237,15 @@
       </c>
       <c r="M84" s="0" t="n">
         <f aca="false">K84*P$4</f>
-        <v>-3.40738819940753</v>
+        <v>-3.40738819940751</v>
       </c>
       <c r="N84" s="0" t="n">
         <f aca="false">K84*Q$4</f>
-        <v>-3.44708541676847</v>
+        <v>-4.15792210481246</v>
       </c>
       <c r="O84" s="0" t="n">
         <f aca="false">IF(K84=0,0,L84/K84)</f>
-        <v>9.16517363866705E-005</v>
+        <v>0.00835812917009119</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24265,8 +24280,8 @@
         <v>-969.68</v>
       </c>
       <c r="K85" s="0" t="n">
-        <f aca="false">B85*B85*SIGN(F85)*T$3*POWER(W$3,4)</f>
-        <v>-31369.763575826</v>
+        <f aca="false">H85*H85*SIGN(F85)*T$3*POWER(W$3,4)</f>
+        <v>-343.987660785627</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">F85*9.81</f>
@@ -24274,15 +24289,15 @@
       </c>
       <c r="M85" s="0" t="n">
         <f aca="false">K85*P$4</f>
-        <v>-3.10085040847867</v>
+        <v>-3.10085040847865</v>
       </c>
       <c r="N85" s="0" t="n">
         <f aca="false">K85*Q$4</f>
-        <v>-3.1369763575826</v>
+        <v>-3.7838642686419</v>
       </c>
       <c r="O85" s="0" t="n">
         <f aca="false">IF(K85=0,0,L85/K85)</f>
-        <v>9.22011854188429E-005</v>
+        <v>0.00840823586925839</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24317,8 +24332,8 @@
         <v>-916.03</v>
       </c>
       <c r="K86" s="0" t="n">
-        <f aca="false">B86*B86*SIGN(F86)*T$3*POWER(W$3,4)</f>
-        <v>-27994.5675610749</v>
+        <f aca="false">H86*H86*SIGN(F86)*T$3*POWER(W$3,4)</f>
+        <v>-306.976677932641</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">F86*9.81</f>
@@ -24330,11 +24345,11 @@
       </c>
       <c r="N86" s="0" t="n">
         <f aca="false">K86*Q$4</f>
-        <v>-2.79945675610749</v>
+        <v>-3.37674345725905</v>
       </c>
       <c r="O86" s="0" t="n">
         <f aca="false">IF(K86=0,0,L86/K86)</f>
-        <v>9.0601520486663E-005</v>
+        <v>0.00826235531468141</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24369,8 +24384,8 @@
         <v>-868.6</v>
       </c>
       <c r="K87" s="0" t="n">
-        <f aca="false">B87*B87*SIGN(F87)*T$3*POWER(W$3,4)</f>
-        <v>-25170.626143529</v>
+        <f aca="false">H87*H87*SIGN(F87)*T$3*POWER(W$3,4)</f>
+        <v>-276.010521618799</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">F87*9.81</f>
@@ -24382,11 +24397,11 @@
       </c>
       <c r="N87" s="0" t="n">
         <f aca="false">K87*Q$4</f>
-        <v>-2.5170626143529</v>
+        <v>-3.03611573780679</v>
       </c>
       <c r="O87" s="0" t="n">
         <f aca="false">IF(K87=0,0,L87/K87)</f>
-        <v>9.19271335248394E-005</v>
+        <v>0.0083832438590718</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24421,8 +24436,8 @@
         <v>-809.94</v>
       </c>
       <c r="K88" s="0" t="n">
-        <f aca="false">B88*B88*SIGN(F88)*T$3*POWER(W$3,4)</f>
-        <v>-21885.6809901966</v>
+        <f aca="false">H88*H88*SIGN(F88)*T$3*POWER(W$3,4)</f>
+        <v>-239.989191831836</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">F88*9.81</f>
@@ -24434,11 +24449,11 @@
       </c>
       <c r="N88" s="0" t="n">
         <f aca="false">K88*Q$4</f>
-        <v>-2.18856809901966</v>
+        <v>-2.6398811101502</v>
       </c>
       <c r="O88" s="0" t="n">
         <f aca="false">IF(K88=0,0,L88/K88)</f>
-        <v>9.35259569997785E-005</v>
+        <v>0.00852904767742323</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24473,8 +24488,8 @@
         <v>-758.15</v>
       </c>
       <c r="K89" s="0" t="n">
-        <f aca="false">B89*B89*SIGN(F89)*T$3*POWER(W$3,4)</f>
-        <v>-19176.2926007354</v>
+        <f aca="false">H89*H89*SIGN(F89)*T$3*POWER(W$3,4)</f>
+        <v>-210.27917594352</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">F89*9.81</f>
@@ -24482,15 +24497,15 @@
       </c>
       <c r="M89" s="0" t="n">
         <f aca="false">K89*P$4</f>
-        <v>-1.89554551791138</v>
+        <v>-1.89554551791139</v>
       </c>
       <c r="N89" s="0" t="n">
         <f aca="false">K89*Q$4</f>
-        <v>-1.91762926007354</v>
+        <v>-2.31307093537872</v>
       </c>
       <c r="O89" s="0" t="n">
         <f aca="false">IF(K89=0,0,L89/K89)</f>
-        <v>9.28174723372622E-005</v>
+        <v>0.00846443781232085</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24525,8 +24540,8 @@
         <v>-697.28</v>
       </c>
       <c r="K90" s="0" t="n">
-        <f aca="false">B90*B90*SIGN(F90)*T$3*POWER(W$3,4)</f>
-        <v>-16220.6699005149</v>
+        <f aca="false">H90*H90*SIGN(F90)*T$3*POWER(W$3,4)</f>
+        <v>-177.86905795343</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">F90*9.81</f>
@@ -24538,11 +24553,11 @@
       </c>
       <c r="N90" s="0" t="n">
         <f aca="false">K90*Q$4</f>
-        <v>-1.62206699005149</v>
+        <v>-1.95655963748773</v>
       </c>
       <c r="O90" s="0" t="n">
         <f aca="false">IF(K90=0,0,L90/K90)</f>
-        <v>9.05272957655951E-005</v>
+        <v>0.00825558643248937</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24577,8 +24592,8 @@
         <v>-641.26</v>
       </c>
       <c r="K91" s="0" t="n">
-        <f aca="false">B91*B91*SIGN(F91)*T$3*POWER(W$3,4)</f>
-        <v>-13719.0067728434</v>
+        <f aca="false">H91*H91*SIGN(F91)*T$3*POWER(W$3,4)</f>
+        <v>-150.436870098992</v>
       </c>
       <c r="L91" s="0" t="n">
         <f aca="false">F91*9.81</f>
@@ -24590,11 +24605,11 @@
       </c>
       <c r="N91" s="0" t="n">
         <f aca="false">K91*Q$4</f>
-        <v>-1.37190067728434</v>
+        <v>-1.65480557108891</v>
       </c>
       <c r="O91" s="0" t="n">
         <f aca="false">IF(K91=0,0,L91/K91)</f>
-        <v>9.08175443186087E-005</v>
+        <v>0.00828205548799404</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24629,8 +24644,8 @@
         <v>-577.81</v>
       </c>
       <c r="K92" s="0" t="n">
-        <f aca="false">B92*B92*SIGN(F92)*T$3*POWER(W$3,4)</f>
-        <v>-11138.4427428219</v>
+        <f aca="false">H92*H92*SIGN(F92)*T$3*POWER(W$3,4)</f>
+        <v>-122.139488065845</v>
       </c>
       <c r="L92" s="0" t="n">
         <f aca="false">F92*9.81</f>
@@ -24642,11 +24657,11 @@
       </c>
       <c r="N92" s="0" t="n">
         <f aca="false">K92*Q$4</f>
-        <v>-1.11384427428219</v>
+        <v>-1.3435343687243</v>
       </c>
       <c r="O92" s="0" t="n">
         <f aca="false">IF(K92=0,0,L92/K92)</f>
-        <v>9.1883547209465E-005</v>
+        <v>0.00837926902926158</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24681,8 +24696,8 @@
         <v>-513.25</v>
       </c>
       <c r="K93" s="0" t="n">
-        <f aca="false">B93*B93*SIGN(F93)*T$3*POWER(W$3,4)</f>
-        <v>-8788.449979024</v>
+        <f aca="false">H93*H93*SIGN(F93)*T$3*POWER(W$3,4)</f>
+        <v>-96.3704537622222</v>
       </c>
       <c r="L93" s="0" t="n">
         <f aca="false">F93*9.81</f>
@@ -24690,15 +24705,15 @@
       </c>
       <c r="M93" s="0" t="n">
         <f aca="false">K93*P$4</f>
-        <v>-0.868724070599992</v>
+        <v>-0.868724070599993</v>
       </c>
       <c r="N93" s="0" t="n">
         <f aca="false">K93*Q$4</f>
-        <v>-0.8788449979024</v>
+        <v>-1.06007499138444</v>
       </c>
       <c r="O93" s="0" t="n">
         <f aca="false">IF(K93=0,0,L93/K93)</f>
-        <v>9.62001411873418E-005</v>
+        <v>0.00877291841839829</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24733,8 +24748,8 @@
         <v>-449.5</v>
       </c>
       <c r="K94" s="0" t="n">
-        <f aca="false">B94*B94*SIGN(F94)*T$3*POWER(W$3,4)</f>
-        <v>-6740.836001344</v>
+        <f aca="false">H94*H94*SIGN(F94)*T$3*POWER(W$3,4)</f>
+        <v>-73.9171783120723</v>
       </c>
       <c r="L94" s="0" t="n">
         <f aca="false">F94*9.81</f>
@@ -24742,15 +24757,15 @@
       </c>
       <c r="M94" s="0" t="n">
         <f aca="false">K94*P$4</f>
-        <v>-0.666320739642517</v>
+        <v>-0.666320739642518</v>
       </c>
       <c r="N94" s="0" t="n">
         <f aca="false">K94*Q$4</f>
-        <v>-0.6740836001344</v>
+        <v>-0.813088961432795</v>
       </c>
       <c r="O94" s="0" t="n">
         <f aca="false">IF(K94=0,0,L94/K94)</f>
-        <v>9.90174850518423E-005</v>
+        <v>0.00902984452655966</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24785,8 +24800,8 @@
         <v>-388.48</v>
       </c>
       <c r="K95" s="0" t="n">
-        <f aca="false">B95*B95*SIGN(F95)*T$3*POWER(W$3,4)</f>
-        <v>-5034.90985370583</v>
+        <f aca="false">H95*H95*SIGN(F95)*T$3*POWER(W$3,4)</f>
+        <v>-55.2107081921857</v>
       </c>
       <c r="L95" s="0" t="n">
         <f aca="false">F95*9.81</f>
@@ -24794,15 +24809,15 @@
       </c>
       <c r="M95" s="0" t="n">
         <f aca="false">K95*P$4</f>
-        <v>-0.497692698218109</v>
+        <v>-0.49769269821811</v>
       </c>
       <c r="N95" s="0" t="n">
         <f aca="false">K95*Q$4</f>
-        <v>-0.503490985370583</v>
+        <v>-0.607317790114043</v>
       </c>
       <c r="O95" s="0" t="n">
         <f aca="false">IF(K95=0,0,L95/K95)</f>
-        <v>9.72154698737527E-005</v>
+        <v>0.00886551075375044</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24837,8 +24852,8 @@
         <v>-317.17</v>
       </c>
       <c r="K96" s="0" t="n">
-        <f aca="false">B96*B96*SIGN(F96)*T$3*POWER(W$3,4)</f>
-        <v>-3356.12844356017</v>
+        <f aca="false">H96*H96*SIGN(F96)*T$3*POWER(W$3,4)</f>
+        <v>-36.8018958703925</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">F96*9.81</f>
@@ -24850,11 +24865,11 @@
       </c>
       <c r="N96" s="0" t="n">
         <f aca="false">K96*Q$4</f>
-        <v>-0.335612844356017</v>
+        <v>-0.404820854574317</v>
       </c>
       <c r="O96" s="0" t="n">
         <f aca="false">IF(K96=0,0,L96/K96)</f>
-        <v>0.000106068348570825</v>
+        <v>0.00967284410709909</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24889,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="0" t="n">
-        <f aca="false">B97*B97*SIGN(F97)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H97*H97*SIGN(F97)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L97" s="0" t="n">
@@ -24941,7 +24956,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="0" t="n">
-        <f aca="false">B98*B98*SIGN(F98)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H98*H98*SIGN(F98)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L98" s="0" t="n">
@@ -24993,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="0" t="n">
-        <f aca="false">B99*B99*SIGN(F99)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H99*H99*SIGN(F99)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L99" s="0" t="n">
@@ -25045,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="0" t="n">
-        <f aca="false">B100*B100*SIGN(F100)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H100*H100*SIGN(F100)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L100" s="0" t="n">
@@ -25097,7 +25112,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="0" t="n">
-        <f aca="false">B101*B101*SIGN(F101)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H101*H101*SIGN(F101)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L101" s="0" t="n">
@@ -25149,7 +25164,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="0" t="n">
-        <f aca="false">B102*B102*SIGN(F102)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H102*H102*SIGN(F102)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L102" s="0" t="n">
@@ -25201,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="0" t="n">
-        <f aca="false">B103*B103*SIGN(F103)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H103*H103*SIGN(F103)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L103" s="0" t="n">
@@ -25253,7 +25268,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="0" t="n">
-        <f aca="false">B104*B104*SIGN(F104)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H104*H104*SIGN(F104)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L104" s="0" t="n">
@@ -25305,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="0" t="n">
-        <f aca="false">B105*B105*SIGN(F105)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H105*H105*SIGN(F105)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L105" s="0" t="n">
@@ -25357,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="0" t="n">
-        <f aca="false">B106*B106*SIGN(F106)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H106*H106*SIGN(F106)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L106" s="0" t="n">
@@ -25409,7 +25424,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="0" t="n">
-        <f aca="false">B107*B107*SIGN(F107)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H107*H107*SIGN(F107)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L107" s="0" t="n">
@@ -25461,7 +25476,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="0" t="n">
-        <f aca="false">B108*B108*SIGN(F108)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H108*H108*SIGN(F108)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L108" s="0" t="n">
@@ -25513,7 +25528,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="0" t="n">
-        <f aca="false">B109*B109*SIGN(F109)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H109*H109*SIGN(F109)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L109" s="0" t="n">
@@ -25565,7 +25580,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="0" t="n">
-        <f aca="false">B110*B110*SIGN(F110)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H110*H110*SIGN(F110)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L110" s="0" t="n">
@@ -25617,7 +25632,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="0" t="n">
-        <f aca="false">B111*B111*SIGN(F111)*T$3*POWER(W$3,4)</f>
+        <f aca="false">H111*H111*SIGN(F111)*T$3*POWER(W$3,4)</f>
         <v>0</v>
       </c>
       <c r="L111" s="0" t="n">
@@ -25669,8 +25684,8 @@
         <v>308.25</v>
       </c>
       <c r="K112" s="0" t="n">
-        <f aca="false">B112*B112*SIGN(F112)*T$3*POWER(W$3,4)</f>
-        <v>3170.009324304</v>
+        <f aca="false">H112*H112*SIGN(F112)*T$3*POWER(W$3,4)</f>
+        <v>34.7609917269596</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">F112*9.81</f>
@@ -25682,11 +25697,11 @@
       </c>
       <c r="N112" s="0" t="n">
         <f aca="false">K112*Q$4</f>
-        <v>0.3170009324304</v>
+        <v>0.382370908996555</v>
       </c>
       <c r="O112" s="0" t="n">
         <f aca="false">IF(K112=0,0,L112/K112)</f>
-        <v>0.00012633287029461</v>
+        <v>0.0115208559049655</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25721,8 +25736,8 @@
         <v>374.8</v>
       </c>
       <c r="K113" s="0" t="n">
-        <f aca="false">B113*B113*SIGN(F113)*T$3*POWER(W$3,4)</f>
-        <v>4686.55300808704</v>
+        <f aca="false">H113*H113*SIGN(F113)*T$3*POWER(W$3,4)</f>
+        <v>51.3907732362395</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">F113*9.81</f>
@@ -25730,15 +25745,15 @@
       </c>
       <c r="M113" s="0" t="n">
         <f aca="false">K113*P$4</f>
-        <v>0.463258187278225</v>
+        <v>0.463258187278226</v>
       </c>
       <c r="N113" s="0" t="n">
         <f aca="false">K113*Q$4</f>
-        <v>0.468655300808704</v>
+        <v>0.565298505598634</v>
       </c>
       <c r="O113" s="0" t="n">
         <f aca="false">IF(K113=0,0,L113/K113)</f>
-        <v>0.000113936298486029</v>
+        <v>0.0103903574274975</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25773,8 +25788,8 @@
         <v>440.8</v>
       </c>
       <c r="K114" s="0" t="n">
-        <f aca="false">B114*B114*SIGN(F114)*T$3*POWER(W$3,4)</f>
-        <v>6482.42559729664</v>
+        <f aca="false">H114*H114*SIGN(F114)*T$3*POWER(W$3,4)</f>
+        <v>71.083558281878</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">F114*9.81</f>
@@ -25782,15 +25797,15 @@
       </c>
       <c r="M114" s="0" t="n">
         <f aca="false">K114*P$4</f>
-        <v>0.640777289019801</v>
+        <v>0.640777289019802</v>
       </c>
       <c r="N114" s="0" t="n">
         <f aca="false">K114*Q$4</f>
-        <v>0.648242559729664</v>
+        <v>0.781919141100658</v>
       </c>
       <c r="O114" s="0" t="n">
         <f aca="false">IF(K114=0,0,L114/K114)</f>
-        <v>0.0001166932604233</v>
+        <v>0.0106417770393586</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25825,8 +25840,8 @@
         <v>508.01</v>
       </c>
       <c r="K115" s="0" t="n">
-        <f aca="false">B115*B115*SIGN(F115)*T$3*POWER(W$3,4)</f>
-        <v>8609.91555030838</v>
+        <f aca="false">H115*H115*SIGN(F115)*T$3*POWER(W$3,4)</f>
+        <v>94.4127201517936</v>
       </c>
       <c r="L115" s="0" t="n">
         <f aca="false">F115*9.81</f>
@@ -25834,15 +25849,15 @@
       </c>
       <c r="M115" s="0" t="n">
         <f aca="false">K115*P$4</f>
-        <v>0.851076230989337</v>
+        <v>0.851076230989336</v>
       </c>
       <c r="N115" s="0" t="n">
         <f aca="false">K115*Q$4</f>
-        <v>0.860991555030838</v>
+        <v>1.03853992166973</v>
       </c>
       <c r="O115" s="0" t="n">
         <f aca="false">IF(K115=0,0,L115/K115)</f>
-        <v>0.000113699402587629</v>
+        <v>0.010368753837683</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25877,8 +25892,8 @@
         <v>572.86</v>
       </c>
       <c r="K116" s="0" t="n">
-        <f aca="false">B116*B116*SIGN(F116)*T$3*POWER(W$3,4)</f>
-        <v>10948.4179102852</v>
+        <f aca="false">H116*H116*SIGN(F116)*T$3*POWER(W$3,4)</f>
+        <v>120.055755509893</v>
       </c>
       <c r="L116" s="0" t="n">
         <f aca="false">F116*9.81</f>
@@ -25890,11 +25905,11 @@
       </c>
       <c r="N116" s="0" t="n">
         <f aca="false">K116*Q$4</f>
-        <v>1.09484179102852</v>
+        <v>1.32061331060882</v>
       </c>
       <c r="O116" s="0" t="n">
         <f aca="false">IF(K116=0,0,L116/K116)</f>
-        <v>0.000113799684649373</v>
+        <v>0.0103778990045782</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25929,8 +25944,8 @@
         <v>630.43</v>
       </c>
       <c r="K117" s="0" t="n">
-        <f aca="false">B117*B117*SIGN(F117)*T$3*POWER(W$3,4)</f>
-        <v>13259.5294500231</v>
+        <f aca="false">H117*H117*SIGN(F117)*T$3*POWER(W$3,4)</f>
+        <v>145.398434629788</v>
       </c>
       <c r="L117" s="0" t="n">
         <f aca="false">F117*9.81</f>
@@ -25942,11 +25957,11 @@
       </c>
       <c r="N117" s="0" t="n">
         <f aca="false">K117*Q$4</f>
-        <v>1.32595294500231</v>
+        <v>1.59938278092766</v>
       </c>
       <c r="O117" s="0" t="n">
         <f aca="false">IF(K117=0,0,L117/K117)</f>
-        <v>0.000114099882842928</v>
+        <v>0.0104052754120233</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25981,8 +25996,8 @@
         <v>688.25</v>
       </c>
       <c r="K118" s="0" t="n">
-        <f aca="false">B118*B118*SIGN(F118)*T$3*POWER(W$3,4)</f>
-        <v>15803.264510224</v>
+        <f aca="false">H118*H118*SIGN(F118)*T$3*POWER(W$3,4)</f>
+        <v>173.291965637818</v>
       </c>
       <c r="L118" s="0" t="n">
         <f aca="false">F118*9.81</f>
@@ -25994,11 +26009,11 @@
       </c>
       <c r="N118" s="0" t="n">
         <f aca="false">K118*Q$4</f>
-        <v>1.5803264510224</v>
+        <v>1.90621162201599</v>
       </c>
       <c r="O118" s="0" t="n">
         <f aca="false">IF(K118=0,0,L118/K118)</f>
-        <v>0.0001126283121344</v>
+        <v>0.010271076338992</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26033,8 +26048,8 @@
         <v>749.32</v>
       </c>
       <c r="K119" s="0" t="n">
-        <f aca="false">B119*B119*SIGN(F119)*T$3*POWER(W$3,4)</f>
-        <v>18732.2100071502</v>
+        <f aca="false">H119*H119*SIGN(F119)*T$3*POWER(W$3,4)</f>
+        <v>205.409552613598</v>
       </c>
       <c r="L119" s="0" t="n">
         <f aca="false">F119*9.81</f>
@@ -26046,11 +26061,11 @@
       </c>
       <c r="N119" s="0" t="n">
         <f aca="false">K119*Q$4</f>
-        <v>1.87322100071502</v>
+        <v>2.25950507874957</v>
       </c>
       <c r="O119" s="0" t="n">
         <f aca="false">IF(K119=0,0,L119/K119)</f>
-        <v>0.000114021464033594</v>
+        <v>0.0103981240522823</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26085,8 +26100,8 @@
         <v>803.61</v>
       </c>
       <c r="K120" s="0" t="n">
-        <f aca="false">B120*B120*SIGN(F120)*T$3*POWER(W$3,4)</f>
-        <v>21544.9273477898</v>
+        <f aca="false">H120*H120*SIGN(F120)*T$3*POWER(W$3,4)</f>
+        <v>236.252630411079</v>
       </c>
       <c r="L120" s="0" t="n">
         <f aca="false">F120*9.81</f>
@@ -26098,11 +26113,11 @@
       </c>
       <c r="N120" s="0" t="n">
         <f aca="false">K120*Q$4</f>
-        <v>2.15449273477898</v>
+        <v>2.59877893452187</v>
       </c>
       <c r="O120" s="0" t="n">
         <f aca="false">IF(K120=0,0,L120/K120)</f>
-        <v>0.000113593125495086</v>
+        <v>0.0103590619572853</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26137,8 +26152,8 @@
         <v>859.4</v>
       </c>
       <c r="K121" s="0" t="n">
-        <f aca="false">B121*B121*SIGN(F121)*T$3*POWER(W$3,4)</f>
-        <v>24640.2476143514</v>
+        <f aca="false">H121*H121*SIGN(F121)*T$3*POWER(W$3,4)</f>
+        <v>270.194613279492</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">F121*9.81</f>
@@ -26150,11 +26165,11 @@
       </c>
       <c r="N121" s="0" t="n">
         <f aca="false">K121*Q$4</f>
-        <v>2.46402476143514</v>
+        <v>2.97214074607441</v>
       </c>
       <c r="O121" s="0" t="n">
         <f aca="false">IF(K121=0,0,L121/K121)</f>
-        <v>0.000115576436461674</v>
+        <v>0.0105399288987829</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26189,8 +26204,8 @@
         <v>906.13</v>
       </c>
       <c r="K122" s="0" t="n">
-        <f aca="false">B122*B122*SIGN(F122)*T$3*POWER(W$3,4)</f>
-        <v>27392.7344571353</v>
+        <f aca="false">H122*H122*SIGN(F122)*T$3*POWER(W$3,4)</f>
+        <v>300.377228717567</v>
       </c>
       <c r="L122" s="0" t="n">
         <f aca="false">F122*9.81</f>
@@ -26202,11 +26217,11 @@
       </c>
       <c r="N122" s="0" t="n">
         <f aca="false">K122*Q$4</f>
-        <v>2.73927344571353</v>
+        <v>3.30414951589324</v>
       </c>
       <c r="O122" s="0" t="n">
         <f aca="false">IF(K122=0,0,L122/K122)</f>
-        <v>0.000115334000121228</v>
+        <v>0.0105178200514346</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26241,8 +26256,8 @@
         <v>961.53</v>
       </c>
       <c r="K123" s="0" t="n">
-        <f aca="false">B123*B123*SIGN(F123)*T$3*POWER(W$3,4)</f>
-        <v>30844.6642273354</v>
+        <f aca="false">H123*H123*SIGN(F123)*T$3*POWER(W$3,4)</f>
+        <v>338.229641725947</v>
       </c>
       <c r="L123" s="0" t="n">
         <f aca="false">F123*9.81</f>
@@ -26254,11 +26269,11 @@
       </c>
       <c r="N123" s="0" t="n">
         <f aca="false">K123*Q$4</f>
-        <v>3.08446642273354</v>
+        <v>3.72052605898541</v>
       </c>
       <c r="O123" s="0" t="n">
         <f aca="false">IF(K123=0,0,L123/K123)</f>
-        <v>0.000113967609272422</v>
+        <v>0.0103932127972636</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26293,8 +26308,8 @@
         <v>1007.38</v>
       </c>
       <c r="K124" s="0" t="n">
-        <f aca="false">B124*B124*SIGN(F124)*T$3*POWER(W$3,4)</f>
-        <v>33856.4187686585</v>
+        <f aca="false">H124*H124*SIGN(F124)*T$3*POWER(W$3,4)</f>
+        <v>371.25527792579</v>
       </c>
       <c r="L124" s="0" t="n">
         <f aca="false">F124*9.81</f>
@@ -26302,15 +26317,15 @@
       </c>
       <c r="M124" s="0" t="n">
         <f aca="false">K124*P$4</f>
-        <v>3.34665225367913</v>
+        <v>3.34665225367916</v>
       </c>
       <c r="N124" s="0" t="n">
         <f aca="false">K124*Q$4</f>
-        <v>3.38564187686585</v>
+        <v>4.08380805718369</v>
       </c>
       <c r="O124" s="0" t="n">
         <f aca="false">IF(K124=0,0,L124/K124)</f>
-        <v>0.000115658098523548</v>
+        <v>0.0105473760251369</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26345,8 +26360,8 @@
         <v>1056.66</v>
       </c>
       <c r="K125" s="0" t="n">
-        <f aca="false">B125*B125*SIGN(F125)*T$3*POWER(W$3,4)</f>
-        <v>37249.8822328698</v>
+        <f aca="false">H125*H125*SIGN(F125)*T$3*POWER(W$3,4)</f>
+        <v>408.466573962302</v>
       </c>
       <c r="L125" s="0" t="n">
         <f aca="false">F125*9.81</f>
@@ -26358,11 +26373,11 @@
       </c>
       <c r="N125" s="0" t="n">
         <f aca="false">K125*Q$4</f>
-        <v>3.72498822328698</v>
+        <v>4.49313231358532</v>
       </c>
       <c r="O125" s="0" t="n">
         <f aca="false">IF(K125=0,0,L125/K125)</f>
-        <v>0.000114678161732027</v>
+        <v>0.0104580112339725</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26397,8 +26412,8 @@
         <v>1104.32</v>
       </c>
       <c r="K126" s="0" t="n">
-        <f aca="false">B126*B126*SIGN(F126)*T$3*POWER(W$3,4)</f>
-        <v>40685.9296989774</v>
+        <f aca="false">H126*H126*SIGN(F126)*T$3*POWER(W$3,4)</f>
+        <v>446.144828290157</v>
       </c>
       <c r="L126" s="0" t="n">
         <f aca="false">F126*9.81</f>
@@ -26406,15 +26421,15 @@
       </c>
       <c r="M126" s="0" t="n">
         <f aca="false">K126*P$4</f>
-        <v>4.02173836667452</v>
+        <v>4.0217383666745</v>
       </c>
       <c r="N126" s="0" t="n">
         <f aca="false">K126*Q$4</f>
-        <v>4.06859296989774</v>
+        <v>4.90759311119173</v>
       </c>
       <c r="O126" s="0" t="n">
         <f aca="false">IF(K126=0,0,L126/K126)</f>
-        <v>0.000113742688320978</v>
+        <v>0.0103727012560825</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26449,8 +26464,8 @@
         <v>1147.5</v>
       </c>
       <c r="K127" s="0" t="n">
-        <f aca="false">B127*B127*SIGN(F127)*T$3*POWER(W$3,4)</f>
-        <v>43929.8537616</v>
+        <f aca="false">H127*H127*SIGN(F127)*T$3*POWER(W$3,4)</f>
+        <v>481.716338013863</v>
       </c>
       <c r="L127" s="0" t="n">
         <f aca="false">F127*9.81</f>
@@ -26462,11 +26477,11 @@
       </c>
       <c r="N127" s="0" t="n">
         <f aca="false">K127*Q$4</f>
-        <v>4.39298537616</v>
+        <v>5.29887971815249</v>
       </c>
       <c r="O127" s="0" t="n">
         <f aca="false">IF(K127=0,0,L127/K127)</f>
-        <v>0.000114459825541128</v>
+        <v>0.0104381001863701</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26501,8 +26516,8 @@
         <v>1194.61</v>
       </c>
       <c r="K128" s="0" t="n">
-        <f aca="false">B128*B128*SIGN(F128)*T$3*POWER(W$3,4)</f>
-        <v>47610.9295725374</v>
+        <f aca="false">H128*H128*SIGN(F128)*T$3*POWER(W$3,4)</f>
+        <v>522.081470327285</v>
       </c>
       <c r="L128" s="0" t="n">
         <f aca="false">F128*9.81</f>
@@ -26510,15 +26525,15 @@
       </c>
       <c r="M128" s="0" t="n">
         <f aca="false">K128*P$4</f>
-        <v>4.7062634073156</v>
+        <v>4.70626340731562</v>
       </c>
       <c r="N128" s="0" t="n">
         <f aca="false">K128*Q$4</f>
-        <v>4.76109295725374</v>
+        <v>5.74289617360014</v>
       </c>
       <c r="O128" s="0" t="n">
         <f aca="false">IF(K128=0,0,L128/K128)</f>
-        <v>0.000114956317777022</v>
+        <v>0.010483377519928</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26553,8 +26568,8 @@
         <v>1237.07</v>
       </c>
       <c r="K129" s="0" t="n">
-        <f aca="false">B129*B129*SIGN(F129)*T$3*POWER(W$3,4)</f>
-        <v>51055.5453128583</v>
+        <f aca="false">H129*H129*SIGN(F129)*T$3*POWER(W$3,4)</f>
+        <v>559.853680753866</v>
       </c>
       <c r="L129" s="0" t="n">
         <f aca="false">F129*9.81</f>
@@ -26562,15 +26577,15 @@
       </c>
       <c r="M129" s="0" t="n">
         <f aca="false">K129*P$4</f>
-        <v>5.04675810373268</v>
+        <v>5.04675810373265</v>
       </c>
       <c r="N129" s="0" t="n">
         <f aca="false">K129*Q$4</f>
-        <v>5.10555453128583</v>
+        <v>6.15839048829253</v>
       </c>
       <c r="O129" s="0" t="n">
         <f aca="false">IF(K129=0,0,L129/K129)</f>
-        <v>0.000115915927747608</v>
+        <v>0.0105708886179528</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26605,8 +26620,8 @@
         <v>1278.89</v>
       </c>
       <c r="K130" s="0" t="n">
-        <f aca="false">B130*B130*SIGN(F130)*T$3*POWER(W$3,4)</f>
-        <v>54565.8283046155</v>
+        <f aca="false">H130*H130*SIGN(F130)*T$3*POWER(W$3,4)</f>
+        <v>598.345970697697</v>
       </c>
       <c r="L130" s="0" t="n">
         <f aca="false">F130*9.81</f>
@@ -26614,15 +26629,15 @@
       </c>
       <c r="M130" s="0" t="n">
         <f aca="false">K130*P$4</f>
-        <v>5.39374390177847</v>
+        <v>5.39374390177844</v>
       </c>
       <c r="N130" s="0" t="n">
         <f aca="false">K130*Q$4</f>
-        <v>5.45658283046155</v>
+        <v>6.58180567767466</v>
       </c>
       <c r="O130" s="0" t="n">
         <f aca="false">IF(K130=0,0,L130/K130)</f>
-        <v>0.000114982766653417</v>
+        <v>0.0104857895105136</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26657,8 +26672,8 @@
         <v>1319.08</v>
       </c>
       <c r="K131" s="0" t="n">
-        <f aca="false">B131*B131*SIGN(F131)*T$3*POWER(W$3,4)</f>
-        <v>58049.253647077</v>
+        <f aca="false">H131*H131*SIGN(F131)*T$3*POWER(W$3,4)</f>
+        <v>636.54375093211</v>
       </c>
       <c r="L131" s="0" t="n">
         <f aca="false">F131*9.81</f>
@@ -26666,15 +26681,15 @@
       </c>
       <c r="M131" s="0" t="n">
         <f aca="false">K131*P$4</f>
-        <v>5.73807486461686</v>
+        <v>5.73807486461688</v>
       </c>
       <c r="N131" s="0" t="n">
         <f aca="false">K131*Q$4</f>
-        <v>5.8049253647077</v>
+        <v>7.00198126025321</v>
       </c>
       <c r="O131" s="0" t="n">
         <f aca="false">IF(K131=0,0,L131/K131)</f>
-        <v>0.00011498177600318</v>
+        <v>0.0104856991687157</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26709,8 +26724,8 @@
         <v>1359.21</v>
       </c>
       <c r="K132" s="0" t="n">
-        <f aca="false">B132*B132*SIGN(F132)*T$3*POWER(W$3,4)</f>
-        <v>61635.0129071452</v>
+        <f aca="false">H132*H132*SIGN(F132)*T$3*POWER(W$3,4)</f>
+        <v>675.863681955171</v>
       </c>
       <c r="L132" s="0" t="n">
         <f aca="false">F132*9.81</f>
@@ -26722,11 +26737,11 @@
       </c>
       <c r="N132" s="0" t="n">
         <f aca="false">K132*Q$4</f>
-        <v>6.16350129071452</v>
+        <v>7.43450050150688</v>
       </c>
       <c r="O132" s="0" t="n">
         <f aca="false">IF(K132=0,0,L132/K132)</f>
-        <v>0.000114789992296405</v>
+        <v>0.0104682095601481</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26761,8 +26776,8 @@
         <v>1408.65</v>
       </c>
       <c r="K133" s="0" t="n">
-        <f aca="false">B133*B133*SIGN(F133)*T$3*POWER(W$3,4)</f>
-        <v>66200.3931041338</v>
+        <f aca="false">H133*H133*SIGN(F133)*T$3*POWER(W$3,4)</f>
+        <v>725.925725003825</v>
       </c>
       <c r="L133" s="0" t="n">
         <f aca="false">F133*9.81</f>
@@ -26770,15 +26785,15 @@
       </c>
       <c r="M133" s="0" t="n">
         <f aca="false">K133*P$4</f>
-        <v>6.54380182057195</v>
+        <v>6.54380182057194</v>
       </c>
       <c r="N133" s="0" t="n">
         <f aca="false">K133*Q$4</f>
-        <v>6.62003931041338</v>
+        <v>7.98518297504208</v>
       </c>
       <c r="O133" s="0" t="n">
         <f aca="false">IF(K133=0,0,L133/K133)</f>
-        <v>0.000114939667310297</v>
+        <v>0.0104818590898675</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26813,8 +26828,8 @@
         <v>1443.5</v>
       </c>
       <c r="K134" s="0" t="n">
-        <f aca="false">B134*B134*SIGN(F134)*T$3*POWER(W$3,4)</f>
-        <v>69516.507574336</v>
+        <f aca="false">H134*H134*SIGN(F134)*T$3*POWER(W$3,4)</f>
+        <v>762.288844437125</v>
       </c>
       <c r="L134" s="0" t="n">
         <f aca="false">F134*9.81</f>
@@ -26822,15 +26837,15 @@
       </c>
       <c r="M134" s="0" t="n">
         <f aca="false">K134*P$4</f>
-        <v>6.8715943742083</v>
+        <v>6.87159437420827</v>
       </c>
       <c r="N134" s="0" t="n">
         <f aca="false">K134*Q$4</f>
-        <v>6.9516507574336</v>
+        <v>8.38517728880837</v>
       </c>
       <c r="O134" s="0" t="n">
         <f aca="false">IF(K134=0,0,L134/K134)</f>
-        <v>0.000115217634134384</v>
+        <v>0.0105072081199276</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26865,8 +26880,8 @@
         <v>1479.63</v>
       </c>
       <c r="K135" s="0" t="n">
-        <f aca="false">B135*B135*SIGN(F135)*T$3*POWER(W$3,4)</f>
-        <v>73039.9766225267</v>
+        <f aca="false">H135*H135*SIGN(F135)*T$3*POWER(W$3,4)</f>
+        <v>800.925727141329</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false">F135*9.81</f>
@@ -26878,11 +26893,11 @@
       </c>
       <c r="N135" s="0" t="n">
         <f aca="false">K135*Q$4</f>
-        <v>7.30399766225267</v>
+        <v>8.81018299855462</v>
       </c>
       <c r="O135" s="0" t="n">
         <f aca="false">IF(K135=0,0,L135/K135)</f>
-        <v>0.00011697013653979</v>
+        <v>0.0106670266029455</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26917,8 +26932,8 @@
         <v>1516.03</v>
       </c>
       <c r="K136" s="0" t="n">
-        <f aca="false">B136*B136*SIGN(F136)*T$3*POWER(W$3,4)</f>
-        <v>76677.8558186109</v>
+        <f aca="false">H136*H136*SIGN(F136)*T$3*POWER(W$3,4)</f>
+        <v>840.817183506851</v>
       </c>
       <c r="L136" s="0" t="n">
         <f aca="false">F136*9.81</f>
@@ -26926,15 +26941,15 @@
       </c>
       <c r="M136" s="0" t="n">
         <f aca="false">K136*P$4</f>
-        <v>7.57948206914873</v>
+        <v>7.57948206914876</v>
       </c>
       <c r="N136" s="0" t="n">
         <f aca="false">K136*Q$4</f>
-        <v>7.66778558186109</v>
+        <v>9.24898901857536</v>
       </c>
       <c r="O136" s="0" t="n">
         <f aca="false">IF(K136=0,0,L136/K136)</f>
-        <v>0.000116063170324593</v>
+        <v>0.01058431632294</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26969,8 +26984,8 @@
         <v>1548.64</v>
       </c>
       <c r="K137" s="0" t="n">
-        <f aca="false">B137*B137*SIGN(F137)*T$3*POWER(W$3,4)</f>
-        <v>80012.0346126647</v>
+        <f aca="false">H137*H137*SIGN(F137)*T$3*POWER(W$3,4)</f>
+        <v>877.378388733513</v>
       </c>
       <c r="L137" s="0" t="n">
         <f aca="false">F137*9.81</f>
@@ -26978,15 +26993,15 @@
       </c>
       <c r="M137" s="0" t="n">
         <f aca="false">K137*P$4</f>
-        <v>7.90906025199006</v>
+        <v>7.90906025199009</v>
       </c>
       <c r="N137" s="0" t="n">
         <f aca="false">K137*Q$4</f>
-        <v>8.00120346126647</v>
+        <v>9.65116227606864</v>
       </c>
       <c r="O137" s="0" t="n">
         <f aca="false">IF(K137=0,0,L137/K137)</f>
-        <v>0.000116231907635154</v>
+        <v>0.0105997042282115</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27021,8 +27036,8 @@
         <v>1583.02</v>
       </c>
       <c r="K138" s="0" t="n">
-        <f aca="false">B138*B138*SIGN(F138)*T$3*POWER(W$3,4)</f>
-        <v>83604.0223607932</v>
+        <f aca="false">H138*H138*SIGN(F138)*T$3*POWER(W$3,4)</f>
+        <v>916.76661874241</v>
       </c>
       <c r="L138" s="0" t="n">
         <f aca="false">F138*9.81</f>
@@ -27030,15 +27045,15 @@
       </c>
       <c r="M138" s="0" t="n">
         <f aca="false">K138*P$4</f>
-        <v>8.26412243309676</v>
+        <v>8.2641224330968</v>
       </c>
       <c r="N138" s="0" t="n">
         <f aca="false">K138*Q$4</f>
-        <v>8.36040223607932</v>
+        <v>10.0844328061665</v>
       </c>
       <c r="O138" s="0" t="n">
         <f aca="false">IF(K138=0,0,L138/K138)</f>
-        <v>0.000116560482302464</v>
+        <v>0.0106296684124121</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27073,8 +27088,8 @@
         <v>1628.86</v>
       </c>
       <c r="K139" s="0" t="n">
-        <f aca="false">B139*B139*SIGN(F139)*T$3*POWER(W$3,4)</f>
-        <v>88516.0215809975</v>
+        <f aca="false">H139*H139*SIGN(F139)*T$3*POWER(W$3,4)</f>
+        <v>970.629540515942</v>
       </c>
       <c r="L139" s="0" t="n">
         <f aca="false">F139*9.81</f>
@@ -27082,15 +27097,15 @@
       </c>
       <c r="M139" s="0" t="n">
         <f aca="false">K139*P$4</f>
-        <v>8.7496656139244</v>
+        <v>8.74966561392443</v>
       </c>
       <c r="N139" s="0" t="n">
         <f aca="false">K139*Q$4</f>
-        <v>8.85160215809975</v>
+        <v>10.6769249456754</v>
       </c>
       <c r="O139" s="0" t="n">
         <f aca="false">IF(K139=0,0,L139/K139)</f>
-        <v>0.000114616556013155</v>
+        <v>0.0104523931346734</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27125,8 +27140,8 @@
         <v>1668.42</v>
       </c>
       <c r="K140" s="0" t="n">
-        <f aca="false">B140*B140*SIGN(F140)*T$3*POWER(W$3,4)</f>
-        <v>92867.797056549</v>
+        <f aca="false">H140*H140*SIGN(F140)*T$3*POWER(W$3,4)</f>
+        <v>1018.34928384396</v>
       </c>
       <c r="L140" s="0" t="n">
         <f aca="false">F140*9.81</f>
@@ -27138,11 +27153,11 @@
       </c>
       <c r="N140" s="0" t="n">
         <f aca="false">K140*Q$4</f>
-        <v>9.2867797056549</v>
+        <v>11.2018421222836</v>
       </c>
       <c r="O140" s="0" t="n">
         <f aca="false">IF(K140=0,0,L140/K140)</f>
-        <v>0.000115953701279712</v>
+        <v>0.0105743333542227</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27177,8 +27192,8 @@
         <v>1699.09</v>
       </c>
       <c r="K141" s="0" t="n">
-        <f aca="false">B141*B141*SIGN(F141)*T$3*POWER(W$3,4)</f>
-        <v>96313.4936946739</v>
+        <f aca="false">H141*H141*SIGN(F141)*T$3*POWER(W$3,4)</f>
+        <v>1056.13334694219</v>
       </c>
       <c r="L141" s="0" t="n">
         <f aca="false">F141*9.81</f>
@@ -27186,15 +27201,15 @@
       </c>
       <c r="M141" s="0" t="n">
         <f aca="false">K141*P$4</f>
-        <v>9.52043312482228</v>
+        <v>9.52043312482232</v>
       </c>
       <c r="N141" s="0" t="n">
         <f aca="false">K141*Q$4</f>
-        <v>9.63134936946739</v>
+        <v>11.6174668163641</v>
       </c>
       <c r="O141" s="0" t="n">
         <f aca="false">IF(K141=0,0,L141/K141)</f>
-        <v>0.000116425415798411</v>
+        <v>0.0106173510976297</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27229,8 +27244,8 @@
         <v>1739.95</v>
       </c>
       <c r="K142" s="0" t="n">
-        <f aca="false">B142*B142*SIGN(F142)*T$3*POWER(W$3,4)</f>
-        <v>101001.519122381</v>
+        <f aca="false">H142*H142*SIGN(F142)*T$3*POWER(W$3,4)</f>
+        <v>1107.54026611398</v>
       </c>
       <c r="L142" s="0" t="n">
         <f aca="false">F142*9.81</f>
@@ -27238,15 +27253,15 @@
       </c>
       <c r="M142" s="0" t="n">
         <f aca="false">K142*P$4</f>
-        <v>9.98383685839928</v>
+        <v>9.98383685839931</v>
       </c>
       <c r="N142" s="0" t="n">
         <f aca="false">K142*Q$4</f>
-        <v>10.1001519122381</v>
+        <v>12.1829429272538</v>
       </c>
       <c r="O142" s="0" t="n">
         <f aca="false">IF(K142=0,0,L142/K142)</f>
-        <v>0.000114986537114633</v>
+        <v>0.0104861333556289</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27281,8 +27296,8 @@
         <v>1766.18</v>
       </c>
       <c r="K143" s="0" t="n">
-        <f aca="false">B143*B143*SIGN(F143)*T$3*POWER(W$3,4)</f>
-        <v>104069.697991004</v>
+        <f aca="false">H143*H143*SIGN(F143)*T$3*POWER(W$3,4)</f>
+        <v>1141.18462780444</v>
       </c>
       <c r="L143" s="0" t="n">
         <f aca="false">F143*9.81</f>
@@ -27294,11 +27309,11 @@
       </c>
       <c r="N143" s="0" t="n">
         <f aca="false">K143*Q$4</f>
-        <v>10.4069697991004</v>
+        <v>12.5530309058489</v>
       </c>
       <c r="O143" s="0" t="n">
         <f aca="false">IF(K143=0,0,L143/K143)</f>
-        <v>0.000116727382361099</v>
+        <v>0.0106448887705151</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27333,8 +27348,8 @@
         <v>1802.32</v>
       </c>
       <c r="K144" s="0" t="n">
-        <f aca="false">B144*B144*SIGN(F144)*T$3*POWER(W$3,4)</f>
-        <v>108372.270702528</v>
+        <f aca="false">H144*H144*SIGN(F144)*T$3*POWER(W$3,4)</f>
+        <v>1188.36483427364</v>
       </c>
       <c r="L144" s="0" t="n">
         <f aca="false">F144*9.81</f>
@@ -27346,11 +27361,11 @@
       </c>
       <c r="N144" s="0" t="n">
         <f aca="false">K144*Q$4</f>
-        <v>10.8372270702528</v>
+        <v>13.07201317701</v>
       </c>
       <c r="O144" s="0" t="n">
         <f aca="false">IF(K144=0,0,L144/K144)</f>
-        <v>0.000115788473610965</v>
+        <v>0.0105592655087861</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27385,8 +27400,8 @@
         <v>1835.1</v>
       </c>
       <c r="K145" s="0" t="n">
-        <f aca="false">B145*B145*SIGN(F145)*T$3*POWER(W$3,4)</f>
-        <v>112350.197333814</v>
+        <f aca="false">H145*H145*SIGN(F145)*T$3*POWER(W$3,4)</f>
+        <v>1231.98510808811</v>
       </c>
       <c r="L145" s="0" t="n">
         <f aca="false">F145*9.81</f>
@@ -27398,11 +27413,11 @@
       </c>
       <c r="N145" s="0" t="n">
         <f aca="false">K145*Q$4</f>
-        <v>11.2350197333814</v>
+        <v>13.5518361889692</v>
       </c>
       <c r="O145" s="0" t="n">
         <f aca="false">IF(K145=0,0,L145/K145)</f>
-        <v>0.000116045465366317</v>
+        <v>0.0105827017291085</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27437,8 +27452,8 @@
         <v>1865.47</v>
       </c>
       <c r="K146" s="0" t="n">
-        <f aca="false">B146*B146*SIGN(F146)*T$3*POWER(W$3,4)</f>
-        <v>116099.64921805</v>
+        <f aca="false">H146*H146*SIGN(F146)*T$3*POWER(W$3,4)</f>
+        <v>1273.10002372237</v>
       </c>
       <c r="L146" s="0" t="n">
         <f aca="false">F146*9.81</f>
@@ -27446,15 +27461,15 @@
       </c>
       <c r="M146" s="0" t="n">
         <f aca="false">K146*P$4</f>
-        <v>11.4762626065645</v>
+        <v>11.4762626065646</v>
       </c>
       <c r="N146" s="0" t="n">
         <f aca="false">K146*Q$4</f>
-        <v>11.609964921805</v>
+        <v>14.0041002609461</v>
       </c>
       <c r="O146" s="0" t="n">
         <f aca="false">IF(K146=0,0,L146/K146)</f>
-        <v>0.000117280257975862</v>
+        <v>0.0106953079549775</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27489,8 +27504,8 @@
         <v>1900.85</v>
       </c>
       <c r="K147" s="0" t="n">
-        <f aca="false">B147*B147*SIGN(F147)*T$3*POWER(W$3,4)</f>
-        <v>120545.239292652</v>
+        <f aca="false">H147*H147*SIGN(F147)*T$3*POWER(W$3,4)</f>
+        <v>1321.8484985675</v>
       </c>
       <c r="L147" s="0" t="n">
         <f aca="false">F147*9.81</f>
@@ -27502,11 +27517,11 @@
       </c>
       <c r="N147" s="0" t="n">
         <f aca="false">K147*Q$4</f>
-        <v>12.0545239292652</v>
+        <v>14.5403334842426</v>
       </c>
       <c r="O147" s="0" t="n">
         <f aca="false">IF(K147=0,0,L147/K147)</f>
-        <v>0.000117015553838299</v>
+        <v>0.0106711684082453</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27541,8 +27556,8 @@
         <v>1929.78</v>
       </c>
       <c r="K148" s="0" t="n">
-        <f aca="false">B148*B148*SIGN(F148)*T$3*POWER(W$3,4)</f>
-        <v>124242.43983727</v>
+        <f aca="false">H148*H148*SIGN(F148)*T$3*POWER(W$3,4)</f>
+        <v>1362.39044794256</v>
       </c>
       <c r="L148" s="0" t="n">
         <f aca="false">F148*9.81</f>
@@ -27554,11 +27569,11 @@
       </c>
       <c r="N148" s="0" t="n">
         <f aca="false">K148*Q$4</f>
-        <v>12.424243983727</v>
+        <v>14.9862949273682</v>
       </c>
       <c r="O148" s="0" t="n">
         <f aca="false">IF(K148=0,0,L148/K148)</f>
-        <v>0.000117114906222528</v>
+        <v>0.0106802287937162</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27593,8 +27608,8 @@
         <v>1960.82</v>
       </c>
       <c r="K149" s="0" t="n">
-        <f aca="false">B149*B149*SIGN(F149)*T$3*POWER(W$3,4)</f>
-        <v>128271.397132862</v>
+        <f aca="false">H149*H149*SIGN(F149)*T$3*POWER(W$3,4)</f>
+        <v>1406.5703026031</v>
       </c>
       <c r="L149" s="0" t="n">
         <f aca="false">F149*9.81</f>
@@ -27602,15 +27617,15 @@
       </c>
       <c r="M149" s="0" t="n">
         <f aca="false">K149*P$4</f>
-        <v>12.6794202077467</v>
+        <v>12.6794202077466</v>
       </c>
       <c r="N149" s="0" t="n">
         <f aca="false">K149*Q$4</f>
-        <v>12.8271397132862</v>
+        <v>15.4722733286341</v>
       </c>
       <c r="O149" s="0" t="n">
         <f aca="false">IF(K149=0,0,L149/K149)</f>
-        <v>0.000117599172769402</v>
+        <v>0.0107243912123577</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27645,8 +27660,8 @@
         <v>1994.08</v>
       </c>
       <c r="K150" s="0" t="n">
-        <f aca="false">B150*B150*SIGN(F150)*T$3*POWER(W$3,4)</f>
-        <v>132659.856896485</v>
+        <f aca="false">H150*H150*SIGN(F150)*T$3*POWER(W$3,4)</f>
+        <v>1454.69231043692</v>
       </c>
       <c r="L150" s="0" t="n">
         <f aca="false">F150*9.81</f>
@@ -27654,15 +27669,15 @@
       </c>
       <c r="M150" s="0" t="n">
         <f aca="false">K150*P$4</f>
-        <v>13.1132123597892</v>
+        <v>13.1132123597893</v>
       </c>
       <c r="N150" s="0" t="n">
         <f aca="false">K150*Q$4</f>
-        <v>13.2659856896485</v>
+        <v>16.0016154148061</v>
       </c>
       <c r="O150" s="0" t="n">
         <f aca="false">IF(K150=0,0,L150/K150)</f>
-        <v>0.000117398598825208</v>
+        <v>0.0107060999829732</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27697,8 +27712,8 @@
         <v>2030.99</v>
       </c>
       <c r="K151" s="0" t="n">
-        <f aca="false">B151*B151*SIGN(F151)*T$3*POWER(W$3,4)</f>
-        <v>137616.319706883</v>
+        <f aca="false">H151*H151*SIGN(F151)*T$3*POWER(W$3,4)</f>
+        <v>1509.04280127815</v>
       </c>
       <c r="L151" s="0" t="n">
         <f aca="false">F151*9.81</f>
@@ -27710,11 +27725,11 @@
       </c>
       <c r="N151" s="0" t="n">
         <f aca="false">K151*Q$4</f>
-        <v>13.7616319706883</v>
+        <v>16.5994708140597</v>
       </c>
       <c r="O151" s="0" t="n">
         <f aca="false">IF(K151=0,0,L151/K151)</f>
-        <v>0.000117697120568978</v>
+        <v>0.0107333235075116</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27749,8 +27764,8 @@
         <v>2071.37</v>
       </c>
       <c r="K152" s="0" t="n">
-        <f aca="false">B152*B152*SIGN(F152)*T$3*POWER(W$3,4)</f>
-        <v>143142.874149705</v>
+        <f aca="false">H152*H152*SIGN(F152)*T$3*POWER(W$3,4)</f>
+        <v>1569.64467768043</v>
       </c>
       <c r="L152" s="0" t="n">
         <f aca="false">F152*9.81</f>
@@ -27762,11 +27777,11 @@
       </c>
       <c r="N152" s="0" t="n">
         <f aca="false">K152*Q$4</f>
-        <v>14.3142874149705</v>
+        <v>17.2660914544847</v>
       </c>
       <c r="O152" s="0" t="n">
         <f aca="false">IF(K152=0,0,L152/K152)</f>
-        <v>0.000115950731380743</v>
+        <v>0.0105740625159366</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27801,8 +27816,8 @@
         <v>2106.28</v>
       </c>
       <c r="K153" s="0" t="n">
-        <f aca="false">B153*B153*SIGN(F153)*T$3*POWER(W$3,4)</f>
-        <v>148008.472665018</v>
+        <f aca="false">H153*H153*SIGN(F153)*T$3*POWER(W$3,4)</f>
+        <v>1622.99878879954</v>
       </c>
       <c r="L153" s="0" t="n">
         <f aca="false">F153*9.81</f>
@@ -27810,15 +27825,15 @@
       </c>
       <c r="M153" s="0" t="n">
         <f aca="false">K153*P$4</f>
-        <v>14.630398211713</v>
+        <v>14.6303982117131</v>
       </c>
       <c r="N153" s="0" t="n">
         <f aca="false">K153*Q$4</f>
-        <v>14.8008472665018</v>
+        <v>17.8529866767949</v>
       </c>
       <c r="O153" s="0" t="n">
         <f aca="false">IF(K153=0,0,L153/K153)</f>
-        <v>0.000116648603061226</v>
+        <v>0.0106377045360398</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27853,8 +27868,8 @@
         <v>2128.7</v>
       </c>
       <c r="K154" s="0" t="n">
-        <f aca="false">B154*B154*SIGN(F154)*T$3*POWER(W$3,4)</f>
-        <v>151176.152945789</v>
+        <f aca="false">H154*H154*SIGN(F154)*T$3*POWER(W$3,4)</f>
+        <v>1657.73424121266</v>
       </c>
       <c r="L154" s="0" t="n">
         <f aca="false">F154*9.81</f>
@@ -27862,15 +27877,15 @@
       </c>
       <c r="M154" s="0" t="n">
         <f aca="false">K154*P$4</f>
-        <v>14.9435182857237</v>
+        <v>14.9435182857236</v>
       </c>
       <c r="N154" s="0" t="n">
         <f aca="false">K154*Q$4</f>
-        <v>15.1176152945789</v>
+        <v>18.2350766533393</v>
       </c>
       <c r="O154" s="0" t="n">
         <f aca="false">IF(K154=0,0,L154/K154)</f>
-        <v>0.000118325175511077</v>
+        <v>0.0107905986289543</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27905,8 +27920,8 @@
         <v>2160.39</v>
       </c>
       <c r="K155" s="0" t="n">
-        <f aca="false">B155*B155*SIGN(F155)*T$3*POWER(W$3,4)</f>
-        <v>155710.782014112</v>
+        <f aca="false">H155*H155*SIGN(F155)*T$3*POWER(W$3,4)</f>
+        <v>1707.4590802913</v>
       </c>
       <c r="L155" s="0" t="n">
         <f aca="false">F155*9.81</f>
@@ -27918,11 +27933,11 @@
       </c>
       <c r="N155" s="0" t="n">
         <f aca="false">K155*Q$4</f>
-        <v>15.5710782014112</v>
+        <v>18.7820498832043</v>
       </c>
       <c r="O155" s="0" t="n">
         <f aca="false">IF(K155=0,0,L155/K155)</f>
-        <v>0.000118308527479686</v>
+        <v>0.0107890804209827</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27957,8 +27972,8 @@
         <v>2189.6</v>
       </c>
       <c r="K156" s="0" t="n">
-        <f aca="false">B156*B156*SIGN(F156)*T$3*POWER(W$3,4)</f>
-        <v>159949.887119196</v>
+        <f aca="false">H156*H156*SIGN(F156)*T$3*POWER(W$3,4)</f>
+        <v>1753.94332762703</v>
       </c>
       <c r="L156" s="0" t="n">
         <f aca="false">F156*9.81</f>
@@ -27970,11 +27985,11 @@
       </c>
       <c r="N156" s="0" t="n">
         <f aca="false">K156*Q$4</f>
-        <v>15.9949887119196</v>
+        <v>19.2933766038974</v>
       </c>
       <c r="O156" s="0" t="n">
         <f aca="false">IF(K156=0,0,L156/K156)</f>
-        <v>0.000118511379886588</v>
+        <v>0.0108075794335077</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28009,8 +28024,8 @@
         <v>2219.18</v>
       </c>
       <c r="K157" s="0" t="n">
-        <f aca="false">B157*B157*SIGN(F157)*T$3*POWER(W$3,4)</f>
-        <v>164300.705620746</v>
+        <f aca="false">H157*H157*SIGN(F157)*T$3*POWER(W$3,4)</f>
+        <v>1801.65257717982</v>
       </c>
       <c r="L157" s="0" t="n">
         <f aca="false">F157*9.81</f>
@@ -28018,15 +28033,15 @@
       </c>
       <c r="M157" s="0" t="n">
         <f aca="false">K157*P$4</f>
-        <v>16.2408590968799</v>
+        <v>16.2408590968798</v>
       </c>
       <c r="N157" s="0" t="n">
         <f aca="false">K157*Q$4</f>
-        <v>16.4300705620746</v>
+        <v>19.8181783489781</v>
       </c>
       <c r="O157" s="0" t="n">
         <f aca="false">IF(K157=0,0,L157/K157)</f>
-        <v>0.000118893875951397</v>
+        <v>0.0108424609495898</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28061,8 +28076,8 @@
         <v>2243.76</v>
       </c>
       <c r="K158" s="0" t="n">
-        <f aca="false">B158*B158*SIGN(F158)*T$3*POWER(W$3,4)</f>
-        <v>167960.505140984</v>
+        <f aca="false">H158*H158*SIGN(F158)*T$3*POWER(W$3,4)</f>
+        <v>1841.78440261957</v>
       </c>
       <c r="L158" s="0" t="n">
         <f aca="false">F158*9.81</f>
@@ -28074,11 +28089,11 @@
       </c>
       <c r="N158" s="0" t="n">
         <f aca="false">K158*Q$4</f>
-        <v>16.7960505140984</v>
+        <v>20.2596284288153</v>
       </c>
       <c r="O158" s="0" t="n">
         <f aca="false">IF(K158=0,0,L158/K158)</f>
-        <v>0.000119482352106258</v>
+        <v>0.0108961267055236</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28113,8 +28128,8 @@
         <v>2266.35</v>
       </c>
       <c r="K159" s="0" t="n">
-        <f aca="false">B159*B159*SIGN(F159)*T$3*POWER(W$3,4)</f>
-        <v>171359.556559494</v>
+        <f aca="false">H159*H159*SIGN(F159)*T$3*POWER(W$3,4)</f>
+        <v>1879.05697381753</v>
       </c>
       <c r="L159" s="0" t="n">
         <f aca="false">F159*9.81</f>
@@ -28126,11 +28141,11 @@
       </c>
       <c r="N159" s="0" t="n">
         <f aca="false">K159*Q$4</f>
-        <v>17.1359556559494</v>
+        <v>20.6696267119928</v>
       </c>
       <c r="O159" s="0" t="n">
         <f aca="false">IF(K159=0,0,L159/K159)</f>
-        <v>0.000121526759357421</v>
+        <v>0.0110825652887427</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28165,8 +28180,8 @@
         <v>2305.35</v>
       </c>
       <c r="K160" s="0" t="n">
-        <f aca="false">B160*B160*SIGN(F160)*T$3*POWER(W$3,4)</f>
-        <v>177307.909100243</v>
+        <f aca="false">H160*H160*SIGN(F160)*T$3*POWER(W$3,4)</f>
+        <v>1944.28411112363</v>
       </c>
       <c r="L160" s="0" t="n">
         <f aca="false">F160*9.81</f>
@@ -28178,11 +28193,11 @@
       </c>
       <c r="N160" s="0" t="n">
         <f aca="false">K160*Q$4</f>
-        <v>17.7307909100243</v>
+        <v>21.38712522236</v>
       </c>
       <c r="O160" s="0" t="n">
         <f aca="false">IF(K160=0,0,L160/K160)</f>
-        <v>0.000120461293601543</v>
+        <v>0.010985400731201</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28217,8 +28232,8 @@
         <v>2341.59</v>
       </c>
       <c r="K161" s="0" t="n">
-        <f aca="false">B161*B161*SIGN(F161)*T$3*POWER(W$3,4)</f>
-        <v>182926.269872568</v>
+        <f aca="false">H161*H161*SIGN(F161)*T$3*POWER(W$3,4)</f>
+        <v>2005.89269720209</v>
       </c>
       <c r="L161" s="0" t="n">
         <f aca="false">F161*9.81</f>
@@ -28230,11 +28245,11 @@
       </c>
       <c r="N161" s="0" t="n">
         <f aca="false">K161*Q$4</f>
-        <v>18.2926269872568</v>
+        <v>22.064819669223</v>
       </c>
       <c r="O161" s="0" t="n">
         <f aca="false">IF(K161=0,0,L161/K161)</f>
-        <v>0.000118950747139588</v>
+        <v>0.0108476472859943</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28269,8 +28284,8 @@
         <v>2391.8</v>
       </c>
       <c r="K162" s="0" t="n">
-        <f aca="false">B162*B162*SIGN(F162)*T$3*POWER(W$3,4)</f>
-        <v>190855.241785354</v>
+        <f aca="false">H162*H162*SIGN(F162)*T$3*POWER(W$3,4)</f>
+        <v>2092.83847523198</v>
       </c>
       <c r="L162" s="0" t="n">
         <f aca="false">F162*9.81</f>
@@ -28278,15 +28293,15 @@
       </c>
       <c r="M162" s="0" t="n">
         <f aca="false">K162*P$4</f>
-        <v>18.8657320613813</v>
+        <v>18.8657320613812</v>
       </c>
       <c r="N162" s="0" t="n">
         <f aca="false">K162*Q$4</f>
-        <v>19.0855241785354</v>
+        <v>23.0212232275518</v>
       </c>
       <c r="O162" s="0" t="n">
         <f aca="false">IF(K162=0,0,L162/K162)</f>
-        <v>0.000117039920630119</v>
+        <v>0.0106733905242849</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28321,8 +28336,8 @@
         <v>2415.81</v>
       </c>
       <c r="K163" s="0" t="n">
-        <f aca="false">B163*B163*SIGN(F163)*T$3*POWER(W$3,4)</f>
-        <v>194706.261651689</v>
+        <f aca="false">H163*H163*SIGN(F163)*T$3*POWER(W$3,4)</f>
+        <v>2135.06714272759</v>
       </c>
       <c r="L163" s="0" t="n">
         <f aca="false">F163*9.81</f>
@@ -28334,11 +28349,11 @@
       </c>
       <c r="N163" s="0" t="n">
         <f aca="false">K163*Q$4</f>
-        <v>19.4706261651689</v>
+        <v>23.4857385700035</v>
       </c>
       <c r="O163" s="0" t="n">
         <f aca="false">IF(K163=0,0,L163/K163)</f>
-        <v>0.000119981359519864</v>
+        <v>0.0109416334093155</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28373,8 +28388,8 @@
         <v>2445.98</v>
       </c>
       <c r="K164" s="0" t="n">
-        <f aca="false">B164*B164*SIGN(F164)*T$3*POWER(W$3,4)</f>
-        <v>199599.832443261</v>
+        <f aca="false">H164*H164*SIGN(F164)*T$3*POWER(W$3,4)</f>
+        <v>2188.72798608757</v>
       </c>
       <c r="L164" s="0" t="n">
         <f aca="false">F164*9.81</f>
@@ -28382,15 +28397,15 @@
       </c>
       <c r="M164" s="0" t="n">
         <f aca="false">K164*P$4</f>
-        <v>19.7301207090039</v>
+        <v>19.7301207090038</v>
       </c>
       <c r="N164" s="0" t="n">
         <f aca="false">K164*Q$4</f>
-        <v>19.9599832443261</v>
+        <v>24.0760078469632</v>
       </c>
       <c r="O164" s="0" t="n">
         <f aca="false">IF(K164=0,0,L164/K164)</f>
-        <v>0.000119492049743979</v>
+        <v>0.0108970110762068</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28425,8 +28440,8 @@
         <v>2475.13</v>
       </c>
       <c r="K165" s="0" t="n">
-        <f aca="false">B165*B165*SIGN(F165)*T$3*POWER(W$3,4)</f>
-        <v>204385.648484077</v>
+        <f aca="false">H165*H165*SIGN(F165)*T$3*POWER(W$3,4)</f>
+        <v>2241.20723607782</v>
       </c>
       <c r="L165" s="0" t="n">
         <f aca="false">F165*9.81</f>
@@ -28434,15 +28449,15 @@
       </c>
       <c r="M165" s="0" t="n">
         <f aca="false">K165*P$4</f>
-        <v>20.2031908865714</v>
+        <v>20.2031908865715</v>
       </c>
       <c r="N165" s="0" t="n">
         <f aca="false">K165*Q$4</f>
-        <v>20.4385648484077</v>
+        <v>24.653279596856</v>
       </c>
       <c r="O165" s="0" t="n">
         <f aca="false">IF(K165=0,0,L165/K165)</f>
-        <v>0.000120830613201905</v>
+        <v>0.0110190806269298</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28477,8 +28492,8 @@
         <v>2497.91</v>
       </c>
       <c r="K166" s="0" t="n">
-        <f aca="false">B166*B166*SIGN(F166)*T$3*POWER(W$3,4)</f>
-        <v>208165.110990121</v>
+        <f aca="false">H166*H166*SIGN(F166)*T$3*POWER(W$3,4)</f>
+        <v>2282.65123559469</v>
       </c>
       <c r="L166" s="0" t="n">
         <f aca="false">F166*9.81</f>
@@ -28486,15 +28501,15 @@
       </c>
       <c r="M166" s="0" t="n">
         <f aca="false">K166*P$4</f>
-        <v>20.5767846443748</v>
+        <v>20.5767846443747</v>
       </c>
       <c r="N166" s="0" t="n">
         <f aca="false">K166*Q$4</f>
-        <v>20.8165110990121</v>
+        <v>25.1091635915416</v>
       </c>
       <c r="O166" s="0" t="n">
         <f aca="false">IF(K166=0,0,L166/K166)</f>
-        <v>0.000121415682932571</v>
+        <v>0.0110724357359022</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28529,8 +28544,8 @@
         <v>2537.88</v>
       </c>
       <c r="K167" s="0" t="n">
-        <f aca="false">B167*B167*SIGN(F167)*T$3*POWER(W$3,4)</f>
-        <v>214880.267333914</v>
+        <f aca="false">H167*H167*SIGN(F167)*T$3*POWER(W$3,4)</f>
+        <v>2356.28682156039</v>
       </c>
       <c r="L167" s="0" t="n">
         <f aca="false">F167*9.81</f>
@@ -28542,11 +28557,11 @@
       </c>
       <c r="N167" s="0" t="n">
         <f aca="false">K167*Q$4</f>
-        <v>21.4880267333914</v>
+        <v>25.9191550371642</v>
       </c>
       <c r="O167" s="0" t="n">
         <f aca="false">IF(K167=0,0,L167/K167)</f>
-        <v>0.000121141716803382</v>
+        <v>0.0110474515469902</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28581,8 +28596,8 @@
         <v>2583.51</v>
       </c>
       <c r="K168" s="0" t="n">
-        <f aca="false">B168*B168*SIGN(F168)*T$3*POWER(W$3,4)</f>
-        <v>222676.641738586</v>
+        <f aca="false">H168*H168*SIGN(F168)*T$3*POWER(W$3,4)</f>
+        <v>2441.77859097043</v>
       </c>
       <c r="L168" s="0" t="n">
         <f aca="false">F168*9.81</f>
@@ -28594,11 +28609,11 @@
       </c>
       <c r="N168" s="0" t="n">
         <f aca="false">K168*Q$4</f>
-        <v>22.2676641738586</v>
+        <v>26.8595645006747</v>
       </c>
       <c r="O168" s="0" t="n">
         <f aca="false">IF(K168=0,0,L168/K168)</f>
-        <v>0.000120297394739083</v>
+        <v>0.0109704540655154</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28633,8 +28648,8 @@
         <v>2608.66</v>
       </c>
       <c r="K169" s="0" t="n">
-        <f aca="false">B169*B169*SIGN(F169)*T$3*POWER(W$3,4)</f>
-        <v>227033.177286038</v>
+        <f aca="false">H169*H169*SIGN(F169)*T$3*POWER(W$3,4)</f>
+        <v>2489.55053124902</v>
       </c>
       <c r="L169" s="0" t="n">
         <f aca="false">F169*9.81</f>
@@ -28646,11 +28661,11 @@
       </c>
       <c r="N169" s="0" t="n">
         <f aca="false">K169*Q$4</f>
-        <v>22.7033177286038</v>
+        <v>27.3850558437392</v>
       </c>
       <c r="O169" s="0" t="n">
         <f aca="false">IF(K169=0,0,L169/K169)</f>
-        <v>0.000119164980400703</v>
+        <v>0.0108671841691949</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28685,8 +28700,8 @@
         <v>2639.26</v>
       </c>
       <c r="K170" s="0" t="n">
-        <f aca="false">B170*B170*SIGN(F170)*T$3*POWER(W$3,4)</f>
-        <v>232390.68742466</v>
+        <f aca="false">H170*H170*SIGN(F170)*T$3*POWER(W$3,4)</f>
+        <v>2548.29873876308</v>
       </c>
       <c r="L170" s="0" t="n">
         <f aca="false">F170*9.81</f>
@@ -28698,11 +28713,11 @@
       </c>
       <c r="N170" s="0" t="n">
         <f aca="false">K170*Q$4</f>
-        <v>23.239068742466</v>
+        <v>28.0312861263939</v>
       </c>
       <c r="O170" s="0" t="n">
         <f aca="false">IF(K170=0,0,L170/K170)</f>
-        <v>0.000119864342172621</v>
+        <v>0.0109309620773586</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28737,8 +28752,8 @@
         <v>2663.25</v>
       </c>
       <c r="K171" s="0" t="n">
-        <f aca="false">B171*B171*SIGN(F171)*T$3*POWER(W$3,4)</f>
-        <v>236634.596916624</v>
+        <f aca="false">H171*H171*SIGN(F171)*T$3*POWER(W$3,4)</f>
+        <v>2594.83566898883</v>
       </c>
       <c r="L171" s="0" t="n">
         <f aca="false">F171*9.81</f>
@@ -28750,11 +28765,11 @@
       </c>
       <c r="N171" s="0" t="n">
         <f aca="false">K171*Q$4</f>
-        <v>23.6634596916624</v>
+        <v>28.5431923588771</v>
       </c>
       <c r="O171" s="0" t="n">
         <f aca="false">IF(K171=0,0,L171/K171)</f>
-        <v>0.000119783110211847</v>
+        <v>0.0109235541738355</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28789,8 +28804,8 @@
         <v>2688.12</v>
       </c>
       <c r="K172" s="0" t="n">
-        <f aca="false">B172*B172*SIGN(F172)*T$3*POWER(W$3,4)</f>
-        <v>241074.72127594</v>
+        <f aca="false">H172*H172*SIGN(F172)*T$3*POWER(W$3,4)</f>
+        <v>2643.52420909423</v>
       </c>
       <c r="L172" s="0" t="n">
         <f aca="false">F172*9.81</f>
@@ -28802,11 +28817,11 @@
       </c>
       <c r="N172" s="0" t="n">
         <f aca="false">K172*Q$4</f>
-        <v>24.107472127594</v>
+        <v>29.0787663000365</v>
       </c>
       <c r="O172" s="0" t="n">
         <f aca="false">IF(K172=0,0,L172/K172)</f>
-        <v>0.000121083944333541</v>
+        <v>0.0110421830187066</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28841,8 +28856,8 @@
         <v>2710.8</v>
       </c>
       <c r="K173" s="0" t="n">
-        <f aca="false">B173*B173*SIGN(F173)*T$3*POWER(W$3,4)</f>
-        <v>245159.836508529</v>
+        <f aca="false">H173*H173*SIGN(F173)*T$3*POWER(W$3,4)</f>
+        <v>2688.31986812115</v>
       </c>
       <c r="L173" s="0" t="n">
         <f aca="false">F173*9.81</f>
@@ -28854,11 +28869,11 @@
       </c>
       <c r="N173" s="0" t="n">
         <f aca="false">K173*Q$4</f>
-        <v>24.5159836508529</v>
+        <v>29.5715185493326</v>
       </c>
       <c r="O173" s="0" t="n">
         <f aca="false">IF(K173=0,0,L173/K173)</f>
-        <v>0.00012215187420619</v>
+        <v>0.0111395722900079</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28893,8 +28908,8 @@
         <v>2735.48</v>
       </c>
       <c r="K174" s="0" t="n">
-        <f aca="false">B174*B174*SIGN(F174)*T$3*POWER(W$3,4)</f>
-        <v>249644.186385551</v>
+        <f aca="false">H174*H174*SIGN(F174)*T$3*POWER(W$3,4)</f>
+        <v>2737.49336669127</v>
       </c>
       <c r="L174" s="0" t="n">
         <f aca="false">F174*9.81</f>
@@ -28902,15 +28917,15 @@
       </c>
       <c r="M174" s="0" t="n">
         <f aca="false">K174*P$4</f>
-        <v>24.6769241807261</v>
+        <v>24.676924180726</v>
       </c>
       <c r="N174" s="0" t="n">
         <f aca="false">K174*Q$4</f>
-        <v>24.9644186385551</v>
+        <v>30.112427033604</v>
       </c>
       <c r="O174" s="0" t="n">
         <f aca="false">IF(K174=0,0,L174/K174)</f>
-        <v>0.000122096582553401</v>
+        <v>0.0111345299984566</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28945,8 +28960,8 @@
         <v>2765.9</v>
       </c>
       <c r="K175" s="0" t="n">
-        <f aca="false">B175*B175*SIGN(F175)*T$3*POWER(W$3,4)</f>
-        <v>255227.412582915</v>
+        <f aca="false">H175*H175*SIGN(F175)*T$3*POWER(W$3,4)</f>
+        <v>2798.71668176745</v>
       </c>
       <c r="L175" s="0" t="n">
         <f aca="false">F175*9.81</f>
@@ -28954,15 +28969,15 @@
       </c>
       <c r="M175" s="0" t="n">
         <f aca="false">K175*P$4</f>
-        <v>25.2288170629557</v>
+        <v>25.2288170629556</v>
       </c>
       <c r="N175" s="0" t="n">
         <f aca="false">K175*Q$4</f>
-        <v>25.5227412582915</v>
+        <v>30.785883499442</v>
       </c>
       <c r="O175" s="0" t="n">
         <f aca="false">IF(K175=0,0,L175/K175)</f>
-        <v>0.000121866475665875</v>
+        <v>0.0111135455287162</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28997,8 +29012,8 @@
         <v>2809.4</v>
       </c>
       <c r="K176" s="0" t="n">
-        <f aca="false">B176*B176*SIGN(F176)*T$3*POWER(W$3,4)</f>
-        <v>263318.592666511</v>
+        <f aca="false">H176*H176*SIGN(F176)*T$3*POWER(W$3,4)</f>
+        <v>2887.44116651609</v>
       </c>
       <c r="L176" s="0" t="n">
         <f aca="false">F176*9.81</f>
@@ -29006,15 +29021,15 @@
       </c>
       <c r="M176" s="0" t="n">
         <f aca="false">K176*P$4</f>
-        <v>26.0286171317911</v>
+        <v>26.028617131791</v>
       </c>
       <c r="N176" s="0" t="n">
         <f aca="false">K176*Q$4</f>
-        <v>26.3318592666511</v>
+        <v>31.761852831677</v>
       </c>
       <c r="O176" s="0" t="n">
         <f aca="false">IF(K176=0,0,L176/K176)</f>
-        <v>0.000119811665015071</v>
+        <v>0.0109261582132479</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29049,8 +29064,8 @@
         <v>2822.46</v>
       </c>
       <c r="K177" s="0" t="n">
-        <f aca="false">B177*B177*SIGN(F177)*T$3*POWER(W$3,4)</f>
-        <v>265772.450491639</v>
+        <f aca="false">H177*H177*SIGN(F177)*T$3*POWER(W$3,4)</f>
+        <v>2914.34914148778</v>
       </c>
       <c r="L177" s="0" t="n">
         <f aca="false">F177*9.81</f>
@@ -29062,11 +29077,11 @@
       </c>
       <c r="N177" s="0" t="n">
         <f aca="false">K177*Q$4</f>
-        <v>26.5772450491639</v>
+        <v>32.0578405563656</v>
       </c>
       <c r="O177" s="0" t="n">
         <f aca="false">IF(K177=0,0,L177/K177)</f>
-        <v>0.000121886557789101</v>
+        <v>0.0111153769067843</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29101,8 +29116,8 @@
         <v>2853.6</v>
       </c>
       <c r="K178" s="0" t="n">
-        <f aca="false">B178*B178*SIGN(F178)*T$3*POWER(W$3,4)</f>
-        <v>271669.298785321</v>
+        <f aca="false">H178*H178*SIGN(F178)*T$3*POWER(W$3,4)</f>
+        <v>2979.01150483803</v>
       </c>
       <c r="L178" s="0" t="n">
         <f aca="false">F178*9.81</f>
@@ -29114,11 +29129,11 @@
       </c>
       <c r="N178" s="0" t="n">
         <f aca="false">K178*Q$4</f>
-        <v>27.1669298785321</v>
+        <v>32.7691265532184</v>
       </c>
       <c r="O178" s="0" t="n">
         <f aca="false">IF(K178=0,0,L178/K178)</f>
-        <v>0.000121861569551005</v>
+        <v>0.0111130981182968</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29153,8 +29168,8 @@
         <v>2888</v>
       </c>
       <c r="K179" s="0" t="n">
-        <f aca="false">B179*B179*SIGN(F179)*T$3*POWER(W$3,4)</f>
-        <v>278258.696863744</v>
+        <f aca="false">H179*H179*SIGN(F179)*T$3*POWER(W$3,4)</f>
+        <v>3051.26807844921</v>
       </c>
       <c r="L179" s="0" t="n">
         <f aca="false">F179*9.81</f>
@@ -29166,11 +29181,11 @@
       </c>
       <c r="N179" s="0" t="n">
         <f aca="false">K179*Q$4</f>
-        <v>27.8258696863744</v>
+        <v>33.5639488629413</v>
       </c>
       <c r="O179" s="0" t="n">
         <f aca="false">IF(K179=0,0,L179/K179)</f>
-        <v>0.000120574922828842</v>
+        <v>0.0109957630854422</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29205,8 +29220,8 @@
         <v>2903.17</v>
       </c>
       <c r="K180" s="0" t="n">
-        <f aca="false">B180*B180*SIGN(F180)*T$3*POWER(W$3,4)</f>
-        <v>281189.632381106</v>
+        <f aca="false">H180*H180*SIGN(F180)*T$3*POWER(W$3,4)</f>
+        <v>3083.40748715385</v>
       </c>
       <c r="L180" s="0" t="n">
         <f aca="false">F180*9.81</f>
@@ -29218,11 +29233,11 @@
       </c>
       <c r="N180" s="0" t="n">
         <f aca="false">K180*Q$4</f>
-        <v>28.1189632381106</v>
+        <v>33.9174823586924</v>
       </c>
       <c r="O180" s="0" t="n">
         <f aca="false">IF(K180=0,0,L180/K180)</f>
-        <v>0.000122483066367543</v>
+        <v>0.0111697751751232</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29257,8 +29272,8 @@
         <v>2933.63</v>
       </c>
       <c r="K181" s="0" t="n">
-        <f aca="false">B181*B181*SIGN(F181)*T$3*POWER(W$3,4)</f>
-        <v>287121.057887894</v>
+        <f aca="false">H181*H181*SIGN(F181)*T$3*POWER(W$3,4)</f>
+        <v>3148.44900971017</v>
       </c>
       <c r="L181" s="0" t="n">
         <f aca="false">F181*9.81</f>
@@ -29266,15 +29281,15 @@
       </c>
       <c r="M181" s="0" t="n">
         <f aca="false">K181*P$4</f>
-        <v>28.3814523333098</v>
+        <v>28.3814523333097</v>
       </c>
       <c r="N181" s="0" t="n">
         <f aca="false">K181*Q$4</f>
-        <v>28.7121057887894</v>
+        <v>34.6329391068119</v>
       </c>
       <c r="O181" s="0" t="n">
         <f aca="false">IF(K181=0,0,L181/K181)</f>
-        <v>0.000123207310338806</v>
+        <v>0.0112358222016295</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29309,8 +29324,8 @@
         <v>2973.17</v>
       </c>
       <c r="K182" s="0" t="n">
-        <f aca="false">B182*B182*SIGN(F182)*T$3*POWER(W$3,4)</f>
-        <v>294912.956633215</v>
+        <f aca="false">H182*H182*SIGN(F182)*T$3*POWER(W$3,4)</f>
+        <v>3233.89170091831</v>
       </c>
       <c r="L182" s="0" t="n">
         <f aca="false">F182*9.81</f>
@@ -29322,11 +29337,11 @@
       </c>
       <c r="N182" s="0" t="n">
         <f aca="false">K182*Q$4</f>
-        <v>29.4912956633215</v>
+        <v>35.5728087101014</v>
       </c>
       <c r="O182" s="0" t="n">
         <f aca="false">IF(K182=0,0,L182/K182)</f>
-        <v>0.000122517060880907</v>
+        <v>0.0111728752858792</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29361,8 +29376,8 @@
         <v>3001.72</v>
       </c>
       <c r="K183" s="0" t="n">
-        <f aca="false">B183*B183*SIGN(F183)*T$3*POWER(W$3,4)</f>
-        <v>300603.980354981</v>
+        <f aca="false">H183*H183*SIGN(F183)*T$3*POWER(W$3,4)</f>
+        <v>3296.29707840209</v>
       </c>
       <c r="L183" s="0" t="n">
         <f aca="false">F183*9.81</f>
@@ -29374,11 +29389,11 @@
       </c>
       <c r="N183" s="0" t="n">
         <f aca="false">K183*Q$4</f>
-        <v>30.0603980354981</v>
+        <v>36.259267862423</v>
       </c>
       <c r="O183" s="0" t="n">
         <f aca="false">IF(K183=0,0,L183/K183)</f>
-        <v>0.000121973891102511</v>
+        <v>0.0111233412197708</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29413,8 +29428,8 @@
         <v>3041.86</v>
       </c>
       <c r="K184" s="0" t="n">
-        <f aca="false">B184*B184*SIGN(F184)*T$3*POWER(W$3,4)</f>
-        <v>308697.287317333</v>
+        <f aca="false">H184*H184*SIGN(F184)*T$3*POWER(W$3,4)</f>
+        <v>3385.04488561045</v>
       </c>
       <c r="L184" s="0" t="n">
         <f aca="false">F184*9.81</f>
@@ -29426,11 +29441,11 @@
       </c>
       <c r="N184" s="0" t="n">
         <f aca="false">K184*Q$4</f>
-        <v>30.8697287317333</v>
+        <v>37.235493741715</v>
       </c>
       <c r="O184" s="0" t="n">
         <f aca="false">IF(K184=0,0,L184/K184)</f>
-        <v>0.000121370648391494</v>
+        <v>0.0110683288359538</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29465,8 +29480,8 @@
         <v>3065.09</v>
       </c>
       <c r="K185" s="0" t="n">
-        <f aca="false">B185*B185*SIGN(F185)*T$3*POWER(W$3,4)</f>
-        <v>313430.194016333</v>
+        <f aca="false">H185*H185*SIGN(F185)*T$3*POWER(W$3,4)</f>
+        <v>3436.94395396555</v>
       </c>
       <c r="L185" s="0" t="n">
         <f aca="false">F185*9.81</f>
@@ -29474,15 +29489,15 @@
       </c>
       <c r="M185" s="0" t="n">
         <f aca="false">K185*P$4</f>
-        <v>30.9820679010171</v>
+        <v>30.982067901017</v>
       </c>
       <c r="N185" s="0" t="n">
         <f aca="false">K185*Q$4</f>
-        <v>31.3430194016333</v>
+        <v>37.8063834936211</v>
       </c>
       <c r="O185" s="0" t="n">
         <f aca="false">IF(K185=0,0,L185/K185)</f>
-        <v>0.000121667443897932</v>
+        <v>0.011095394937238</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29517,8 +29532,8 @@
         <v>3107.61</v>
       </c>
       <c r="K186" s="0" t="n">
-        <f aca="false">B186*B186*SIGN(F186)*T$3*POWER(W$3,4)</f>
-        <v>322186.537621705</v>
+        <f aca="false">H186*H186*SIGN(F186)*T$3*POWER(W$3,4)</f>
+        <v>3532.96234271007</v>
       </c>
       <c r="L186" s="0" t="n">
         <f aca="false">F186*9.81</f>
@@ -29530,11 +29545,11 @@
       </c>
       <c r="N186" s="0" t="n">
         <f aca="false">K186*Q$4</f>
-        <v>32.2186537621705</v>
+        <v>38.8625857698108</v>
       </c>
       <c r="O186" s="0" t="n">
         <f aca="false">IF(K186=0,0,L186/K186)</f>
-        <v>0.000120432440972934</v>
+        <v>0.010982769531768</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29569,8 +29584,8 @@
         <v>3124.51</v>
       </c>
       <c r="K187" s="0" t="n">
-        <f aca="false">B187*B187*SIGN(F187)*T$3*POWER(W$3,4)</f>
-        <v>325700.336346259</v>
+        <f aca="false">H187*H187*SIGN(F187)*T$3*POWER(W$3,4)</f>
+        <v>3571.49318470413</v>
       </c>
       <c r="L187" s="0" t="n">
         <f aca="false">F187*9.81</f>
@@ -29578,15 +29593,15 @@
       </c>
       <c r="M187" s="0" t="n">
         <f aca="false">K187*P$4</f>
-        <v>32.1949516310418</v>
+        <v>32.1949516310419</v>
       </c>
       <c r="N187" s="0" t="n">
         <f aca="false">K187*Q$4</f>
-        <v>32.5700336346259</v>
+        <v>39.2864250317454</v>
       </c>
       <c r="O187" s="0" t="n">
         <f aca="false">IF(K187=0,0,L187/K187)</f>
-        <v>0.000122275436527831</v>
+        <v>0.0111508404872679</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29621,8 +29636,8 @@
         <v>3153.38</v>
       </c>
       <c r="K188" s="0" t="n">
-        <f aca="false">B188*B188*SIGN(F188)*T$3*POWER(W$3,4)</f>
-        <v>331746.986678587</v>
+        <f aca="false">H188*H188*SIGN(F188)*T$3*POWER(W$3,4)</f>
+        <v>3637.79821433492</v>
       </c>
       <c r="L188" s="0" t="n">
         <f aca="false">F188*9.81</f>
@@ -29630,15 +29645,15 @@
       </c>
       <c r="M188" s="0" t="n">
         <f aca="false">K188*P$4</f>
-        <v>32.7926532397138</v>
+        <v>32.7926532397137</v>
       </c>
       <c r="N188" s="0" t="n">
         <f aca="false">K188*Q$4</f>
-        <v>33.1746986678587</v>
+        <v>40.0157803576841</v>
       </c>
       <c r="O188" s="0" t="n">
         <f aca="false">IF(K188=0,0,L188/K188)</f>
-        <v>0.00012259523843755</v>
+        <v>0.0111800046447149</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29673,8 +29688,8 @@
         <v>3180.33</v>
       </c>
       <c r="K189" s="0" t="n">
-        <f aca="false">B189*B189*SIGN(F189)*T$3*POWER(W$3,4)</f>
-        <v>337441.69275053</v>
+        <f aca="false">H189*H189*SIGN(F189)*T$3*POWER(W$3,4)</f>
+        <v>3700.24397092516</v>
       </c>
       <c r="L189" s="0" t="n">
         <f aca="false">F189*9.81</f>
@@ -29686,11 +29701,11 @@
       </c>
       <c r="N189" s="0" t="n">
         <f aca="false">K189*Q$4</f>
-        <v>33.744169275053</v>
+        <v>40.7026836801767</v>
       </c>
       <c r="O189" s="0" t="n">
         <f aca="false">IF(K189=0,0,L189/K189)</f>
-        <v>0.000123691111188377</v>
+        <v>0.0112799421512642</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29725,8 +29740,8 @@
         <v>3204.34</v>
       </c>
       <c r="K190" s="0" t="n">
-        <f aca="false">B190*B190*SIGN(F190)*T$3*POWER(W$3,4)</f>
-        <v>342555.978437178</v>
+        <f aca="false">H190*H190*SIGN(F190)*T$3*POWER(W$3,4)</f>
+        <v>3756.3250811856</v>
       </c>
       <c r="L190" s="0" t="n">
         <f aca="false">F190*9.81</f>
@@ -29734,15 +29749,15 @@
       </c>
       <c r="M190" s="0" t="n">
         <f aca="false">K190*P$4</f>
-        <v>33.8611045982601</v>
+        <v>33.8611045982602</v>
       </c>
       <c r="N190" s="0" t="n">
         <f aca="false">K190*Q$4</f>
-        <v>34.2555978437178</v>
+        <v>41.3195758930416</v>
       </c>
       <c r="O190" s="0" t="n">
         <f aca="false">IF(K190=0,0,L190/K190)</f>
-        <v>0.000123273309248474</v>
+        <v>0.0112418409355219</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29777,8 +29792,8 @@
         <v>3242.32</v>
       </c>
       <c r="K191" s="0" t="n">
-        <f aca="false">B191*B191*SIGN(F191)*T$3*POWER(W$3,4)</f>
-        <v>350724.51195529</v>
+        <f aca="false">H191*H191*SIGN(F191)*T$3*POWER(W$3,4)</f>
+        <v>3845.89779123017</v>
       </c>
       <c r="L191" s="0" t="n">
         <f aca="false">F191*9.81</f>
@@ -29786,15 +29801,15 @@
       </c>
       <c r="M191" s="0" t="n">
         <f aca="false">K191*P$4</f>
-        <v>34.6685509290264</v>
+        <v>34.6685509290265</v>
       </c>
       <c r="N191" s="0" t="n">
         <f aca="false">K191*Q$4</f>
-        <v>35.072451195529</v>
+        <v>42.3048757035319</v>
       </c>
       <c r="O191" s="0" t="n">
         <f aca="false">IF(K191=0,0,L191/K191)</f>
-        <v>0.000122559054123596</v>
+        <v>0.011176704836311</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29829,8 +29844,8 @@
         <v>3260.1</v>
       </c>
       <c r="K192" s="0" t="n">
-        <f aca="false">B192*B192*SIGN(F192)*T$3*POWER(W$3,4)</f>
-        <v>354581.614129974</v>
+        <f aca="false">H192*H192*SIGN(F192)*T$3*POWER(W$3,4)</f>
+        <v>3888.19315476625</v>
       </c>
       <c r="L192" s="0" t="n">
         <f aca="false">F192*9.81</f>
@@ -29842,11 +29857,11 @@
       </c>
       <c r="N192" s="0" t="n">
         <f aca="false">K192*Q$4</f>
-        <v>35.4581614129974</v>
+        <v>42.7701247024288</v>
       </c>
       <c r="O192" s="0" t="n">
         <f aca="false">IF(K192=0,0,L192/K192)</f>
-        <v>0.000124739662707348</v>
+        <v>0.0113755642243702</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29881,8 +29896,8 @@
         <v>3299.33</v>
       </c>
       <c r="K193" s="0" t="n">
-        <f aca="false">B193*B193*SIGN(F193)*T$3*POWER(W$3,4)</f>
-        <v>363166.584074009</v>
+        <f aca="false">H193*H193*SIGN(F193)*T$3*POWER(W$3,4)</f>
+        <v>3982.33233186987</v>
       </c>
       <c r="L193" s="0" t="n">
         <f aca="false">F193*9.81</f>
@@ -29890,15 +29905,15 @@
       </c>
       <c r="M193" s="0" t="n">
         <f aca="false">K193*P$4</f>
-        <v>35.8984296406844</v>
+        <v>35.8984296406843</v>
       </c>
       <c r="N193" s="0" t="n">
         <f aca="false">K193*Q$4</f>
-        <v>36.3166584074009</v>
+        <v>43.8056556505686</v>
       </c>
       <c r="O193" s="0" t="n">
         <f aca="false">IF(K193=0,0,L193/K193)</f>
-        <v>0.000122281020327988</v>
+        <v>0.0111513496988205</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29933,8 +29948,8 @@
         <v>3307.84</v>
       </c>
       <c r="K194" s="0" t="n">
-        <f aca="false">B194*B194*SIGN(F194)*T$3*POWER(W$3,4)</f>
-        <v>365042.439701109</v>
+        <f aca="false">H194*H194*SIGN(F194)*T$3*POWER(W$3,4)</f>
+        <v>4002.90217733837</v>
       </c>
       <c r="L194" s="0" t="n">
         <f aca="false">F194*9.81</f>
@@ -29946,11 +29961,11 @@
       </c>
       <c r="N194" s="0" t="n">
         <f aca="false">K194*Q$4</f>
-        <v>36.5042439701109</v>
+        <v>44.0319239507221</v>
       </c>
       <c r="O194" s="0" t="n">
         <f aca="false">IF(K194=0,0,L194/K194)</f>
-        <v>0.000124943854794924</v>
+        <v>0.0113941854083297</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29985,8 +30000,8 @@
         <v>3351.13</v>
       </c>
       <c r="K195" s="0" t="n">
-        <f aca="false">B195*B195*SIGN(F195)*T$3*POWER(W$3,4)</f>
-        <v>374659.647794659</v>
+        <f aca="false">H195*H195*SIGN(F195)*T$3*POWER(W$3,4)</f>
+        <v>4108.36044473628</v>
       </c>
       <c r="L195" s="0" t="n">
         <f aca="false">F195*9.81</f>
@@ -29998,11 +30013,11 @@
       </c>
       <c r="N195" s="0" t="n">
         <f aca="false">K195*Q$4</f>
-        <v>37.4659647794659</v>
+        <v>45.1919648920991</v>
       </c>
       <c r="O195" s="0" t="n">
         <f aca="false">IF(K195=0,0,L195/K195)</f>
-        <v>0.000123280624773647</v>
+        <v>0.0112425080707749</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30037,8 +30052,8 @@
         <v>3378.76</v>
       </c>
       <c r="K196" s="0" t="n">
-        <f aca="false">B196*B196*SIGN(F196)*T$3*POWER(W$3,4)</f>
-        <v>380863.239687979</v>
+        <f aca="false">H196*H196*SIGN(F196)*T$3*POWER(W$3,4)</f>
+        <v>4176.38642965307</v>
       </c>
       <c r="L196" s="0" t="n">
         <f aca="false">F196*9.81</f>
@@ -30050,11 +30065,11 @@
       </c>
       <c r="N196" s="0" t="n">
         <f aca="false">K196*Q$4</f>
-        <v>38.0863239687979</v>
+        <v>45.9402507261837</v>
       </c>
       <c r="O196" s="0" t="n">
         <f aca="false">IF(K196=0,0,L196/K196)</f>
-        <v>0.000123258760479114</v>
+        <v>0.0112405141685847</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30089,8 +30104,8 @@
         <v>3405.6</v>
       </c>
       <c r="K197" s="0" t="n">
-        <f aca="false">B197*B197*SIGN(F197)*T$3*POWER(W$3,4)</f>
-        <v>386938.232459919</v>
+        <f aca="false">H197*H197*SIGN(F197)*T$3*POWER(W$3,4)</f>
+        <v>4243.00225058069</v>
       </c>
       <c r="L197" s="0" t="n">
         <f aca="false">F197*9.81</f>
@@ -30102,11 +30117,11 @@
       </c>
       <c r="N197" s="0" t="n">
         <f aca="false">K197*Q$4</f>
-        <v>38.6938232459919</v>
+        <v>46.6730247563875</v>
       </c>
       <c r="O197" s="0" t="n">
         <f aca="false">IF(K197=0,0,L197/K197)</f>
-        <v>0.000122588563196875</v>
+        <v>0.0111793958998509</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30141,8 +30156,8 @@
         <v>3427.86</v>
       </c>
       <c r="K198" s="0" t="n">
-        <f aca="false">B198*B198*SIGN(F198)*T$3*POWER(W$3,4)</f>
-        <v>392013.047119271</v>
+        <f aca="false">H198*H198*SIGN(F198)*T$3*POWER(W$3,4)</f>
+        <v>4298.65053812265</v>
       </c>
       <c r="L198" s="0" t="n">
         <f aca="false">F198*9.81</f>
@@ -30154,11 +30169,11 @@
       </c>
       <c r="N198" s="0" t="n">
         <f aca="false">K198*Q$4</f>
-        <v>39.2013047119271</v>
+        <v>47.2851559193491</v>
       </c>
       <c r="O198" s="0" t="n">
         <f aca="false">IF(K198=0,0,L198/K198)</f>
-        <v>0.000123385298519627</v>
+        <v>0.0112520537348738</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30193,8 +30208,8 @@
         <v>3437.91</v>
       </c>
       <c r="K199" s="0" t="n">
-        <f aca="false">B199*B199*SIGN(F199)*T$3*POWER(W$3,4)</f>
-        <v>394315.070241782</v>
+        <f aca="false">H199*H199*SIGN(F199)*T$3*POWER(W$3,4)</f>
+        <v>4323.89355747384</v>
       </c>
       <c r="L199" s="0" t="n">
         <f aca="false">F199*9.81</f>
@@ -30206,11 +30221,11 @@
       </c>
       <c r="N199" s="0" t="n">
         <f aca="false">K199*Q$4</f>
-        <v>39.4315070241782</v>
+        <v>47.5628291322123</v>
       </c>
       <c r="O199" s="0" t="n">
         <f aca="false">IF(K199=0,0,L199/K199)</f>
-        <v>0.000124696222150096</v>
+        <v>0.011371602686891</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30245,8 +30260,8 @@
         <v>3454.99</v>
       </c>
       <c r="K200" s="0" t="n">
-        <f aca="false">B200*B200*SIGN(F200)*T$3*POWER(W$3,4)</f>
-        <v>398242.823643375</v>
+        <f aca="false">H200*H200*SIGN(F200)*T$3*POWER(W$3,4)</f>
+        <v>4366.96365271033</v>
       </c>
       <c r="L200" s="0" t="n">
         <f aca="false">F200*9.81</f>
@@ -30258,11 +30273,11 @@
       </c>
       <c r="N200" s="0" t="n">
         <f aca="false">K200*Q$4</f>
-        <v>39.8242823643375</v>
+        <v>48.0366001798136</v>
       </c>
       <c r="O200" s="0" t="n">
         <f aca="false">IF(K200=0,0,L200/K200)</f>
-        <v>0.000125030659418459</v>
+        <v>0.0114021015077367</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30297,8 +30312,8 @@
         <v>3493.84</v>
       </c>
       <c r="K201" s="0" t="n">
-        <f aca="false">B201*B201*SIGN(F201)*T$3*POWER(W$3,4)</f>
-        <v>407249.344918666</v>
+        <f aca="false">H201*H201*SIGN(F201)*T$3*POWER(W$3,4)</f>
+        <v>4465.72538477805</v>
       </c>
       <c r="L201" s="0" t="n">
         <f aca="false">F201*9.81</f>
@@ -30306,15 +30321,15 @@
       </c>
       <c r="M201" s="0" t="n">
         <f aca="false">K201*P$4</f>
-        <v>40.2559392738574</v>
+        <v>40.2559392738575</v>
       </c>
       <c r="N201" s="0" t="n">
         <f aca="false">K201*Q$4</f>
-        <v>40.7249344918666</v>
+        <v>49.1229792325585</v>
       </c>
       <c r="O201" s="0" t="n">
         <f aca="false">IF(K201=0,0,L201/K201)</f>
-        <v>0.000123904492680959</v>
+        <v>0.0112994013579068</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30349,8 +30364,8 @@
         <v>3515.95</v>
       </c>
       <c r="K202" s="0" t="n">
-        <f aca="false">B202*B202*SIGN(F202)*T$3*POWER(W$3,4)</f>
-        <v>412420.03037138</v>
+        <f aca="false">H202*H202*SIGN(F202)*T$3*POWER(W$3,4)</f>
+        <v>4522.42495120092</v>
       </c>
       <c r="L202" s="0" t="n">
         <f aca="false">F202*9.81</f>
@@ -30358,15 +30373,15 @@
       </c>
       <c r="M202" s="0" t="n">
         <f aca="false">K202*P$4</f>
-        <v>40.7670531705053</v>
+        <v>40.7670531705054</v>
       </c>
       <c r="N202" s="0" t="n">
         <f aca="false">K202*Q$4</f>
-        <v>41.242003037138</v>
+        <v>49.7466744632101</v>
       </c>
       <c r="O202" s="0" t="n">
         <f aca="false">IF(K202=0,0,L202/K202)</f>
-        <v>0.000123106302711536</v>
+        <v>0.0112266108671892</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30401,8 +30416,8 @@
         <v>3527.23</v>
       </c>
       <c r="K203" s="0" t="n">
-        <f aca="false">B203*B203*SIGN(F203)*T$3*POWER(W$3,4)</f>
-        <v>415070.557516749</v>
+        <f aca="false">H203*H203*SIGN(F203)*T$3*POWER(W$3,4)</f>
+        <v>4551.4895193919</v>
       </c>
       <c r="L203" s="0" t="n">
         <f aca="false">F203*9.81</f>
@@ -30410,15 +30425,15 @@
       </c>
       <c r="M203" s="0" t="n">
         <f aca="false">K203*P$4</f>
-        <v>41.0290534932535</v>
+        <v>41.0290534932536</v>
       </c>
       <c r="N203" s="0" t="n">
         <f aca="false">K203*Q$4</f>
-        <v>41.5070557516749</v>
+        <v>50.0663847133109</v>
       </c>
       <c r="O203" s="0" t="n">
         <f aca="false">IF(K203=0,0,L203/K203)</f>
-        <v>0.000123392223147828</v>
+        <v>0.0112526852224945</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30452,8 +30467,8 @@
         <v>3533.445</v>
       </c>
       <c r="K204" s="0" t="n">
-        <f aca="false">B204*B204*SIGN(F204)*T$3*POWER(W$3,4)</f>
-        <v>416534.559697558</v>
+        <f aca="false">H204*H204*SIGN(F204)*T$3*POWER(W$3,4)</f>
+        <v>4567.54315283239</v>
       </c>
       <c r="L204" s="0" t="n">
         <f aca="false">F204*9.81</f>
@@ -30465,17 +30480,17 @@
       </c>
       <c r="N204" s="0" t="n">
         <f aca="false">K204*Q$4</f>
-        <v>41.6534559697558</v>
+        <v>50.2429746811563</v>
       </c>
       <c r="O204" s="0" t="n">
         <f aca="false">IF(K204=0,0,L204/K204)</f>
-        <v>0.000123528281127405</v>
+        <v>0.0112650929543365</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -30491,11 +30506,11 @@
   </sheetPr>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -35353,8 +35368,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -35369,11 +35384,11 @@
   </sheetPr>
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -40432,8 +40447,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
